--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2" t="n">
         <v>81632</v>
@@ -499,14 +499,14 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>22274</v>
+        <v>21532</v>
       </c>
       <c r="E3" t="n">
         <v>45</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
     </row>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>48908</v>
+        <v>44148</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -539,7 +539,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Тысячелистник трава 50г</t>
+          <t>Можжевельник плоды 50г</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -548,24 +548,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>11244</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35</v>
+        <v>11786</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Можжевельник плоды 50г</t>
+          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -577,23 +579,21 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>12360</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>3405</v>
+      </c>
+      <c r="E6" t="n">
+        <v>37</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Череда трава 50г</t>
+          <t>Чистотел трава 50г</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>8700</v>
+        <v>15931</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Чистотел трава 50г</t>
+          <t>Зверобой трава 50г</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -631,21 +631,21 @@
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>16799</v>
+        <v>30590</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Зверобой трава 50г</t>
+          <t>Спорыш трава 50г</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>31626</v>
+        <v>12315</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+          <t>Череда трава 50г</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>3965</v>
+        <v>8700</v>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Спорыш трава 50г</t>
+          <t>Дуба кора 75г</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>13463</v>
+        <v>71071</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Дуба кора 75г</t>
+          <t>Полынь горькая трава 50г</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -735,21 +735,21 @@
         <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>75243</v>
+        <v>42084</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Полынь горькая трава 50г</t>
+          <t>Рябина плоды 50г</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -761,21 +761,21 @@
         <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>43708</v>
+        <v>2688</v>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Рябина плоды 50г</t>
+          <t>Сенна листья 50г</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -787,21 +787,21 @@
         <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>2688</v>
+        <v>20523</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Мать-и-мачеха листья 35г</t>
+          <t>Шиповник плоды низковитаминные 50г</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>26336</v>
+        <v>29433</v>
       </c>
       <c r="E15" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Сенна листья 50г</t>
+          <t>Мать-и-мачеха листья 35г</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -839,21 +839,21 @@
         <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>21685</v>
+        <v>25398</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Шиповник плоды низковитаминные 50г</t>
+          <t>Алтей корни 75г</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -862,17 +862,17 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>30343</v>
+        <v>5484</v>
       </c>
       <c r="E17" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
@@ -891,14 +891,14 @@
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>16987</v>
+        <v>16259</v>
       </c>
       <c r="E18" t="n">
         <v>43</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
@@ -917,14 +917,14 @@
         <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>18841</v>
+        <v>18253</v>
       </c>
       <c r="E19" t="n">
         <v>31</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
@@ -943,21 +943,21 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>11355</v>
+        <v>11215</v>
       </c>
       <c r="E20" t="n">
         <v>35</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Алтей корни 75г</t>
+          <t>Липа цветки 35г</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -969,21 +969,21 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>5596</v>
+        <v>19144</v>
       </c>
       <c r="E21" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Липа цветки 35г</t>
+          <t>Пижма цветки 75г</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -995,21 +995,21 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>19200</v>
+        <v>19383</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Пижма цветки 75г</t>
+          <t>Кукуруза столбики с рыльцами 40г</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1021,21 +1021,21 @@
         <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>20209</v>
+        <v>28170</v>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Сб. Грудной №4 50г</t>
+          <t>Лен семена 100г</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1047,21 +1047,21 @@
         <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>40974</v>
+        <v>86509</v>
       </c>
       <c r="E24" t="n">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Лен семена 100г</t>
+          <t>Пустырник трава 50г</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
-        <v>87965</v>
+        <v>15358</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Пустырник трава 50г</t>
+          <t>Сб. Грудной №4 50г</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1096,13 +1096,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
-        <v>15820</v>
+        <v>40218</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Солодка корни 50г</t>
+          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>34584</v>
+        <v>11539</v>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Шалфей листья 50г</t>
+          <t>Солодка корни 50г</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>47328</v>
+        <v>32638</v>
       </c>
       <c r="E28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>28228</v>
+        <v>27626</v>
       </c>
       <c r="E29" t="n">
         <v>33</v>
@@ -1191,7 +1191,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Валериана корневища с корнями 50г</t>
+          <t>Подорожник большой листья 50г</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
-        <v>27144</v>
+        <v>11886</v>
       </c>
       <c r="E30" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Кукуруза столбики с рыльцами 40г</t>
+          <t>Шалфей листья 50г</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
-        <v>30256</v>
+        <v>47076</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Подорожник большой листья 50г</t>
+          <t>Эрва шерстистая трава 30г</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
-        <v>12488</v>
+        <v>18338</v>
       </c>
       <c r="E32" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+          <t>Валериана корневища с корнями 50г</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1281,21 +1281,21 @@
         <v>28</v>
       </c>
       <c r="D33" t="n">
-        <v>12015</v>
+        <v>27004</v>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Эвкалипт прутовидный листья 75г</t>
+          <t>Девясил корневища и корни 50г</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1307,21 +1307,21 @@
         <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>30385</v>
+        <v>22213</v>
       </c>
       <c r="E34" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Эрва шерстистая трава 30г</t>
+          <t>Эвкалипт прутовидный листья 75г</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1333,21 +1333,21 @@
         <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>18702</v>
+        <v>29573</v>
       </c>
       <c r="E35" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Девясил корневища и корни 50г</t>
+          <t>Мята перечная листья 50г</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1359,14 +1359,14 @@
         <v>29</v>
       </c>
       <c r="D36" t="n">
-        <v>22773</v>
+        <v>27995</v>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
@@ -1385,21 +1385,21 @@
         <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>28195</v>
+        <v>28069</v>
       </c>
       <c r="E37" t="n">
         <v>43</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Мята перечная листья 50г</t>
+          <t>Ромашка цветки вн 50г</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1411,21 +1411,21 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>29241</v>
+        <v>116991</v>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Ромашка цветки вн 50г</t>
+          <t>Толокнянка листья 50г</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1437,21 +1437,21 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>118307</v>
+        <v>13173</v>
       </c>
       <c r="E39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Толокнянка листья 50г</t>
+          <t>Бессмертник песчаный цветки 30г</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1460,24 +1460,24 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>13411</v>
+        <v>37089</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Чабрец трава 50г</t>
+          <t>Крушина кора 50г</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1489,21 +1489,21 @@
         <v>33</v>
       </c>
       <c r="D41" t="n">
-        <v>27707</v>
+        <v>16078</v>
       </c>
       <c r="E41" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Береза почки 50г</t>
+          <t>Чабрец трава 50г</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>23345</v>
+        <v>27245</v>
       </c>
       <c r="E42" t="n">
         <v>43</v>
@@ -1529,7 +1529,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Бессмертник песчаный цветки 30г</t>
+          <t>Береза почки 50г</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1541,21 +1541,21 @@
         <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>37705</v>
+        <v>23135</v>
       </c>
       <c r="E43" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Крушина кора 50г</t>
+          <t>Крапива листья 50г</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1564,24 +1564,24 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>16400</v>
+        <v>28285</v>
       </c>
       <c r="E44" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Крапива листья 50г</t>
+          <t>Тысячелистник трава 50г</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1593,14 +1593,14 @@
         <v>36</v>
       </c>
       <c r="D45" t="n">
-        <v>28747</v>
+        <v>25379</v>
       </c>
       <c r="E45" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
         <v>12902</v>
@@ -1626,14 +1626,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Ламинарии слоевища (морская капуста) 100г</t>
+          <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1645,21 +1645,21 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>23600</v>
+        <v>9393</v>
       </c>
       <c r="E47" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+          <t>Ламинарии слоевища (морская капуста) 100г</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1668,24 +1668,24 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>9519</v>
+        <v>23348</v>
       </c>
       <c r="E48" t="n">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-04</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+          <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1694,24 +1694,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>3098</v>
+        <v>2988</v>
       </c>
       <c r="E49" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-18</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+          <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1720,24 +1720,24 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D50" t="n">
-        <v>2988</v>
+        <v>14999</v>
       </c>
       <c r="E50" t="n">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+          <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1746,24 +1746,24 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D51" t="n">
-        <v>15299</v>
+        <v>4701</v>
       </c>
       <c r="E51" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+          <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1772,17 +1772,17 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>4701</v>
+        <v>7928</v>
       </c>
       <c r="E52" t="n">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
@@ -1798,10 +1798,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" t="n">
-        <v>4880</v>
+        <v>4820</v>
       </c>
       <c r="E53" t="n">
         <v>102</v>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D54" t="n">
-        <v>8360</v>
+        <v>8340</v>
       </c>
       <c r="E54" t="n">
         <v>112</v>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D55" t="n">
-        <v>9760</v>
+        <v>9750</v>
       </c>
       <c r="E55" t="n">
         <v>104</v>
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>2659</v>
+        <v>2479</v>
       </c>
       <c r="E57" t="n">
         <v>37</v>
@@ -1915,7 +1915,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1927,21 +1927,21 @@
         <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>1908</v>
+        <v>1098</v>
       </c>
       <c r="E58" t="n">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Фп Пастушья сумка трава 20х1,5г</t>
+          <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
-        <v>3698</v>
+        <v>1908</v>
       </c>
       <c r="E59" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+          <t>Фп Пастушья сумка трава 20х1,5г</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1976,13 +1976,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>1098</v>
+        <v>3680</v>
       </c>
       <c r="E60" t="n">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Бруснивер 20x2,0г</t>
+          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" t="n">
-        <v>141789</v>
+        <v>12665</v>
       </c>
       <c r="E61" t="n">
         <v>28</v>
@@ -2019,7 +2019,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+          <t>Фп Аир корневища 20x1,5г</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2031,21 +2031,21 @@
         <v>22</v>
       </c>
       <c r="D62" t="n">
-        <v>12989</v>
+        <v>3910</v>
       </c>
       <c r="E62" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Фп Аир корневища 20x1,5г</t>
+          <t>Фп Сб. Бруснивер 20x2,0г</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2054,13 +2054,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>4072</v>
+        <v>138981</v>
       </c>
       <c r="E63" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="n">
-        <v>29881</v>
+        <v>30801</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+          <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2109,21 +2109,21 @@
         <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>32385</v>
+        <v>69989</v>
       </c>
       <c r="E65" t="n">
         <v>32</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+          <t>Фп Хвощ полевой трава 20х1,5г</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2132,24 +2132,24 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" t="n">
-        <v>50346</v>
+        <v>21742</v>
       </c>
       <c r="E66" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+          <t>Фп Сб. Грудной №4 20x2,0г</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2158,24 +2158,24 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
-        <v>71537</v>
+        <v>594435</v>
       </c>
       <c r="E67" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+          <t>Фп Шалфей листья 20х1,5г</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2184,24 +2184,24 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
-        <v>149935</v>
+        <v>127626</v>
       </c>
       <c r="E68" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Фп Хвощ полевой трава 20х1,5г</t>
+          <t>Фп Крапива листья 20x1,5г</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2210,24 +2210,24 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>22966</v>
+        <v>60247</v>
       </c>
       <c r="E69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Грудной №4 20x2,0г</t>
+          <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2236,24 +2236,24 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" t="n">
-        <v>598395</v>
+        <v>49815</v>
       </c>
       <c r="E70" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Фп Крапива листья 20x1,5г</t>
+          <t>Фп Шиповник плоды 20х2,0г</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2265,21 +2265,21 @@
         <v>29</v>
       </c>
       <c r="D71" t="n">
-        <v>60427</v>
+        <v>46991</v>
       </c>
       <c r="E71" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Фп Шалфей листья 20х1,5г</t>
+          <t>Фп Сб. Элекасол 20x2,0г</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2288,24 +2288,24 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D72" t="n">
-        <v>128292</v>
+        <v>35564</v>
       </c>
       <c r="E72" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Фп Шиповник плоды 20х2,0г</t>
+          <t>Фп Пижма цветки 20х1,5г</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2314,24 +2314,24 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D73" t="n">
-        <v>47819</v>
+        <v>7338</v>
       </c>
       <c r="E73" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Фп Душица трава 20x1,5г</t>
+          <t>Фп Подорожник листья 20x1,5г</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2340,24 +2340,24 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
-        <v>22086</v>
+        <v>28225</v>
       </c>
       <c r="E74" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2366,24 +2366,24 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D75" t="n">
-        <v>50445</v>
+        <v>184531</v>
       </c>
       <c r="E75" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Элекасол 20x2,0г</t>
+          <t>Фп Толокнянка листья 20x1,5г</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2395,21 +2395,21 @@
         <v>32</v>
       </c>
       <c r="D76" t="n">
-        <v>35870</v>
+        <v>35064</v>
       </c>
       <c r="E76" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Фп Подорожник листья 20x1,5г</t>
+          <t>Фп Мята перечная листья 20x1,5г</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2418,24 +2418,24 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77" t="n">
-        <v>29287</v>
+        <v>58259</v>
       </c>
       <c r="E77" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Фп Толокнянка листья 20x1,5г</t>
+          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2444,24 +2444,24 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
-        <v>36000</v>
+        <v>44137</v>
       </c>
       <c r="E78" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Фп Пижма цветки 20х1,5г</t>
+          <t>Фп Сб. Желудочный №3 20x2,0г</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2470,24 +2470,24 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
-        <v>7860</v>
+        <v>25743</v>
       </c>
       <c r="E79" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Фп Мята перечная листья 20x1,5г</t>
+          <t>Фп Чистотел трава 20х1,5г</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2499,21 +2499,21 @@
         <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>59915</v>
+        <v>27366</v>
       </c>
       <c r="E80" t="n">
         <v>29</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Желудочный №3 20x2,0г</t>
+          <t>Фп Сенна листья 20x1,5г</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2522,24 +2522,24 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81" t="n">
-        <v>26139</v>
+        <v>78378</v>
       </c>
       <c r="E81" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Фп Сенна листья 20x1,5г</t>
+          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2551,21 +2551,21 @@
         <v>37</v>
       </c>
       <c r="D82" t="n">
-        <v>80628</v>
+        <v>100455</v>
       </c>
       <c r="E82" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Фп Чистотел трава 20х1,5г</t>
+          <t>Фп Липа цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2574,24 +2574,24 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D83" t="n">
-        <v>28608</v>
+        <v>66670</v>
       </c>
       <c r="E83" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-22</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+          <t>Фп Ромашка цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2600,24 +2600,24 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>101139</v>
+        <v>1479935</v>
       </c>
       <c r="E84" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-26</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Фп Липа цветки 20x1,5г</t>
+          <t>Фп Пустырник трава 20x1,5г</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2626,24 +2626,24 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D85" t="n">
-        <v>67354</v>
+        <v>55365</v>
       </c>
       <c r="E85" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Фп Ромашка цветки 20x1,5г</t>
+          <t>Фп Брусника листья 20х1,5г</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2652,24 +2652,24 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>1506161</v>
+        <v>100583</v>
       </c>
       <c r="E86" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Фп Брусника листья 20х1,5г</t>
+          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2681,21 +2681,21 @@
         <v>42</v>
       </c>
       <c r="D87" t="n">
-        <v>101591</v>
+        <v>89271</v>
       </c>
       <c r="E87" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Фп Пустырник трава 20x1,5г</t>
+          <t>Фп Чабрец трава 20x1,5 г</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2704,24 +2704,24 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D88" t="n">
-        <v>56373</v>
+        <v>78207</v>
       </c>
       <c r="E88" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2023-01-02</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Фп Чабрец трава 20x1,5 г</t>
+          <t>Фп Зверобой трава 20x1,5г</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2730,24 +2730,24 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D89" t="n">
-        <v>79269</v>
+        <v>68767</v>
       </c>
       <c r="E89" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-10</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Фп Зверобой трава 20x1,5г</t>
+          <t>Фп Золототысячник трава 20х1,5г</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2756,17 +2756,17 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D90" t="n">
-        <v>69703</v>
+        <v>7297</v>
       </c>
       <c r="E90" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-12</t>
         </is>
       </c>
     </row>
@@ -2785,21 +2785,21 @@
         <v>55</v>
       </c>
       <c r="D91" t="n">
-        <v>19826</v>
+        <v>19628</v>
       </c>
       <c r="E91" t="n">
         <v>37</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Фп Золототысячник трава 20х1,5г</t>
+          <t>Фп Душица трава 20x1,5г</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2808,17 +2808,17 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D92" t="n">
-        <v>7729</v>
+        <v>40716</v>
       </c>
       <c r="E92" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023-01-19</t>
+          <t>2023-01-24</t>
         </is>
       </c>
     </row>
@@ -2834,17 +2834,17 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D93" t="n">
-        <v>52722</v>
+        <v>51372</v>
       </c>
       <c r="E93" t="n">
         <v>28</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-01-26</t>
         </is>
       </c>
     </row>
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94" t="n">
-        <v>6862</v>
+        <v>6826</v>
       </c>
       <c r="E94" t="n">
         <v>48</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-27</t>
         </is>
       </c>
     </row>
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D96" t="n">
-        <v>6865</v>
+        <v>6577</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-07-13</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D97" t="n">
         <v>1188</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D98" t="n">
         <v>1152</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D99" t="n">
         <v>1530</v>
@@ -3018,10 +3018,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>42110</v>
+        <v>40310</v>
       </c>
       <c r="E100" t="n">
         <v>31</v>
@@ -3044,10 +3044,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="n">
-        <v>29298</v>
+        <v>27714</v>
       </c>
       <c r="E101" t="n">
         <v>37</v>
@@ -3073,21 +3073,21 @@
         <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>6064</v>
+        <v>5920</v>
       </c>
       <c r="E102" t="n">
         <v>30</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Фп Девясил корневища и корни 20х1,5г</t>
+          <t>Фп Валериана корневища с корнями 20x1,5г</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3099,21 +3099,21 @@
         <v>22</v>
       </c>
       <c r="D103" t="n">
-        <v>17250</v>
+        <v>21543</v>
       </c>
       <c r="E103" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Фп Валериана корневища с корнями 20x1,5г</t>
+          <t>Фп Девясил корневища и корни 20х1,5г</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3122,13 +3122,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" t="n">
-        <v>22245</v>
+        <v>16710</v>
       </c>
       <c r="E104" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3151,14 +3151,14 @@
         <v>23</v>
       </c>
       <c r="D105" t="n">
-        <v>4654</v>
+        <v>4564</v>
       </c>
       <c r="E105" t="n">
         <v>34</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" t="n">
-        <v>26242</v>
+        <v>25180</v>
       </c>
       <c r="E106" t="n">
         <v>30</v>
@@ -3203,14 +3203,14 @@
         <v>26</v>
       </c>
       <c r="D107" t="n">
-        <v>14823</v>
+        <v>14643</v>
       </c>
       <c r="E107" t="n">
         <v>32</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" t="n">
-        <v>3067</v>
+        <v>2923</v>
       </c>
       <c r="E108" t="n">
         <v>51</v>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2" t="n">
         <v>81632</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>21532</v>
+        <v>20076</v>
       </c>
       <c r="E3" t="n">
         <v>45</v>
@@ -513,7 +513,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Укроп пахучий плоды 50г</t>
+          <t>Можжевельник плоды 50г</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,24 +522,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>44148</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30</v>
+        <v>11660</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Можжевельник плоды 50г</t>
+          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,23 +553,21 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>11786</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>3307</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+          <t>Чистотел трава 50г</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,21 +579,21 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>3405</v>
+        <v>15483</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Чистотел трава 50г</t>
+          <t>Зверобой трава 50г</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -602,24 +602,24 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>15931</v>
+        <v>30226</v>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Зверобой трава 50г</t>
+          <t>Спорыш трава 50г</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -631,21 +631,21 @@
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>30590</v>
+        <v>11979</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Спорыш трава 50г</t>
+          <t>Дуба кора 75г</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,24 +654,24 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>12315</v>
+        <v>70399</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Череда трава 50г</t>
+          <t>Рябина плоды 50г</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -680,24 +680,24 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>8700</v>
+        <v>2674</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Дуба кора 75г</t>
+          <t>Мать-и-мачеха листья 35г</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -706,17 +706,17 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>71071</v>
+        <v>24614</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
@@ -735,21 +735,21 @@
         <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>42084</v>
+        <v>41692</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Рябина плоды 50г</t>
+          <t>Сенна листья 50г</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -761,21 +761,21 @@
         <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>2688</v>
+        <v>20187</v>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Сенна листья 50г</t>
+          <t>Шиповник плоды низковитаминные 50г</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -787,21 +787,21 @@
         <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>20523</v>
+        <v>29433</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Шиповник плоды низковитаминные 50г</t>
+          <t>Алтей корни 75г</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -810,24 +810,24 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>29433</v>
+        <v>5204</v>
       </c>
       <c r="E15" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Мать-и-мачеха листья 35г</t>
+          <t>Брусника листья 50г</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -839,21 +839,21 @@
         <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>25398</v>
+        <v>17679</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Алтей корни 75г</t>
+          <t>Аир корневища 75г</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -865,14 +865,14 @@
         <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>5484</v>
+        <v>10949</v>
       </c>
       <c r="E17" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
@@ -891,21 +891,21 @@
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>16259</v>
+        <v>15979</v>
       </c>
       <c r="E18" t="n">
         <v>43</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Брусника листья 50г</t>
+          <t>Липа цветки 35г</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -917,21 +917,21 @@
         <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>18253</v>
+        <v>18444</v>
       </c>
       <c r="E19" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Аир корневища 75г</t>
+          <t>Лен семена 100г</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -943,21 +943,21 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>11215</v>
+        <v>84507</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Липа цветки 35г</t>
+          <t>Пижма цветки 75г</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -969,21 +969,21 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>19144</v>
+        <v>18963</v>
       </c>
       <c r="E21" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Пижма цветки 75г</t>
+          <t>Валериана корневища с корнями 50г</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -992,17 +992,17 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>19383</v>
+        <v>25394</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
@@ -1028,14 +1028,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Лен семена 100г</t>
+          <t>Пустырник трава 50г</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1047,21 +1047,21 @@
         <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>86509</v>
+        <v>15344</v>
       </c>
       <c r="E24" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Пустырник трава 50г</t>
+          <t>Сб. Грудной №4 50г</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1073,21 +1073,21 @@
         <v>26</v>
       </c>
       <c r="D25" t="n">
-        <v>15358</v>
+        <v>39994</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Сб. Грудной №4 50г</t>
+          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1099,21 +1099,21 @@
         <v>26</v>
       </c>
       <c r="D26" t="n">
-        <v>40218</v>
+        <v>11539</v>
       </c>
       <c r="E26" t="n">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+          <t>Солодка корни 50г</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1125,21 +1125,21 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>11539</v>
+        <v>32274</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Солодка корни 50г</t>
+          <t>Укроп пахучий плоды 50г</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1151,14 +1151,14 @@
         <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>32638</v>
+        <v>82474</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
@@ -1177,14 +1177,14 @@
         <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>27626</v>
+        <v>27346</v>
       </c>
       <c r="E29" t="n">
         <v>33</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1203,14 @@
         <v>27</v>
       </c>
       <c r="D30" t="n">
-        <v>11886</v>
+        <v>11662</v>
       </c>
       <c r="E30" t="n">
         <v>51</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1229,14 @@
         <v>27</v>
       </c>
       <c r="D31" t="n">
-        <v>47076</v>
+        <v>46348</v>
       </c>
       <c r="E31" t="n">
         <v>37</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
@@ -1255,21 +1255,21 @@
         <v>27</v>
       </c>
       <c r="D32" t="n">
-        <v>18338</v>
+        <v>18128</v>
       </c>
       <c r="E32" t="n">
         <v>31</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Валериана корневища с корнями 50г</t>
+          <t>Девясил корневища и корни 50г</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1281,21 +1281,21 @@
         <v>28</v>
       </c>
       <c r="D33" t="n">
-        <v>27004</v>
+        <v>22143</v>
       </c>
       <c r="E33" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Девясил корневища и корни 50г</t>
+          <t>Мята перечная листья 50г</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1307,14 +1307,14 @@
         <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>22213</v>
+        <v>27351</v>
       </c>
       <c r="E34" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
@@ -1333,21 +1333,21 @@
         <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>29573</v>
+        <v>29559</v>
       </c>
       <c r="E35" t="n">
         <v>46</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Мята перечная листья 50г</t>
+          <t>Ноготки цветки 50г</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1359,21 +1359,21 @@
         <v>29</v>
       </c>
       <c r="D36" t="n">
-        <v>27995</v>
+        <v>28069</v>
       </c>
       <c r="E36" t="n">
         <v>43</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Ноготки цветки 50г</t>
+          <t>Ромашка цветки вн 50г</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1385,21 +1385,21 @@
         <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>28069</v>
+        <v>115269</v>
       </c>
       <c r="E37" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Ромашка цветки вн 50г</t>
+          <t>Толокнянка листья 50г</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1411,21 +1411,21 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>116991</v>
+        <v>13033</v>
       </c>
       <c r="E38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Толокнянка листья 50г</t>
+          <t>Крушина кора 50г</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1434,24 +1434,24 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
-        <v>13173</v>
+        <v>15924</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Бессмертник песчаный цветки 30г</t>
+          <t>Береза почки 50г</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1463,21 +1463,21 @@
         <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>37089</v>
+        <v>22505</v>
       </c>
       <c r="E40" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Крушина кора 50г</t>
+          <t>Бессмертник песчаный цветки 30г</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1489,14 +1489,14 @@
         <v>33</v>
       </c>
       <c r="D41" t="n">
-        <v>16078</v>
+        <v>36585</v>
       </c>
       <c r="E41" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
@@ -1515,21 +1515,21 @@
         <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>27245</v>
+        <v>27175</v>
       </c>
       <c r="E42" t="n">
         <v>43</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Береза почки 50г</t>
+          <t>Крапива листья 50г</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1538,24 +1538,24 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>23135</v>
+        <v>28131</v>
       </c>
       <c r="E43" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Крапива листья 50г</t>
+          <t>Тысячелистник трава 50г</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1567,21 +1567,21 @@
         <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>28285</v>
+        <v>25155</v>
       </c>
       <c r="E44" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Тысячелистник трава 50г</t>
+          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1590,24 +1590,24 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="n">
-        <v>25379</v>
+        <v>12902</v>
       </c>
       <c r="E45" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-22</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+          <t>Череда трава 50г</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1616,24 +1616,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>12902</v>
+        <v>19001</v>
       </c>
       <c r="E46" t="n">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+          <t>Ламинарии слоевища (морская капуста) 100г</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1642,13 +1642,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
-        <v>9393</v>
+        <v>22732</v>
       </c>
       <c r="E47" t="n">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Ламинарии слоевища (морская капуста) 100г</t>
+          <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1671,14 +1671,14 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>23348</v>
+        <v>9379</v>
       </c>
       <c r="E48" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-05</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1697,14 @@
         <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>2988</v>
+        <v>2948</v>
       </c>
       <c r="E49" t="n">
         <v>115</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
     </row>
@@ -1720,10 +1720,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" t="n">
-        <v>14999</v>
+        <v>14289</v>
       </c>
       <c r="E50" t="n">
         <v>41</v>
@@ -1749,14 +1749,14 @@
         <v>23</v>
       </c>
       <c r="D51" t="n">
-        <v>4701</v>
+        <v>4641</v>
       </c>
       <c r="E51" t="n">
         <v>110</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
@@ -1772,17 +1772,17 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>7928</v>
+        <v>7868</v>
       </c>
       <c r="E52" t="n">
         <v>84</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
@@ -1801,14 +1801,14 @@
         <v>61</v>
       </c>
       <c r="D53" t="n">
-        <v>4820</v>
+        <v>4790</v>
       </c>
       <c r="E53" t="n">
         <v>102</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-25</t>
         </is>
       </c>
     </row>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D54" t="n">
-        <v>8340</v>
+        <v>8280</v>
       </c>
       <c r="E54" t="n">
         <v>112</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D55" t="n">
         <v>9750</v>
@@ -1901,14 +1901,14 @@
         <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>2479</v>
+        <v>2461</v>
       </c>
       <c r="E57" t="n">
         <v>37</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" t="n">
         <v>1098</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" t="n">
         <v>1908</v>
@@ -1967,7 +1967,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Фп Пастушья сумка трава 20х1,5г</t>
+          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1976,13 +1976,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>3680</v>
+        <v>11261</v>
       </c>
       <c r="E60" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+          <t>Фп Аир корневища 20x1,5г</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2002,24 +2002,24 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61" t="n">
-        <v>12665</v>
+        <v>3838</v>
       </c>
       <c r="E61" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Фп Аир корневища 20x1,5г</t>
+          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2028,24 +2028,24 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>3910</v>
+        <v>29703</v>
       </c>
       <c r="E62" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Бруснивер 20x2,0г</t>
+          <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2054,24 +2054,24 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" t="n">
-        <v>138981</v>
+        <v>66785</v>
       </c>
       <c r="E63" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+          <t>Фп Сб. Бруснивер 20x2,0г</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2080,24 +2080,24 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
-        <v>30801</v>
+        <v>189381</v>
       </c>
       <c r="E64" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+          <t>Фп Сб. Грудной №4 20x2,0г</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2106,24 +2106,24 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>69989</v>
+        <v>594435</v>
       </c>
       <c r="E65" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Фп Хвощ полевой трава 20х1,5г</t>
+          <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2132,24 +2132,24 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
-        <v>21742</v>
+        <v>48249</v>
       </c>
       <c r="E66" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Грудной №4 20x2,0г</t>
+          <t>Фп Шалфей листья 20х1,5г</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2161,21 +2161,21 @@
         <v>28</v>
       </c>
       <c r="D67" t="n">
-        <v>594435</v>
+        <v>124548</v>
       </c>
       <c r="E67" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Фп Шалфей листья 20х1,5г</t>
+          <t>Фп Крапива листья 20x1,5г</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2184,24 +2184,24 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
-        <v>127626</v>
+        <v>59995</v>
       </c>
       <c r="E68" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Фп Крапива листья 20x1,5г</t>
+          <t>Фп Пижма цветки 20х1,5г</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2210,24 +2210,24 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>60247</v>
+        <v>6906</v>
       </c>
       <c r="E69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+          <t>Фп Подорожник листья 20x1,5г</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2236,24 +2236,24 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
-        <v>49815</v>
+        <v>27739</v>
       </c>
       <c r="E70" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Фп Шиповник плоды 20х2,0г</t>
+          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2262,24 +2262,24 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>46991</v>
+        <v>184531</v>
       </c>
       <c r="E71" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Элекасол 20x2,0г</t>
+          <t>Фп Толокнянка листья 20x1,5г</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2288,24 +2288,24 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" t="n">
-        <v>35564</v>
+        <v>34560</v>
       </c>
       <c r="E72" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Фп Пижма цветки 20х1,5г</t>
+          <t>Фп Мята перечная листья 20x1,5г</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2314,24 +2314,24 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" t="n">
-        <v>7338</v>
+        <v>57107</v>
       </c>
       <c r="E73" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Фп Подорожник листья 20x1,5г</t>
+          <t>Фп Сб. Желудочный №3 20x2,0г</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2340,24 +2340,24 @@
         </is>
       </c>
       <c r="C74" t="n">
+        <v>34</v>
+      </c>
+      <c r="D74" t="n">
+        <v>24933</v>
+      </c>
+      <c r="E74" t="n">
         <v>32</v>
       </c>
-      <c r="D74" t="n">
-        <v>28225</v>
-      </c>
-      <c r="E74" t="n">
-        <v>37</v>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+          <t>Фп Чистотел трава 20х1,5г</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2366,24 +2366,24 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D75" t="n">
-        <v>184531</v>
+        <v>26610</v>
       </c>
       <c r="E75" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Фп Толокнянка листья 20x1,5г</t>
+          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2392,24 +2392,24 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
-        <v>35064</v>
+        <v>43579</v>
       </c>
       <c r="E76" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Фп Мята перечная листья 20x1,5г</t>
+          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2418,24 +2418,24 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D77" t="n">
-        <v>58259</v>
+        <v>97125</v>
       </c>
       <c r="E77" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+          <t>Фп Сенна листья 20x1,5г</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2444,24 +2444,24 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" t="n">
-        <v>44137</v>
+        <v>77946</v>
       </c>
       <c r="E78" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Желудочный №3 20x2,0г</t>
+          <t>Фп Липа цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2470,24 +2470,24 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D79" t="n">
-        <v>25743</v>
+        <v>66634</v>
       </c>
       <c r="E79" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-23</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Фп Чистотел трава 20х1,5г</t>
+          <t>Фп Шиповник плоды 20х2,0г</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2496,24 +2496,24 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
-        <v>27366</v>
+        <v>62309</v>
       </c>
       <c r="E80" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-23</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Фп Сенна листья 20x1,5г</t>
+          <t>Фп Брусника листья 20х1,5г</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2522,24 +2522,24 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D81" t="n">
-        <v>78378</v>
+        <v>96857</v>
       </c>
       <c r="E81" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+          <t>Фп Пустырник трава 20x1,5г</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2548,24 +2548,24 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>100455</v>
+        <v>54339</v>
       </c>
       <c r="E82" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Фп Липа цветки 20x1,5г</t>
+          <t>Фп Ромашка цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2574,24 +2574,24 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>66670</v>
+        <v>1463303</v>
       </c>
       <c r="E83" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Фп Ромашка цветки 20x1,5г</t>
+          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2600,24 +2600,24 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D84" t="n">
-        <v>1479935</v>
+        <v>88983</v>
       </c>
       <c r="E84" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-12-29</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Фп Пустырник трава 20x1,5г</t>
+          <t>Фп Сб. Элекасол 20x2,0г</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2626,24 +2626,24 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D85" t="n">
-        <v>55365</v>
+        <v>45482</v>
       </c>
       <c r="E85" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-29</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Фп Брусника листья 20х1,5г</t>
+          <t>Фп Пастушья сумка трава 20х1,5г</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2652,24 +2652,24 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D86" t="n">
-        <v>100583</v>
+        <v>7432</v>
       </c>
       <c r="E86" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2022-12-30</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+          <t>Фп Чабрец трава 20x1,5 г</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2678,24 +2678,24 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D87" t="n">
-        <v>89271</v>
+        <v>77253</v>
       </c>
       <c r="E87" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2023-01-03</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Фп Чабрец трава 20x1,5 г</t>
+          <t>Фп Зверобой трава 20x1,5г</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2704,24 +2704,24 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D88" t="n">
-        <v>78207</v>
+        <v>68695</v>
       </c>
       <c r="E88" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-11</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Фп Зверобой трава 20x1,5г</t>
+          <t>Фп Боярышник плоды 20х3,0г</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2730,24 +2730,24 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D89" t="n">
-        <v>68767</v>
+        <v>19376</v>
       </c>
       <c r="E89" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Фп Золототысячник трава 20х1,5г</t>
+          <t>Фп Хвощ полевой трава 20х1,5г</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D90" t="n">
-        <v>7297</v>
+        <v>42784</v>
       </c>
       <c r="E90" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Фп Боярышник плоды 20х3,0г</t>
+          <t>Фп Золототысячник трава 20х1,5г</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2785,14 +2785,14 @@
         <v>55</v>
       </c>
       <c r="D91" t="n">
-        <v>19628</v>
+        <v>7279</v>
       </c>
       <c r="E91" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-17</t>
         </is>
       </c>
     </row>
@@ -2811,14 +2811,14 @@
         <v>61</v>
       </c>
       <c r="D92" t="n">
-        <v>40716</v>
+        <v>40518</v>
       </c>
       <c r="E92" t="n">
         <v>36</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-25</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2837,14 @@
         <v>63</v>
       </c>
       <c r="D93" t="n">
-        <v>51372</v>
+        <v>51156</v>
       </c>
       <c r="E93" t="n">
         <v>28</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2023-01-27</t>
         </is>
       </c>
     </row>
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D94" t="n">
-        <v>6826</v>
+        <v>6664</v>
       </c>
       <c r="E94" t="n">
         <v>48</v>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D95" t="n">
         <v>1872</v>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D96" t="n">
         <v>6577</v>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-17</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D97" t="n">
         <v>1188</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D98" t="n">
         <v>1152</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D99" t="n">
         <v>1530</v>
@@ -3009,7 +3009,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Фп Почечный чай листья 20x1,5г</t>
+          <t>Фп Ноготки цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3018,24 +3018,24 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>40310</v>
+        <v>25932</v>
       </c>
       <c r="E100" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Фп Ноготки цветки 20x1,5г</t>
+          <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3044,24 +3044,24 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D101" t="n">
-        <v>27714</v>
+        <v>5416</v>
       </c>
       <c r="E101" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-23</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+          <t>Фп Почечный чай листья 20x1,5г</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3070,13 +3070,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D102" t="n">
-        <v>5920</v>
+        <v>59514</v>
       </c>
       <c r="E102" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103" t="n">
-        <v>21543</v>
+        <v>20823</v>
       </c>
       <c r="E103" t="n">
         <v>30</v>
@@ -3113,7 +3113,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Фп Девясил корневища и корни 20х1,5г</t>
+          <t>Фп Лапчатка корневища 20x2,5г</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3122,13 +3122,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" t="n">
-        <v>16710</v>
+        <v>4240</v>
       </c>
       <c r="E104" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Фп Лапчатка корневища 20x2,5г</t>
+          <t>Фп Девясил корневища и корни 20х1,5г</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3148,13 +3148,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D105" t="n">
-        <v>4564</v>
+        <v>16674</v>
       </c>
       <c r="E105" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3177,14 +3177,14 @@
         <v>23</v>
       </c>
       <c r="D106" t="n">
-        <v>25180</v>
+        <v>24406</v>
       </c>
       <c r="E106" t="n">
         <v>30</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
@@ -3200,10 +3200,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>14643</v>
+        <v>14103</v>
       </c>
       <c r="E107" t="n">
         <v>32</v>
@@ -3229,14 +3229,14 @@
         <v>31</v>
       </c>
       <c r="D108" t="n">
-        <v>2923</v>
+        <v>2905</v>
       </c>
       <c r="E108" t="n">
         <v>51</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" t="n">
         <v>81632</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>20076</v>
+        <v>17570</v>
       </c>
       <c r="E3" t="n">
         <v>45</v>
@@ -513,7 +513,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Можжевельник плоды 50г</t>
+          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,15 +522,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>11660</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>3181</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -541,7 +539,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+          <t>Чистотел трава 50г</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,10 +548,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>3307</v>
+        <v>13635</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -567,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Чистотел трава 50г</t>
+          <t>Дуба кора 75г</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,21 +577,21 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>15483</v>
+        <v>64575</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Зверобой трава 50г</t>
+          <t>Спорыш трава 50г</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -602,13 +600,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>30226</v>
+        <v>11335</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -619,7 +617,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Спорыш трава 50г</t>
+          <t>Полынь горькая трава 50г</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -631,21 +629,21 @@
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>11979</v>
+        <v>36512</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Дуба кора 75г</t>
+          <t>Сенна листья 50г</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,13 +652,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>70399</v>
+        <v>17849</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -671,7 +669,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Рябина плоды 50г</t>
+          <t>Мать-и-мачеха листья 35г</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -680,13 +678,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>2674</v>
+        <v>22948</v>
       </c>
       <c r="E10" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -697,7 +695,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Мать-и-мачеха листья 35г</t>
+          <t>Шиповник плоды низковитаминные 50г</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -706,24 +704,24 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>24614</v>
+        <v>25485</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Полынь горькая трава 50г</t>
+          <t>Брусника листья 50г</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -732,13 +730,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>41692</v>
+        <v>16489</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -749,7 +747,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Сенна листья 50г</t>
+          <t>Пижма цветки 75г</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -758,13 +756,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>20187</v>
+        <v>16163</v>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -775,7 +773,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Шиповник плоды низковитаминные 50г</t>
+          <t>Рябина плоды 50г</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -784,13 +782,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>29433</v>
+        <v>2674</v>
       </c>
       <c r="E14" t="n">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -801,7 +799,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Алтей корни 75г</t>
+          <t>Липа цветки 35г</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -810,13 +808,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>5204</v>
+        <v>16792</v>
       </c>
       <c r="E15" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -827,7 +825,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Брусника листья 50г</t>
+          <t>Аир корневища 75г</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -839,21 +837,21 @@
         <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>17679</v>
+        <v>10179</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Аир корневища 75г</t>
+          <t>Алтей корни 75г</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -862,13 +860,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>10949</v>
+        <v>5204</v>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -888,10 +886,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>15979</v>
+        <v>15489</v>
       </c>
       <c r="E18" t="n">
         <v>43</v>
@@ -905,7 +903,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Липа цветки 35г</t>
+          <t>Лен семена 100г</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -914,13 +912,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>18444</v>
+        <v>77829</v>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -931,7 +929,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Лен семена 100г</t>
+          <t>Укроп пахучий плоды 50г</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -940,24 +938,24 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>84507</v>
+        <v>73724</v>
       </c>
       <c r="E20" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Пижма цветки 75г</t>
+          <t>Кукуруза столбики с рыльцами 40г</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -966,13 +964,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>18963</v>
+        <v>25370</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -983,7 +981,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Валериана корневища с корнями 50г</t>
+          <t>Пустырник трава 50г</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -992,24 +990,24 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>25394</v>
+        <v>13916</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Кукуруза столбики с рыльцами 40г</t>
+          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1018,24 +1016,24 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>28170</v>
+        <v>10447</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Пустырник трава 50г</t>
+          <t>Валериана корневища с корнями 50г</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1044,13 +1042,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>15344</v>
+        <v>24022</v>
       </c>
       <c r="E24" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1070,10 +1068,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>39994</v>
+        <v>38216</v>
       </c>
       <c r="E25" t="n">
         <v>112</v>
@@ -1087,7 +1085,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+          <t>Солодка корни 50г</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1096,13 +1094,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>11539</v>
+        <v>31238</v>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1113,7 +1111,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Солодка корни 50г</t>
+          <t>Эрва шерстистая трава 30г</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1122,13 +1120,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>32274</v>
+        <v>16336</v>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1139,7 +1137,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Укроп пахучий плоды 50г</t>
+          <t>Боярышник плоды 75г</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1151,21 +1149,21 @@
         <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>82474</v>
+        <v>26268</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Боярышник плоды 75г</t>
+          <t>Мята перечная листья 50г</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1174,13 +1172,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
-        <v>27346</v>
+        <v>24537</v>
       </c>
       <c r="E29" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1200,10 +1198,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="n">
-        <v>11662</v>
+        <v>11424</v>
       </c>
       <c r="E30" t="n">
         <v>51</v>
@@ -1226,10 +1224,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="n">
-        <v>46348</v>
+        <v>44640</v>
       </c>
       <c r="E31" t="n">
         <v>37</v>
@@ -1243,7 +1241,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Эрва шерстистая трава 30г</t>
+          <t>Девясил корневища и корни 50г</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1255,21 +1253,21 @@
         <v>27</v>
       </c>
       <c r="D32" t="n">
-        <v>18128</v>
+        <v>21163</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Девясил корневища и корни 50г</t>
+          <t>Ромашка цветки вн 50г</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1278,10 +1276,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
-        <v>22143</v>
+        <v>106743</v>
       </c>
       <c r="E33" t="n">
         <v>32</v>
@@ -1295,7 +1293,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Мята перечная листья 50г</t>
+          <t>Эвкалипт прутовидный листья 75г</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1304,13 +1302,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
-        <v>27351</v>
+        <v>27907</v>
       </c>
       <c r="E34" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1321,7 +1319,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Эвкалипт прутовидный листья 75г</t>
+          <t>Ноготки цветки 50г</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1333,21 +1331,21 @@
         <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>29559</v>
+        <v>27215</v>
       </c>
       <c r="E35" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ноготки цветки 50г</t>
+          <t>Толокнянка листья 50г</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1356,13 +1354,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>28069</v>
+        <v>12529</v>
       </c>
       <c r="E36" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1373,7 +1371,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Ромашка цветки вн 50г</t>
+          <t>Чабрец трава 50г</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1385,21 +1383,21 @@
         <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>115269</v>
+        <v>24165</v>
       </c>
       <c r="E37" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Толокнянка листья 50г</t>
+          <t>Крушина кора 50г</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1411,21 +1409,21 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>13033</v>
+        <v>15042</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Крушина кора 50г</t>
+          <t>Береза почки 50г</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1434,13 +1432,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
-        <v>15924</v>
+        <v>21259</v>
       </c>
       <c r="E39" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1451,7 +1449,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Береза почки 50г</t>
+          <t>Бессмертник песчаный цветки 30г</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1460,24 +1458,24 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
-        <v>22505</v>
+        <v>34499</v>
       </c>
       <c r="E40" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Бессмертник песчаный цветки 30г</t>
+          <t>Можжевельник плоды 50г</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1486,13 +1484,15 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>36585</v>
-      </c>
-      <c r="E41" t="n">
-        <v>39</v>
+        <v>21278</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Чабрец трава 50г</t>
+          <t>Крапива листья 50г</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1515,21 +1515,21 @@
         <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>27175</v>
+        <v>26045</v>
       </c>
       <c r="E42" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Крапива листья 50г</t>
+          <t>Зверобой трава 50г</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1541,14 +1541,14 @@
         <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>28131</v>
+        <v>55109</v>
       </c>
       <c r="E43" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
@@ -1567,21 +1567,21 @@
         <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>25155</v>
+        <v>24777</v>
       </c>
       <c r="E44" t="n">
         <v>35</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+          <t>Ламинарии слоевища (морская капуста) 100г</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1593,21 +1593,21 @@
         <v>37</v>
       </c>
       <c r="D45" t="n">
-        <v>12902</v>
+        <v>21094</v>
       </c>
       <c r="E45" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2022-12-23</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Череда трава 50г</t>
+          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1616,24 +1616,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D46" t="n">
-        <v>19001</v>
+        <v>12902</v>
       </c>
       <c r="E46" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2022-12-26</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Ламинарии слоевища (морская капуста) 100г</t>
+          <t>Череда трава 50г</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1642,17 +1642,17 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D47" t="n">
-        <v>22732</v>
+        <v>17517</v>
       </c>
       <c r="E47" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-12-26</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-01-06</t>
         </is>
       </c>
     </row>
@@ -1694,10 +1694,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>2948</v>
+        <v>2738</v>
       </c>
       <c r="E49" t="n">
         <v>115</v>
@@ -1720,10 +1720,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>14289</v>
+        <v>13549</v>
       </c>
       <c r="E50" t="n">
         <v>41</v>
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" t="n">
-        <v>4641</v>
+        <v>4481</v>
       </c>
       <c r="E51" t="n">
         <v>110</v>
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>7868</v>
+        <v>7638</v>
       </c>
       <c r="E52" t="n">
         <v>84</v>
@@ -1798,10 +1798,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" t="n">
-        <v>4790</v>
+        <v>4700</v>
       </c>
       <c r="E53" t="n">
         <v>102</v>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D54" t="n">
-        <v>8280</v>
+        <v>8260</v>
       </c>
       <c r="E54" t="n">
         <v>112</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D55" t="n">
         <v>9750</v>
@@ -1872,24 +1872,24 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>3222</v>
+        <v>2592</v>
       </c>
       <c r="E56" t="n">
         <v>257</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-10-27</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Фп Береза листья 20x1,5г</t>
+          <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1898,24 +1898,24 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>2461</v>
+        <v>1098</v>
       </c>
       <c r="E57" t="n">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1924,13 +1924,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>1098</v>
+        <v>1890</v>
       </c>
       <c r="E58" t="n">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+          <t>Фп Аир корневища 20x1,5г</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1950,24 +1950,24 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D59" t="n">
-        <v>1908</v>
+        <v>3820</v>
       </c>
       <c r="E59" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1976,24 +1976,24 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D60" t="n">
-        <v>11261</v>
+        <v>28965</v>
       </c>
       <c r="E60" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Фп Аир корневища 20x1,5г</t>
+          <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2005,21 +2005,21 @@
         <v>22</v>
       </c>
       <c r="D61" t="n">
-        <v>3838</v>
+        <v>62519</v>
       </c>
       <c r="E61" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+          <t>Фп Шалфей листья 20х1,5г</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2028,24 +2028,24 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>29703</v>
+        <v>113244</v>
       </c>
       <c r="E62" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+          <t>Фп Сб. Бруснивер 20x2,0г</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2054,24 +2054,24 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D63" t="n">
-        <v>66785</v>
+        <v>177231</v>
       </c>
       <c r="E63" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Бруснивер 20x2,0г</t>
+          <t>Фп Сб. Грудной №4 20x2,0г</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" t="n">
-        <v>189381</v>
+        <v>566985</v>
       </c>
       <c r="E64" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Грудной №4 20x2,0г</t>
+          <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
-        <v>594435</v>
+        <v>45657</v>
       </c>
       <c r="E65" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+          <t>Фп Крапива листья 20x1,5г</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2135,21 +2135,21 @@
         <v>28</v>
       </c>
       <c r="D66" t="n">
-        <v>48249</v>
+        <v>56215</v>
       </c>
       <c r="E66" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Фп Шалфей листья 20х1,5г</t>
+          <t>Фп Пижма цветки 20х1,5г</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2158,24 +2158,24 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>124548</v>
+        <v>6888</v>
       </c>
       <c r="E67" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Фп Крапива листья 20x1,5г</t>
+          <t>Фп Подорожник листья 20x1,5г</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2184,24 +2184,24 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>59995</v>
+        <v>26425</v>
       </c>
       <c r="E68" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Фп Пижма цветки 20х1,5г</t>
+          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2213,21 +2213,21 @@
         <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>6906</v>
+        <v>173371</v>
       </c>
       <c r="E69" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Фп Подорожник листья 20x1,5г</t>
+          <t>Фп Толокнянка листья 20x1,5г</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2236,24 +2236,24 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>27739</v>
+        <v>32922</v>
       </c>
       <c r="E70" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+          <t>Фп Мята перечная листья 20x1,5г</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2262,13 +2262,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" t="n">
-        <v>184531</v>
+        <v>53453</v>
       </c>
       <c r="E71" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Фп Толокнянка листья 20x1,5г</t>
+          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2291,21 +2291,21 @@
         <v>32</v>
       </c>
       <c r="D72" t="n">
-        <v>34560</v>
+        <v>40843</v>
       </c>
       <c r="E72" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Фп Мята перечная листья 20x1,5г</t>
+          <t>Фп Сб. Желудочный №3 20x2,0г</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2314,13 +2314,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" t="n">
-        <v>57107</v>
+        <v>23745</v>
       </c>
       <c r="E73" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Желудочный №3 20x2,0г</t>
+          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2340,13 +2340,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
-        <v>24933</v>
+        <v>21304</v>
       </c>
       <c r="E74" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Фп Чистотел трава 20х1,5г</t>
+          <t>Фп Сенна листья 20x1,5г</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2369,21 +2369,21 @@
         <v>34</v>
       </c>
       <c r="D75" t="n">
-        <v>26610</v>
+        <v>75300</v>
       </c>
       <c r="E75" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2395,21 +2395,21 @@
         <v>35</v>
       </c>
       <c r="D76" t="n">
-        <v>43579</v>
+        <v>95397</v>
       </c>
       <c r="E76" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+          <t>Фп Липа цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2418,24 +2418,24 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" t="n">
-        <v>97125</v>
+        <v>65698</v>
       </c>
       <c r="E77" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-23</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Фп Сенна листья 20x1,5г</t>
+          <t>Фп Шиповник плоды 20х2,0г</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2444,24 +2444,24 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D78" t="n">
-        <v>77946</v>
+        <v>60887</v>
       </c>
       <c r="E78" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-23</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Фп Липа цветки 20x1,5г</t>
+          <t>Фп Брусника листья 20х1,5г</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2470,24 +2470,24 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D79" t="n">
-        <v>66634</v>
+        <v>94139</v>
       </c>
       <c r="E79" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Фп Шиповник плоды 20х2,0г</t>
+          <t>Фп Ромашка цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2496,24 +2496,24 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D80" t="n">
-        <v>62309</v>
+        <v>1427339</v>
       </c>
       <c r="E80" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Фп Брусника листья 20х1,5г</t>
+          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2522,13 +2522,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D81" t="n">
-        <v>96857</v>
+        <v>83511</v>
       </c>
       <c r="E81" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2551,21 +2551,21 @@
         <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>54339</v>
+        <v>53367</v>
       </c>
       <c r="E82" t="n">
         <v>32</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Фп Ромашка цветки 20x1,5г</t>
+          <t>Фп Сб. Элекасол 20x2,0г</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2574,24 +2574,24 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D83" t="n">
-        <v>1463303</v>
+        <v>44384</v>
       </c>
       <c r="E83" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-29</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+          <t>Фп Пастушья сумка трава 20х1,5г</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2600,24 +2600,24 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D84" t="n">
-        <v>88983</v>
+        <v>7432</v>
       </c>
       <c r="E84" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-03</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Элекасол 20x2,0г</t>
+          <t>Фп Чабрец трава 20x1,5 г</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2626,24 +2626,24 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>45482</v>
+        <v>76029</v>
       </c>
       <c r="E85" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-04</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Фп Пастушья сумка трава 20х1,5г</t>
+          <t>Фп Зверобой трава 20x1,5г</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2652,24 +2652,24 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D86" t="n">
-        <v>7432</v>
+        <v>65689</v>
       </c>
       <c r="E86" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Фп Чабрец трава 20x1,5 г</t>
+          <t>Фп Золототысячник трава 20х1,5г</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2678,24 +2678,24 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D87" t="n">
-        <v>77253</v>
+        <v>7099</v>
       </c>
       <c r="E87" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Фп Зверобой трава 20x1,5г</t>
+          <t>Фп Хвощ полевой трава 20х1,5г</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2704,24 +2704,24 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D88" t="n">
-        <v>68695</v>
+        <v>41920</v>
       </c>
       <c r="E88" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Фп Боярышник плоды 20х3,0г</t>
+          <t>Фп Чистотел трава 20х1,5г</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2730,13 +2730,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D89" t="n">
-        <v>19376</v>
+        <v>39516</v>
       </c>
       <c r="E89" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Фп Хвощ полевой трава 20х1,5г</t>
+          <t>Фп Боярышник плоды 20х3,0г</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2759,21 +2759,21 @@
         <v>54</v>
       </c>
       <c r="D90" t="n">
-        <v>42784</v>
+        <v>19196</v>
       </c>
       <c r="E90" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-17</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Фп Золототысячник трава 20х1,5г</t>
+          <t>Фп Душица трава 20x1,5г</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2782,24 +2782,24 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D91" t="n">
-        <v>7279</v>
+        <v>39222</v>
       </c>
       <c r="E91" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-24</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Фп Душица трава 20x1,5г</t>
+          <t>Фп Береза листья 20x1,5г</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2811,14 +2811,14 @@
         <v>61</v>
       </c>
       <c r="D92" t="n">
-        <v>40518</v>
+        <v>7240</v>
       </c>
       <c r="E92" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>2023-01-26</t>
         </is>
       </c>
     </row>
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D93" t="n">
-        <v>51156</v>
+        <v>50130</v>
       </c>
       <c r="E93" t="n">
         <v>28</v>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D95" t="n">
-        <v>1872</v>
+        <v>1854</v>
       </c>
       <c r="E95" t="n">
         <v>38</v>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D96" t="n">
         <v>6577</v>
@@ -2924,14 +2924,14 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-07-20</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2940,24 +2940,24 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D97" t="n">
-        <v>1188</v>
+        <v>1134</v>
       </c>
       <c r="E97" t="n">
         <v>100</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98" t="n">
-        <v>1152</v>
+        <v>1170</v>
       </c>
       <c r="E98" t="n">
         <v>100</v>
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99" t="n">
-        <v>1530</v>
+        <v>1512</v>
       </c>
       <c r="E99" t="n">
         <v>100</v>
@@ -3018,17 +3018,17 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D100" t="n">
-        <v>25932</v>
+        <v>21720</v>
       </c>
       <c r="E100" t="n">
         <v>37</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-16</t>
         </is>
       </c>
     </row>
@@ -3044,17 +3044,17 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D101" t="n">
-        <v>5416</v>
+        <v>4390</v>
       </c>
       <c r="E101" t="n">
         <v>30</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-21</t>
         </is>
       </c>
     </row>
@@ -3070,17 +3070,17 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
-        <v>59514</v>
+        <v>54222</v>
       </c>
       <c r="E102" t="n">
         <v>31</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-23</t>
         </is>
       </c>
     </row>
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>20823</v>
+        <v>19455</v>
       </c>
       <c r="E103" t="n">
         <v>30</v>
@@ -3113,7 +3113,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Фп Лапчатка корневища 20x2,5г</t>
+          <t>Фп Девясил корневища и корни 20х1,5г</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3125,21 +3125,21 @@
         <v>21</v>
       </c>
       <c r="D104" t="n">
-        <v>4240</v>
+        <v>15882</v>
       </c>
       <c r="E104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Фп Девясил корневища и корни 20х1,5г</t>
+          <t>Фп Лапчатка корневища 20x2,5г</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3148,13 +3148,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D105" t="n">
-        <v>16674</v>
+        <v>4240</v>
       </c>
       <c r="E105" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D106" t="n">
-        <v>24406</v>
+        <v>23758</v>
       </c>
       <c r="E106" t="n">
         <v>30</v>
@@ -3200,10 +3200,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D107" t="n">
-        <v>14103</v>
+        <v>13635</v>
       </c>
       <c r="E107" t="n">
         <v>32</v>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" t="n">
         <v>2905</v>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -472,16 +472,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="D2" t="n">
         <v>81632</v>
       </c>
       <c r="E2" t="n">
-        <v>74</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1854,7 +1856,7 @@
         <v>9750</v>
       </c>
       <c r="E55" t="n">
-        <v>104</v>
+        <v>1365</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" t="n">
         <v>81632</v>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>17570</v>
+        <v>15792</v>
       </c>
       <c r="E3" t="n">
         <v>45</v>
@@ -515,7 +515,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+          <t>Чистотел трава 50г</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>3181</v>
+        <v>13005</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
@@ -541,7 +541,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Чистотел трава 50г</t>
+          <t>Спорыш трава 50г</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,17 +550,17 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>13635</v>
+        <v>10789</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-28</t>
         </is>
       </c>
     </row>
@@ -579,21 +579,21 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>64575</v>
+        <v>62559</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Спорыш трава 50г</t>
+          <t>Полынь горькая трава 50г</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -605,21 +605,21 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>11335</v>
+        <v>33866</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Полынь горькая трава 50г</t>
+          <t>Сенна листья 50г</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>36512</v>
+        <v>16799</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Сенна листья 50г</t>
+          <t>Брусника листья 50г</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -657,14 +657,14 @@
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>17849</v>
+        <v>15033</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>22948</v>
+        <v>21800</v>
       </c>
       <c r="E10" t="n">
         <v>44</v>
@@ -697,7 +697,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Шиповник плоды низковитаминные 50г</t>
+          <t>Пижма цветки 75г</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>25485</v>
+        <v>14819</v>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Брусника листья 50г</t>
+          <t>Шиповник плоды низковитаминные 50г</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -732,24 +732,24 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>16489</v>
+        <v>24211</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Пижма цветки 75г</t>
+          <t>Аир корневища 75г</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -761,21 +761,21 @@
         <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>16163</v>
+        <v>9339</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Рябина плоды 50г</t>
+          <t>Алтей корни 75г</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -787,14 +787,14 @@
         <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>2674</v>
+        <v>4826</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>16792</v>
+        <v>16008</v>
       </c>
       <c r="E15" t="n">
         <v>48</v>
@@ -827,7 +827,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Аир корневища 75г</t>
+          <t>Рябина плоды 50г</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -836,24 +836,24 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>10179</v>
+        <v>2660</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Алтей корни 75г</t>
+          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -862,24 +862,24 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>5204</v>
+        <v>8991</v>
       </c>
       <c r="E17" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Багульник болотный побеги 50г</t>
+          <t>Кукуруза столбики с рыльцами 40г</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>15489</v>
+        <v>23942</v>
       </c>
       <c r="E18" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Лен семена 100г</t>
+          <t>Укроп пахучий плоды 50г</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>77829</v>
+        <v>69482</v>
       </c>
       <c r="E19" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Укроп пахучий плоды 50г</t>
+          <t>Багульник болотный побеги 50г</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -943,21 +943,21 @@
         <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>73724</v>
+        <v>15083</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Кукуруза столбики с рыльцами 40г</t>
+          <t>Валериана корневища с корнями 50г</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>25370</v>
+        <v>22734</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Пустырник трава 50г</t>
+          <t>Лен семена 100г</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -992,13 +992,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>13916</v>
+        <v>75169</v>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+          <t>Пустырник трава 50г</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>10447</v>
+        <v>13384</v>
       </c>
       <c r="E23" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Валериана корневища с корнями 50г</t>
+          <t>Солодка корни 50г</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1044,24 +1044,24 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>24022</v>
+        <v>28830</v>
       </c>
       <c r="E24" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Сб. Грудной №4 50г</t>
+          <t>Эрва шерстистая трава 30г</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1070,24 +1070,24 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>38216</v>
+        <v>15230</v>
       </c>
       <c r="E25" t="n">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Солодка корни 50г</t>
+          <t>Боярышник плоды 75г</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1096,13 +1096,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>31238</v>
+        <v>25218</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Эрва шерстистая трава 30г</t>
+          <t>Мята перечная листья 50г</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>16336</v>
+        <v>23025</v>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Боярышник плоды 75г</t>
+          <t>Сб. Грудной №4 50г</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1148,24 +1148,24 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" t="n">
-        <v>26268</v>
+        <v>37026</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Мята перечная листья 50г</t>
+          <t>Подорожник большой листья 50г</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>24537</v>
+        <v>11116</v>
       </c>
       <c r="E29" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Подорожник большой листья 50г</t>
+          <t>Ромашка цветки вн 50г</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>11424</v>
+        <v>98343</v>
       </c>
       <c r="E30" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>44640</v>
+        <v>43534</v>
       </c>
       <c r="E31" t="n">
         <v>37</v>
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>21163</v>
+        <v>20211</v>
       </c>
       <c r="E32" t="n">
         <v>32</v>
@@ -1269,7 +1269,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Ромашка цветки вн 50г</t>
+          <t>Эвкалипт прутовидный листья 75г</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
-        <v>106743</v>
+        <v>26353</v>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Эвкалипт прутовидный листья 75г</t>
+          <t>Ноготки цветки 50г</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1307,21 +1307,21 @@
         <v>27</v>
       </c>
       <c r="D34" t="n">
-        <v>27907</v>
+        <v>25955</v>
       </c>
       <c r="E34" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ноготки цветки 50г</t>
+          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1333,14 +1333,14 @@
         <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>27215</v>
+        <v>6511</v>
       </c>
       <c r="E35" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
@@ -1359,14 +1359,14 @@
         <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>12529</v>
+        <v>12207</v>
       </c>
       <c r="E36" t="n">
         <v>30</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>24165</v>
+        <v>23367</v>
       </c>
       <c r="E37" t="n">
         <v>43</v>
@@ -1399,7 +1399,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Крушина кора 50г</t>
+          <t>Береза почки 50г</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1408,13 +1408,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
-        <v>15042</v>
+        <v>19859</v>
       </c>
       <c r="E38" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Береза почки 50г</t>
+          <t>Бессмертник песчаный цветки 30г</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1434,24 +1434,24 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
-        <v>21259</v>
+        <v>32721</v>
       </c>
       <c r="E39" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Бессмертник песчаный цветки 30г</t>
+          <t>Крушина кора 50г</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1460,17 +1460,17 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>34499</v>
+        <v>14300</v>
       </c>
       <c r="E40" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>21278</v>
+        <v>20382</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1514,17 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
-        <v>26045</v>
+        <v>25093</v>
       </c>
       <c r="E42" t="n">
         <v>38</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>55109</v>
+        <v>53513</v>
       </c>
       <c r="E43" t="n">
         <v>31</v>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>24777</v>
+        <v>23783</v>
       </c>
       <c r="E44" t="n">
         <v>35</v>
@@ -1592,24 +1592,24 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
-        <v>21094</v>
+        <v>19918</v>
       </c>
       <c r="E45" t="n">
         <v>41</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-12-22</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+          <t>Череда трава 50г</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1618,24 +1618,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>12902</v>
+        <v>16019</v>
       </c>
       <c r="E46" t="n">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-12-22</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Череда трава 50г</t>
+          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1647,14 +1647,14 @@
         <v>38</v>
       </c>
       <c r="D47" t="n">
-        <v>17517</v>
+        <v>12720</v>
       </c>
       <c r="E47" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
@@ -1673,14 +1673,14 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>9379</v>
+        <v>9281</v>
       </c>
       <c r="E48" t="n">
         <v>72</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>2738</v>
+        <v>2538</v>
       </c>
       <c r="E49" t="n">
         <v>115</v>
@@ -1725,14 +1725,14 @@
         <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>13549</v>
+        <v>13229</v>
       </c>
       <c r="E50" t="n">
         <v>41</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
     </row>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" t="n">
-        <v>4481</v>
+        <v>4331</v>
       </c>
       <c r="E51" t="n">
         <v>110</v>
@@ -1777,14 +1777,14 @@
         <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>7638</v>
+        <v>7408</v>
       </c>
       <c r="E52" t="n">
         <v>84</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" t="n">
-        <v>4700</v>
+        <v>4610</v>
       </c>
       <c r="E53" t="n">
         <v>102</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D54" t="n">
-        <v>8260</v>
+        <v>8250</v>
       </c>
       <c r="E54" t="n">
         <v>112</v>
@@ -1850,10 +1850,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D55" t="n">
-        <v>9750</v>
+        <v>9720</v>
       </c>
       <c r="E55" t="n">
         <v>1365</v>
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>2592</v>
+        <v>2502</v>
       </c>
       <c r="E56" t="n">
         <v>257</v>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="E57" t="n">
         <v>286</v>
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>1890</v>
+        <v>1854</v>
       </c>
       <c r="E58" t="n">
         <v>50</v>
@@ -1943,7 +1943,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Фп Аир корневища 20x1,5г</t>
+          <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" t="n">
-        <v>3820</v>
+        <v>58559</v>
       </c>
       <c r="E59" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+          <t>Фп Аир корневища 20x1,5г</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1981,21 +1981,21 @@
         <v>22</v>
       </c>
       <c r="D60" t="n">
-        <v>28965</v>
+        <v>3784</v>
       </c>
       <c r="E60" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+          <t>Фп Сб. Бруснивер 20x2,0г</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2004,17 +2004,17 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>62519</v>
+        <v>172263</v>
       </c>
       <c r="E61" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
@@ -2033,21 +2033,21 @@
         <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>113244</v>
+        <v>112794</v>
       </c>
       <c r="E62" t="n">
         <v>52</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Бруснивер 20x2,0г</t>
+          <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2059,14 +2059,14 @@
         <v>26</v>
       </c>
       <c r="D63" t="n">
-        <v>177231</v>
+        <v>44649</v>
       </c>
       <c r="E63" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
@@ -2092,14 +2092,14 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+          <t>Фп Пижма цветки 20х1,5г</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2108,24 +2108,24 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>45657</v>
+        <v>6402</v>
       </c>
       <c r="E65" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Фп Крапива листья 20x1,5г</t>
+          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2134,24 +2134,24 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
-        <v>56215</v>
+        <v>171139</v>
       </c>
       <c r="E66" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Фп Пижма цветки 20х1,5г</t>
+          <t>Фп Толокнянка листья 20x1,5г</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2163,21 +2163,21 @@
         <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>6888</v>
+        <v>32328</v>
       </c>
       <c r="E67" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Фп Подорожник листья 20x1,5г</t>
+          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2186,24 +2186,24 @@
         </is>
       </c>
       <c r="C68" t="n">
+        <v>31</v>
+      </c>
+      <c r="D68" t="n">
+        <v>38989</v>
+      </c>
+      <c r="E68" t="n">
         <v>30</v>
       </c>
-      <c r="D68" t="n">
-        <v>26425</v>
-      </c>
-      <c r="E68" t="n">
-        <v>37</v>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+          <t>Фп Сб. Желудочный №3 20x2,0г</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2212,24 +2212,24 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
-        <v>173371</v>
+        <v>23043</v>
       </c>
       <c r="E69" t="n">
         <v>32</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Фп Толокнянка листья 20x1,5г</t>
+          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2238,24 +2238,24 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
-        <v>32922</v>
+        <v>20620</v>
       </c>
       <c r="E70" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Фп Мята перечная листья 20x1,5г</t>
+          <t>Фп Сенна листья 20x1,5г</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2264,24 +2264,24 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D71" t="n">
-        <v>53453</v>
+        <v>72654</v>
       </c>
       <c r="E71" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2290,24 +2290,24 @@
         </is>
       </c>
       <c r="C72" t="n">
+        <v>34</v>
+      </c>
+      <c r="D72" t="n">
+        <v>48311</v>
+      </c>
+      <c r="E72" t="n">
         <v>32</v>
       </c>
-      <c r="D72" t="n">
-        <v>40843</v>
-      </c>
-      <c r="E72" t="n">
-        <v>30</v>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Желудочный №3 20x2,0г</t>
+          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2316,24 +2316,24 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
-        <v>23745</v>
+        <v>92049</v>
       </c>
       <c r="E73" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+          <t>Фп Липа цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2342,24 +2342,24 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D74" t="n">
-        <v>21304</v>
+        <v>65032</v>
       </c>
       <c r="E74" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-26</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Фп Сенна листья 20x1,5г</t>
+          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2368,24 +2368,24 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
-        <v>75300</v>
+        <v>79425</v>
       </c>
       <c r="E75" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-26</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+          <t>Фп Шиповник плоды 20х2,0г</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2394,24 +2394,24 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D76" t="n">
-        <v>95397</v>
+        <v>59609</v>
       </c>
       <c r="E76" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-26</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Фп Липа цветки 20x1,5г</t>
+          <t>Фп Брусника листья 20х1,5г</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2420,24 +2420,24 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D77" t="n">
-        <v>65698</v>
+        <v>91259</v>
       </c>
       <c r="E77" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Фп Шиповник плоды 20х2,0г</t>
+          <t>Фп Ромашка цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2446,24 +2446,24 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D78" t="n">
-        <v>60887</v>
+        <v>1412417</v>
       </c>
       <c r="E78" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Фп Брусника листья 20х1,5г</t>
+          <t>Фп Пустырник трава 20x1,5г</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2475,21 +2475,21 @@
         <v>39</v>
       </c>
       <c r="D79" t="n">
-        <v>94139</v>
+        <v>51837</v>
       </c>
       <c r="E79" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Фп Ромашка цветки 20x1,5г</t>
+          <t>Фп Сб. Элекасол 20x2,0г</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D80" t="n">
-        <v>1427339</v>
+        <v>43574</v>
       </c>
       <c r="E80" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-30</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+          <t>Фп Пастушья сумка трава 20х1,5г</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2524,24 +2524,24 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D81" t="n">
-        <v>83511</v>
+        <v>7378</v>
       </c>
       <c r="E81" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2023-01-04</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Фп Пустырник трава 20x1,5г</t>
+          <t>Фп Подорожник листья 20x1,5г</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2550,24 +2550,24 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D82" t="n">
-        <v>53367</v>
+        <v>35425</v>
       </c>
       <c r="E82" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2023-01-06</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Элекасол 20x2,0г</t>
+          <t>Фп Зверобой трава 20x1,5г</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2576,24 +2576,24 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D83" t="n">
-        <v>44384</v>
+        <v>64537</v>
       </c>
       <c r="E83" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-10</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Фп Пастушья сумка трава 20х1,5г</t>
+          <t>Фп Крапива листья 20x1,5г</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2602,24 +2602,24 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D84" t="n">
-        <v>7432</v>
+        <v>89152</v>
       </c>
       <c r="E84" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-01-11</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Фп Чабрец трава 20x1,5 г</t>
+          <t>Фп Чистотел трава 20х1,5г</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2628,24 +2628,24 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
-        <v>76029</v>
+        <v>37878</v>
       </c>
       <c r="E85" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-12</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Фп Зверобой трава 20x1,5г</t>
+          <t>Фп Боярышник плоды 20х3,0г</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2654,17 +2654,17 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D86" t="n">
-        <v>65689</v>
+        <v>18260</v>
       </c>
       <c r="E86" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-01-13</t>
         </is>
       </c>
     </row>
@@ -2680,17 +2680,17 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D87" t="n">
-        <v>7099</v>
+        <v>6901</v>
       </c>
       <c r="E87" t="n">
         <v>39</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-13</t>
         </is>
       </c>
     </row>
@@ -2706,24 +2706,24 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D88" t="n">
-        <v>41920</v>
+        <v>40786</v>
       </c>
       <c r="E88" t="n">
         <v>26</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-13</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Фп Чистотел трава 20х1,5г</t>
+          <t>Фп Мята перечная листья 20x1,5г</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2735,21 +2735,21 @@
         <v>53</v>
       </c>
       <c r="D89" t="n">
-        <v>39516</v>
+        <v>81928</v>
       </c>
       <c r="E89" t="n">
         <v>29</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-17</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Фп Боярышник плоды 20х3,0г</t>
+          <t>Фп Душица трава 20x1,5г</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2758,24 +2758,24 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D90" t="n">
-        <v>19196</v>
+        <v>37962</v>
       </c>
       <c r="E90" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-23</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Фп Душица трава 20x1,5г</t>
+          <t>Фп Череда трава 20х1,5г</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2787,14 +2787,14 @@
         <v>59</v>
       </c>
       <c r="D91" t="n">
-        <v>39222</v>
+        <v>47682</v>
       </c>
       <c r="E91" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-25</t>
         </is>
       </c>
     </row>
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D92" t="n">
-        <v>7240</v>
+        <v>7006</v>
       </c>
       <c r="E92" t="n">
         <v>37</v>
@@ -2827,7 +2827,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Фп Череда трава 20х1,5г</t>
+          <t>Фп Чабрец трава 20x1,5 г</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2836,17 +2836,17 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D93" t="n">
-        <v>50130</v>
+        <v>94227</v>
       </c>
       <c r="E93" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-01-26</t>
         </is>
       </c>
     </row>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D94" t="n">
-        <v>6664</v>
+        <v>6520</v>
       </c>
       <c r="E94" t="n">
         <v>48</v>
@@ -2888,17 +2888,17 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D95" t="n">
-        <v>1854</v>
+        <v>1818</v>
       </c>
       <c r="E95" t="n">
         <v>38</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-24</t>
         </is>
       </c>
     </row>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D96" t="n">
-        <v>6577</v>
+        <v>6523</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D97" t="n">
         <v>1134</v>
@@ -2959,7 +2959,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2968,17 +2968,17 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D98" t="n">
-        <v>1170</v>
+        <v>1098</v>
       </c>
       <c r="E98" t="n">
         <v>100</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
@@ -2994,17 +2994,17 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D99" t="n">
-        <v>1512</v>
+        <v>1476</v>
       </c>
       <c r="E99" t="n">
         <v>100</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>21720</v>
+        <v>19632</v>
       </c>
       <c r="E100" t="n">
         <v>37</v>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>4390</v>
+        <v>4084</v>
       </c>
       <c r="E101" t="n">
         <v>30</v>
@@ -3072,10 +3072,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="n">
-        <v>54222</v>
+        <v>51288</v>
       </c>
       <c r="E102" t="n">
         <v>31</v>
@@ -3098,10 +3098,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>19455</v>
+        <v>17979</v>
       </c>
       <c r="E103" t="n">
         <v>30</v>
@@ -3115,7 +3115,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Фп Девясил корневища и корни 20х1,5г</t>
+          <t>Фп Лапчатка корневища 20x2,5г</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3124,24 +3124,24 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D104" t="n">
-        <v>15882</v>
+        <v>3718</v>
       </c>
       <c r="E104" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Фп Лапчатка корневища 20x2,5г</t>
+          <t>Фп Девясил корневища и корни 20х1,5г</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3153,14 +3153,14 @@
         <v>21</v>
       </c>
       <c r="D105" t="n">
-        <v>4240</v>
+        <v>15090</v>
       </c>
       <c r="E105" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106" t="n">
-        <v>23758</v>
+        <v>22156</v>
       </c>
       <c r="E106" t="n">
         <v>30</v>
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" t="n">
-        <v>13635</v>
+        <v>12969</v>
       </c>
       <c r="E107" t="n">
         <v>32</v>
@@ -3231,14 +3231,14 @@
         <v>30</v>
       </c>
       <c r="D108" t="n">
-        <v>2905</v>
+        <v>2869</v>
       </c>
       <c r="E108" t="n">
         <v>51</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" t="n">
         <v>81632</v>
@@ -501,14 +501,14 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>15792</v>
+        <v>15610</v>
       </c>
       <c r="E3" t="n">
         <v>45</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
     </row>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>13005</v>
+        <v>11969</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
@@ -541,7 +541,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Спорыш трава 50г</t>
+          <t>Сенна листья 50г</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>10789</v>
+        <v>15091</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Дуба кора 75г</t>
+          <t>Спорыш трава 50г</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -576,24 +576,24 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>62559</v>
+        <v>10355</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Полынь горькая трава 50г</t>
+          <t>Дуба кора 75г</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>33866</v>
+        <v>60767</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Сенна листья 50г</t>
+          <t>Пижма цветки 75г</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>16799</v>
+        <v>13391</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Брусника листья 50г</t>
+          <t>Полынь горькая трава 50г</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,24 +654,24 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>15033</v>
+        <v>31696</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-11-29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Мать-и-мачеха листья 35г</t>
+          <t>Брусника листья 50г</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>21800</v>
+        <v>14053</v>
       </c>
       <c r="E10" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Пижма цветки 75г</t>
+          <t>Мать-и-мачеха листья 35г</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>14819</v>
+        <v>20470</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>24211</v>
+        <v>23189</v>
       </c>
       <c r="E12" t="n">
         <v>92</v>
@@ -749,7 +749,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Аир корневища 75г</t>
+          <t>Липа цветки 35г</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -758,24 +758,24 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>9339</v>
+        <v>14916</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Алтей корни 75г</t>
+          <t>Рябина плоды 50г</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>4826</v>
+        <v>2576</v>
       </c>
       <c r="E14" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Липа цветки 35г</t>
+          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>16008</v>
+        <v>8711</v>
       </c>
       <c r="E15" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Рябина плоды 50г</t>
+          <t>Аир корневища 75г</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -839,21 +839,21 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>2660</v>
+        <v>9269</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+          <t>Алтей корни 75г</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -865,14 +865,14 @@
         <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>8991</v>
+        <v>4616</v>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>23942</v>
+        <v>22850</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -905,7 +905,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Укроп пахучий плоды 50г</t>
+          <t>Пустырник трава 50г</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>69482</v>
+        <v>12712</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Багульник болотный побеги 50г</t>
+          <t>Эрва шерстистая трава 30г</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -940,17 +940,17 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>15083</v>
+        <v>13886</v>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>22734</v>
+        <v>21880</v>
       </c>
       <c r="E21" t="n">
         <v>35</v>
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>75169</v>
+        <v>72341</v>
       </c>
       <c r="E22" t="n">
         <v>39</v>
@@ -1009,7 +1009,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Пустырник трава 50г</t>
+          <t>Укроп пахучий плоды 50г</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>13384</v>
+        <v>68502</v>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Солодка корни 50г</t>
+          <t>Багульник болотный побеги 50г</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1047,21 +1047,21 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>28830</v>
+        <v>14705</v>
       </c>
       <c r="E24" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Эрва шерстистая трава 30г</t>
+          <t>Мята перечная листья 50г</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1073,14 +1073,14 @@
         <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>15230</v>
+        <v>22157</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
@@ -1099,21 +1099,21 @@
         <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>25218</v>
+        <v>24420</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Мята перечная листья 50г</t>
+          <t>Подорожник большой листья 50г</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1125,21 +1125,21 @@
         <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>23025</v>
+        <v>10458</v>
       </c>
       <c r="E27" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Сб. Грудной №4 50г</t>
+          <t>Ромашка цветки вн 50г</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1151,21 +1151,21 @@
         <v>24</v>
       </c>
       <c r="D28" t="n">
-        <v>37026</v>
+        <v>96817</v>
       </c>
       <c r="E28" t="n">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Подорожник большой листья 50г</t>
+          <t>Шалфей листья 50г</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>11116</v>
+        <v>41042</v>
       </c>
       <c r="E29" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Ромашка цветки вн 50г</t>
+          <t>Эвкалипт прутовидный листья 75г</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>98343</v>
+        <v>24953</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Шалфей листья 50г</t>
+          <t>Девясил корневища и корни 50г</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1229,21 +1229,21 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>43534</v>
+        <v>19679</v>
       </c>
       <c r="E31" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Девясил корневища и корни 50г</t>
+          <t>Сб. Грудной №4 50г</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>20211</v>
+        <v>36774</v>
       </c>
       <c r="E32" t="n">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Эвкалипт прутовидный листья 75г</t>
+          <t>Ноготки цветки 50г</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1281,21 +1281,21 @@
         <v>26</v>
       </c>
       <c r="D33" t="n">
-        <v>26353</v>
+        <v>24975</v>
       </c>
       <c r="E33" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Ноготки цветки 50г</t>
+          <t>Крушина кора 50г</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1307,14 +1307,14 @@
         <v>27</v>
       </c>
       <c r="D34" t="n">
-        <v>25955</v>
+        <v>13460</v>
       </c>
       <c r="E34" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
-        <v>6511</v>
+        <v>6301</v>
       </c>
       <c r="E35" t="n">
         <v>37</v>
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
-        <v>12207</v>
+        <v>12039</v>
       </c>
       <c r="E36" t="n">
         <v>30</v>
@@ -1373,7 +1373,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Чабрец трава 50г</t>
+          <t>Бессмертник песчаный цветки 30г</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1385,14 +1385,14 @@
         <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>23367</v>
+        <v>31867</v>
       </c>
       <c r="E37" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
@@ -1411,21 +1411,21 @@
         <v>29</v>
       </c>
       <c r="D38" t="n">
-        <v>19859</v>
+        <v>19593</v>
       </c>
       <c r="E38" t="n">
         <v>43</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Бессмертник песчаный цветки 30г</t>
+          <t>Чабрец трава 50г</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1437,21 +1437,21 @@
         <v>29</v>
       </c>
       <c r="D39" t="n">
-        <v>32721</v>
+        <v>23283</v>
       </c>
       <c r="E39" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Крушина кора 50г</t>
+          <t>Можжевельник плоды 50г</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1460,24 +1460,26 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>14300</v>
-      </c>
-      <c r="E40" t="n">
-        <v>35</v>
+        <v>19962</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Можжевельник плоды 50г</t>
+          <t>Крапива листья 50г</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1486,26 +1488,24 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>20382</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>24645</v>
+      </c>
+      <c r="E41" t="n">
+        <v>38</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Крапива листья 50г</t>
+          <t>Зверобой трава 50г</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1514,24 +1514,24 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>33</v>
+      </c>
+      <c r="D42" t="n">
+        <v>51301</v>
+      </c>
+      <c r="E42" t="n">
         <v>31</v>
       </c>
-      <c r="D42" t="n">
-        <v>25093</v>
-      </c>
-      <c r="E42" t="n">
-        <v>38</v>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Зверобой трава 50г</t>
+          <t>Тысячелистник трава 50г</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
-        <v>53513</v>
+        <v>23153</v>
       </c>
       <c r="E43" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Тысячелистник трава 50г</t>
+          <t>Череда трава 50г</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
-        <v>23783</v>
+        <v>15375</v>
       </c>
       <c r="E44" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
-        <v>19918</v>
+        <v>19470</v>
       </c>
       <c r="E45" t="n">
         <v>41</v>
@@ -1609,7 +1609,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Череда трава 50г</t>
+          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1618,13 +1618,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
-        <v>16019</v>
+        <v>11740</v>
       </c>
       <c r="E46" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+          <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1644,24 +1644,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>12720</v>
+        <v>8931</v>
       </c>
       <c r="E47" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+          <t>Солодка корни 50г</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1670,17 +1670,17 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D48" t="n">
-        <v>9281</v>
+        <v>54334</v>
       </c>
       <c r="E48" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-24</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>2538</v>
+        <v>2078</v>
       </c>
       <c r="E49" t="n">
         <v>115</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-18</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1725,14 @@
         <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>13229</v>
+        <v>12729</v>
       </c>
       <c r="E50" t="n">
         <v>41</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
     </row>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>4331</v>
+        <v>4081</v>
       </c>
       <c r="E51" t="n">
         <v>110</v>
@@ -1774,17 +1774,17 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
-        <v>7408</v>
+        <v>6808</v>
       </c>
       <c r="E52" t="n">
         <v>84</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
@@ -1800,17 +1800,17 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D53" t="n">
-        <v>4610</v>
+        <v>4310</v>
       </c>
       <c r="E53" t="n">
         <v>102</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>2023-01-20</t>
         </is>
       </c>
     </row>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D54" t="n">
-        <v>8250</v>
+        <v>8220</v>
       </c>
       <c r="E54" t="n">
         <v>112</v>
@@ -1850,10 +1850,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D55" t="n">
-        <v>9720</v>
+        <v>9680</v>
       </c>
       <c r="E55" t="n">
         <v>1365</v>
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>2502</v>
+        <v>1998</v>
       </c>
       <c r="E56" t="n">
         <v>257</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
         <v>1062</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
         <v>1854</v>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>58559</v>
+        <v>55427</v>
       </c>
       <c r="E59" t="n">
         <v>32</v>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" t="n">
-        <v>172263</v>
+        <v>167187</v>
       </c>
       <c r="E61" t="n">
         <v>28</v>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="n">
-        <v>112794</v>
+        <v>106854</v>
       </c>
       <c r="E62" t="n">
         <v>52</v>
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>44649</v>
+        <v>42309</v>
       </c>
       <c r="E63" t="n">
         <v>30</v>
@@ -2085,14 +2085,14 @@
         <v>27</v>
       </c>
       <c r="D64" t="n">
-        <v>566985</v>
+        <v>562881</v>
       </c>
       <c r="E64" t="n">
         <v>96</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-13</t>
         </is>
       </c>
     </row>
@@ -2111,21 +2111,21 @@
         <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>6402</v>
+        <v>6348</v>
       </c>
       <c r="E65" t="n">
         <v>34</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+          <t>Фп Толокнянка листья 20x1,5г</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2137,21 +2137,21 @@
         <v>29</v>
       </c>
       <c r="D66" t="n">
-        <v>171139</v>
+        <v>31428</v>
       </c>
       <c r="E66" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Фп Толокнянка листья 20x1,5г</t>
+          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2163,21 +2163,21 @@
         <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>32328</v>
+        <v>38431</v>
       </c>
       <c r="E67" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2189,21 +2189,21 @@
         <v>31</v>
       </c>
       <c r="D68" t="n">
-        <v>38989</v>
+        <v>20062</v>
       </c>
       <c r="E68" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Желудочный №3 20x2,0г</t>
+          <t>Фп Сенна листья 20x1,5г</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2212,24 +2212,24 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
-        <v>23043</v>
+        <v>70296</v>
       </c>
       <c r="E69" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2238,24 +2238,24 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" t="n">
-        <v>20620</v>
+        <v>90699</v>
       </c>
       <c r="E70" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Фп Сенна листья 20x1,5г</t>
+          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2264,24 +2264,24 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" t="n">
-        <v>72654</v>
+        <v>48131</v>
       </c>
       <c r="E71" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-22</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2290,24 +2290,24 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D72" t="n">
-        <v>48311</v>
+        <v>77085</v>
       </c>
       <c r="E72" t="n">
         <v>32</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-26</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+          <t>Фп Липа цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2316,24 +2316,24 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D73" t="n">
-        <v>92049</v>
+        <v>64708</v>
       </c>
       <c r="E73" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Фп Липа цветки 20x1,5г</t>
+          <t>Фп Шиповник плоды 20х2,0г</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2345,21 +2345,21 @@
         <v>37</v>
       </c>
       <c r="D74" t="n">
-        <v>65032</v>
+        <v>59033</v>
       </c>
       <c r="E74" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-12-27</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+          <t>Фп Брусника листья 20х1,5г</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2368,24 +2368,24 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D75" t="n">
-        <v>79425</v>
+        <v>91115</v>
       </c>
       <c r="E75" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Фп Шиповник плоды 20х2,0г</t>
+          <t>Фп Пустырник трава 20x1,5г</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2394,24 +2394,24 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
-        <v>59609</v>
+        <v>51009</v>
       </c>
       <c r="E76" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Фп Брусника листья 20х1,5г</t>
+          <t>Фп Ромашка цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2423,21 +2423,21 @@
         <v>38</v>
       </c>
       <c r="D77" t="n">
-        <v>91259</v>
+        <v>1385561</v>
       </c>
       <c r="E77" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Фп Ромашка цветки 20x1,5г</t>
+          <t>Фп Сб. Элекасол 20x2,0г</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2446,24 +2446,24 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D78" t="n">
-        <v>1412417</v>
+        <v>43358</v>
       </c>
       <c r="E78" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2023-01-02</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Фп Пустырник трава 20x1,5г</t>
+          <t>Фп Пастушья сумка трава 20х1,5г</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2472,24 +2472,24 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D79" t="n">
-        <v>51837</v>
+        <v>7234</v>
       </c>
       <c r="E79" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2023-01-04</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Элекасол 20x2,0г</t>
+          <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D80" t="n">
-        <v>43574</v>
+        <v>236551</v>
       </c>
       <c r="E80" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-01-04</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Фп Пастушья сумка трава 20х1,5г</t>
+          <t>Фп Подорожник листья 20x1,5г</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2524,24 +2524,24 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>7378</v>
+        <v>34687</v>
       </c>
       <c r="E81" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-06</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Фп Подорожник листья 20x1,5г</t>
+          <t>Фп Зверобой трава 20x1,5г</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2550,24 +2550,24 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D82" t="n">
-        <v>35425</v>
+        <v>63799</v>
       </c>
       <c r="E82" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-01-11</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Фп Зверобой трава 20x1,5г</t>
+          <t>Фп Боярышник плоды 20х3,0г</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2576,17 +2576,17 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D83" t="n">
-        <v>64537</v>
+        <v>17432</v>
       </c>
       <c r="E83" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-01-12</t>
         </is>
       </c>
     </row>
@@ -2605,21 +2605,21 @@
         <v>49</v>
       </c>
       <c r="D84" t="n">
-        <v>89152</v>
+        <v>88774</v>
       </c>
       <c r="E84" t="n">
         <v>29</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-12</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Фп Чистотел трава 20х1,5г</t>
+          <t>Фп Сб. Желудочный №3 20x2,0г</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2628,13 +2628,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D85" t="n">
-        <v>37878</v>
+        <v>32619</v>
       </c>
       <c r="E85" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Фп Боярышник плоды 20х3,0г</t>
+          <t>Фп Хвощ полевой трава 20х1,5г</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2654,24 +2654,24 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D86" t="n">
-        <v>18260</v>
+        <v>39202</v>
       </c>
       <c r="E86" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2023-01-12</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Фп Золототысячник трава 20х1,5г</t>
+          <t>Фп Чистотел трава 20х1,5г</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2680,24 +2680,24 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D87" t="n">
-        <v>6901</v>
+        <v>37050</v>
       </c>
       <c r="E87" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2023-01-12</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Фп Хвощ полевой трава 20х1,5г</t>
+          <t>Фп Золототысячник трава 20х1,5г</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2706,17 +2706,17 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D88" t="n">
-        <v>40786</v>
+        <v>6847</v>
       </c>
       <c r="E88" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2023-01-17</t>
         </is>
       </c>
     </row>
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D89" t="n">
-        <v>81928</v>
+        <v>80488</v>
       </c>
       <c r="E89" t="n">
         <v>29</v>
@@ -2761,21 +2761,21 @@
         <v>57</v>
       </c>
       <c r="D90" t="n">
-        <v>37962</v>
+        <v>37404</v>
       </c>
       <c r="E90" t="n">
         <v>36</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023-01-23</t>
+          <t>2023-01-24</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Фп Череда трава 20х1,5г</t>
+          <t>Фп Береза листья 20x1,5г</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2787,21 +2787,21 @@
         <v>59</v>
       </c>
       <c r="D91" t="n">
-        <v>47682</v>
+        <v>6880</v>
       </c>
       <c r="E91" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>2023-01-26</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Фп Береза листья 20x1,5г</t>
+          <t>Фп Чабрец трава 20x1,5 г</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2810,13 +2810,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D92" t="n">
-        <v>7006</v>
+        <v>92589</v>
       </c>
       <c r="E92" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Фп Чабрец трава 20x1,5 г</t>
+          <t>Фп Фиалка трехцветная трава 20x1,5г</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2836,24 +2836,24 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D93" t="n">
-        <v>94227</v>
+        <v>6466</v>
       </c>
       <c r="E93" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2023-02-14</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+          <t>Фп Череда трава 20х1,5г</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2862,17 +2862,17 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D94" t="n">
-        <v>6520</v>
+        <v>61938</v>
       </c>
       <c r="E94" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-16</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D95" t="n">
         <v>1818</v>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D96" t="n">
-        <v>6523</v>
+        <v>6451</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2942,24 +2942,24 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D97" t="n">
-        <v>1134</v>
+        <v>1026</v>
       </c>
       <c r="E97" t="n">
         <v>100</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-10</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2968,17 +2968,17 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D98" t="n">
-        <v>1098</v>
+        <v>1044</v>
       </c>
       <c r="E98" t="n">
         <v>100</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-11</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D99" t="n">
         <v>1476</v>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
@@ -3075,14 +3075,14 @@
         <v>14</v>
       </c>
       <c r="D102" t="n">
-        <v>51288</v>
+        <v>49956</v>
       </c>
       <c r="E102" t="n">
         <v>31</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
     </row>
@@ -3098,10 +3098,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" t="n">
-        <v>17979</v>
+        <v>17637</v>
       </c>
       <c r="E103" t="n">
         <v>30</v>
@@ -3134,14 +3134,14 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Фп Девясил корневища и корни 20х1,5г</t>
+          <t>Фп Крушина кора 20x1,5г</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3150,13 +3150,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>15090</v>
+        <v>11637</v>
       </c>
       <c r="E105" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>22156</v>
+        <v>21256</v>
       </c>
       <c r="E106" t="n">
         <v>30</v>
@@ -3193,7 +3193,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Фп Крушина кора 20x1,5г</t>
+          <t>Фп Девясил корневища и корни 20х1,5г</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3202,17 +3202,17 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D107" t="n">
-        <v>12969</v>
+        <v>15072</v>
       </c>
       <c r="E107" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="n">
-        <v>81632</v>
+        <v>81536</v>
       </c>
       <c r="E2" t="n">
         <v>199</v>
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Чага (березовый гриб) 50г</t>
+          <t>Чистотел трава 50г</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -498,24 +498,24 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>15610</v>
+        <v>10513</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Чистотел трава 50г</t>
+          <t>Полынь горькая трава 50г</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>11969</v>
+        <v>26124</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Сенна листья 50г</t>
+          <t>Пижма цветки 75г</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>15091</v>
+        <v>11501</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Спорыш трава 50г</t>
+          <t>Дуба кора 75г</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,21 +579,21 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>10355</v>
+        <v>56245</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Дуба кора 75г</t>
+          <t>Сенна листья 50г</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>60767</v>
+        <v>14489</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Пижма цветки 75г</t>
+          <t>Алтей корни 75г</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -631,21 +631,21 @@
         <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>13391</v>
+        <v>3888</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Полынь горькая трава 50г</t>
+          <t>Брусника листья 50г</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -657,21 +657,21 @@
         <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>31696</v>
+        <v>13185</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Брусника листья 50г</t>
+          <t>Рябина плоды 50г</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>14053</v>
+        <v>2156</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Мать-и-мачеха листья 35г</t>
+          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>20470</v>
+        <v>7521</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Шиповник плоды низковитаминные 50г</t>
+          <t>Укроп пахучий плоды 50г</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>23189</v>
+        <v>54488</v>
       </c>
       <c r="E12" t="n">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Липа цветки 35г</t>
+          <t>Шиповник плоды низковитаминные 50г</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -758,24 +758,24 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>14916</v>
+        <v>22321</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Рябина плоды 50г</t>
+          <t>Аир корневища 75г</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>2576</v>
+        <v>8569</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+          <t>Липа цветки 35г</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>8711</v>
+        <v>14594</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Аир корневища 75г</t>
+          <t>Эрва шерстистая трава 30г</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -836,24 +836,24 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>9269</v>
+        <v>12668</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Алтей корни 75г</t>
+          <t>Багульник болотный побеги 50г</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>4616</v>
+        <v>13305</v>
       </c>
       <c r="E17" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>22850</v>
+        <v>20974</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -905,7 +905,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Пустырник трава 50г</t>
+          <t>Лен семена 100г</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>12712</v>
+        <v>68099</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Эрва шерстистая трава 30г</t>
+          <t>Пустырник трава 50г</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -943,21 +943,21 @@
         <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>13886</v>
+        <v>12278</v>
       </c>
       <c r="E20" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Валериана корневища с корнями 50г</t>
+          <t>Чага (березовый гриб) 50г</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>21880</v>
+        <v>47698</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Лен семена 100г</t>
+          <t>Боярышник плоды 75г</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -995,21 +995,21 @@
         <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>72341</v>
+        <v>23160</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Укроп пахучий плоды 50г</t>
+          <t>Валериана корневища с корнями 50г</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1021,21 +1021,21 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>68502</v>
+        <v>21306</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Багульник болотный побеги 50г</t>
+          <t>Мята перечная листья 50г</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>14705</v>
+        <v>21023</v>
       </c>
       <c r="E24" t="n">
         <v>43</v>
@@ -1061,7 +1061,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Мята перечная листья 50г</t>
+          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>22157</v>
+        <v>5027</v>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Боярышник плоды 75г</t>
+          <t>Подорожник большой листья 50г</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1096,13 +1096,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>24420</v>
+        <v>10178</v>
       </c>
       <c r="E26" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Подорожник большой листья 50г</t>
+          <t>Ромашка цветки вн 50г</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" t="n">
-        <v>10458</v>
+        <v>91497</v>
       </c>
       <c r="E27" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ромашка цветки вн 50г</t>
+          <t>Шалфей листья 50г</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>96817</v>
+        <v>40146</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Шалфей листья 50г</t>
+          <t>Эвкалипт прутовидный листья 75г</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" t="n">
-        <v>41042</v>
+        <v>23651</v>
       </c>
       <c r="E29" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Эвкалипт прутовидный листья 75г</t>
+          <t>Девясил корневища и корни 50г</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1203,21 +1203,21 @@
         <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>24953</v>
+        <v>18671</v>
       </c>
       <c r="E30" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Девясил корневища и корни 50г</t>
+          <t>Ноготки цветки 50г</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>19679</v>
+        <v>23015</v>
       </c>
       <c r="E31" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="n">
-        <v>36774</v>
+        <v>35220</v>
       </c>
       <c r="E32" t="n">
         <v>112</v>
@@ -1269,7 +1269,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Ноготки цветки 50г</t>
+          <t>Крушина кора 50г</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>24975</v>
+        <v>12676</v>
       </c>
       <c r="E33" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Крушина кора 50г</t>
+          <t>Толокнянка листья 50г</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="n">
-        <v>13460</v>
+        <v>11409</v>
       </c>
       <c r="E34" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+          <t>Бессмертник песчаный цветки 30г</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1333,21 +1333,21 @@
         <v>27</v>
       </c>
       <c r="D35" t="n">
-        <v>6301</v>
+        <v>30775</v>
       </c>
       <c r="E35" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Толокнянка листья 50г</t>
+          <t>Чабрец трава 50г</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1359,21 +1359,21 @@
         <v>27</v>
       </c>
       <c r="D36" t="n">
-        <v>12039</v>
+        <v>22009</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-14</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Бессмертник песчаный цветки 30г</t>
+          <t>Береза почки 50г</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1385,21 +1385,21 @@
         <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>31867</v>
+        <v>18963</v>
       </c>
       <c r="E37" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Береза почки 50г</t>
+          <t>Можжевельник плоды 50г</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1408,13 +1408,15 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>19593</v>
-      </c>
-      <c r="E38" t="n">
-        <v>43</v>
+        <v>18772</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1425,7 +1427,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Чабрец трава 50г</t>
+          <t>Мать-и-мачеха листья 35г</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1434,24 +1436,24 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>23283</v>
+        <v>32930</v>
       </c>
       <c r="E39" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Можжевельник плоды 50г</t>
+          <t>Зверобой трава 50г</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1460,19 +1462,17 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
-        <v>19962</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>47815</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
@@ -1491,21 +1491,21 @@
         <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>24645</v>
+        <v>24295</v>
       </c>
       <c r="E41" t="n">
         <v>38</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Зверобой трава 50г</t>
+          <t>Тысячелистник трава 50г</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1514,24 +1514,24 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
-        <v>51301</v>
+        <v>21641</v>
       </c>
       <c r="E42" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Тысячелистник трава 50г</t>
+          <t>Ламинарии слоевища (морская капуста) 100г</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1543,21 +1543,21 @@
         <v>33</v>
       </c>
       <c r="D43" t="n">
-        <v>23153</v>
+        <v>19008</v>
       </c>
       <c r="E43" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-22</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Череда трава 50г</t>
+          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1569,21 +1569,21 @@
         <v>33</v>
       </c>
       <c r="D44" t="n">
-        <v>15375</v>
+        <v>11334</v>
       </c>
       <c r="E44" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-22</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Ламинарии слоевища (морская капуста) 100г</t>
+          <t>Череда трава 50г</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
-        <v>19470</v>
+        <v>14983</v>
       </c>
       <c r="E45" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+          <t>Спорыш трава 50г</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1618,17 +1618,17 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>11740</v>
+        <v>23725</v>
       </c>
       <c r="E46" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2023-01-03</t>
         </is>
       </c>
     </row>
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
-        <v>8931</v>
+        <v>8693</v>
       </c>
       <c r="E47" t="n">
         <v>72</v>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" t="n">
-        <v>54334</v>
+        <v>52318</v>
       </c>
       <c r="E48" t="n">
         <v>40</v>
@@ -1696,17 +1696,17 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>2078</v>
+        <v>1598</v>
       </c>
       <c r="E49" t="n">
         <v>115</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-17</t>
         </is>
       </c>
     </row>
@@ -1722,17 +1722,17 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>12729</v>
+        <v>11129</v>
       </c>
       <c r="E50" t="n">
         <v>41</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-28</t>
         </is>
       </c>
     </row>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>4081</v>
+        <v>3741</v>
       </c>
       <c r="E51" t="n">
         <v>110</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" t="n">
-        <v>6808</v>
+        <v>6398</v>
       </c>
       <c r="E52" t="n">
         <v>84</v>
@@ -1800,17 +1800,17 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>4310</v>
+        <v>4070</v>
       </c>
       <c r="E53" t="n">
         <v>102</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023-01-20</t>
+          <t>2023-01-18</t>
         </is>
       </c>
     </row>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D54" t="n">
-        <v>8220</v>
+        <v>8110</v>
       </c>
       <c r="E54" t="n">
         <v>112</v>
@@ -1850,10 +1850,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55" t="n">
-        <v>9680</v>
+        <v>9670</v>
       </c>
       <c r="E55" t="n">
         <v>1365</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
         <v>1062</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1952,17 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="n">
-        <v>55427</v>
+        <v>49883</v>
       </c>
       <c r="E59" t="n">
         <v>32</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
@@ -1978,17 +1978,17 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>3784</v>
+        <v>3460</v>
       </c>
       <c r="E60" t="n">
         <v>43</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" t="n">
-        <v>167187</v>
+        <v>155217</v>
       </c>
       <c r="E61" t="n">
         <v>28</v>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>106854</v>
+        <v>101778</v>
       </c>
       <c r="E62" t="n">
         <v>52</v>
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" t="n">
-        <v>42309</v>
+        <v>40041</v>
       </c>
       <c r="E63" t="n">
         <v>30</v>
@@ -2073,7 +2073,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Грудной №4 20x2,0г</t>
+          <t>Фп Толокнянка листья 20x1,5г</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" t="n">
-        <v>562881</v>
+        <v>28674</v>
       </c>
       <c r="E64" t="n">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2108,10 +2108,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
-        <v>6348</v>
+        <v>6006</v>
       </c>
       <c r="E65" t="n">
         <v>34</v>
@@ -2125,7 +2125,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Фп Толокнянка листья 20x1,5г</t>
+          <t>Фп Сб. Грудной №4 20x2,0г</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
-        <v>31428</v>
+        <v>561621</v>
       </c>
       <c r="E66" t="n">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2160,24 +2160,24 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
-        <v>38431</v>
+        <v>18262</v>
       </c>
       <c r="E67" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+          <t>Фп Мелисса лекарственная трава 20x1,5г</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2186,17 +2186,17 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
-        <v>20062</v>
+        <v>36937</v>
       </c>
       <c r="E68" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
@@ -2212,17 +2212,17 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>70296</v>
+        <v>66606</v>
       </c>
       <c r="E69" t="n">
         <v>28</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
-        <v>90699</v>
+        <v>85659</v>
       </c>
       <c r="E70" t="n">
         <v>35</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-20</t>
         </is>
       </c>
     </row>
@@ -2264,17 +2264,17 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>48131</v>
+        <v>45377</v>
       </c>
       <c r="E71" t="n">
         <v>32</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
@@ -2290,17 +2290,17 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
-        <v>77085</v>
+        <v>73431</v>
       </c>
       <c r="E72" t="n">
         <v>32</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-12-23</t>
         </is>
       </c>
     </row>
@@ -2319,21 +2319,21 @@
         <v>37</v>
       </c>
       <c r="D73" t="n">
-        <v>64708</v>
+        <v>64024</v>
       </c>
       <c r="E73" t="n">
         <v>61</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Фп Шиповник плоды 20х2,0г</t>
+          <t>Фп Пустырник трава 20x1,5г</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2345,21 +2345,21 @@
         <v>37</v>
       </c>
       <c r="D74" t="n">
-        <v>59033</v>
+        <v>49389</v>
       </c>
       <c r="E74" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Фп Брусника листья 20х1,5г</t>
+          <t>Фп Ромашка цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2368,13 +2368,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
-        <v>91115</v>
+        <v>1365725</v>
       </c>
       <c r="E75" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Фп Пустырник трава 20x1,5г</t>
+          <t>Фп Шиповник плоды 20х2,0г</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D76" t="n">
-        <v>51009</v>
+        <v>57809</v>
       </c>
       <c r="E76" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Фп Ромашка цветки 20x1,5г</t>
+          <t>Фп Брусника листья 20х1,5г</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2423,21 +2423,21 @@
         <v>38</v>
       </c>
       <c r="D77" t="n">
-        <v>1385561</v>
+        <v>89135</v>
       </c>
       <c r="E77" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2022-12-29</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Элекасол 20x2,0г</t>
+          <t>Фп Пастушья сумка трава 20х1,5г</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2449,21 +2449,21 @@
         <v>41</v>
       </c>
       <c r="D78" t="n">
-        <v>43358</v>
+        <v>6928</v>
       </c>
       <c r="E78" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Фп Пастушья сумка трава 20х1,5г</t>
+          <t>Фп Сб. Элекасол 20x2,0г</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2472,17 +2472,17 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D79" t="n">
-        <v>7234</v>
+        <v>42512</v>
       </c>
       <c r="E79" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-03</t>
         </is>
       </c>
     </row>
@@ -2498,10 +2498,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>236551</v>
+        <v>229603</v>
       </c>
       <c r="E80" t="n">
         <v>32</v>
@@ -2524,24 +2524,24 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D81" t="n">
-        <v>34687</v>
+        <v>33337</v>
       </c>
       <c r="E81" t="n">
         <v>37</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-01-05</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Фп Зверобой трава 20x1,5г</t>
+          <t>Фп Чистотел трава 20х1,5г</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2550,17 +2550,17 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>63799</v>
+        <v>34962</v>
       </c>
       <c r="E82" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2576,24 +2576,24 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D83" t="n">
-        <v>17432</v>
+        <v>16352</v>
       </c>
       <c r="E83" t="n">
         <v>37</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-01-10</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Фп Крапива листья 20x1,5г</t>
+          <t>Фп Хвощ полевой трава 20х1,5г</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2602,24 +2602,24 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D84" t="n">
-        <v>88774</v>
+        <v>37186</v>
       </c>
       <c r="E84" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-01-10</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Фп Сб. Желудочный №3 20x2,0г</t>
+          <t>Фп Зверобой трава 20x1,5г</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2628,24 +2628,24 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
-        <v>32619</v>
+        <v>61909</v>
       </c>
       <c r="E85" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-01-11</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Фп Хвощ полевой трава 20х1,5г</t>
+          <t>Фп Сб. Желудочный №3 20x2,0г</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2654,13 +2654,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D86" t="n">
-        <v>39202</v>
+        <v>31917</v>
       </c>
       <c r="E86" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Фп Чистотел трава 20х1,5г</t>
+          <t>Фп Крапива листья 20x1,5г</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2683,14 +2683,14 @@
         <v>49</v>
       </c>
       <c r="D87" t="n">
-        <v>37050</v>
+        <v>88216</v>
       </c>
       <c r="E87" t="n">
         <v>29</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-01-13</t>
         </is>
       </c>
     </row>
@@ -2706,17 +2706,17 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
-        <v>6847</v>
+        <v>6685</v>
       </c>
       <c r="E88" t="n">
         <v>39</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -2732,17 +2732,17 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D89" t="n">
-        <v>80488</v>
+        <v>77626</v>
       </c>
       <c r="E89" t="n">
         <v>29</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -2758,17 +2758,17 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D90" t="n">
-        <v>37404</v>
+        <v>36234</v>
       </c>
       <c r="E90" t="n">
         <v>36</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-23</t>
         </is>
       </c>
     </row>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91" t="n">
-        <v>6880</v>
+        <v>6664</v>
       </c>
       <c r="E91" t="n">
         <v>37</v>
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D92" t="n">
-        <v>92589</v>
+        <v>89835</v>
       </c>
       <c r="E92" t="n">
         <v>44</v>
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D93" t="n">
-        <v>6466</v>
+        <v>6286</v>
       </c>
       <c r="E93" t="n">
         <v>48</v>
@@ -2862,17 +2862,17 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D94" t="n">
-        <v>61938</v>
+        <v>60192</v>
       </c>
       <c r="E94" t="n">
         <v>28</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-15</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-27</t>
         </is>
       </c>
     </row>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D96" t="n">
-        <v>6451</v>
+        <v>6181</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2926,14 +2926,14 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-07-11</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D97" t="n">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="E97" t="n">
         <v>100</v>
@@ -2959,7 +2959,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+          <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2968,17 +2968,17 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D98" t="n">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="E98" t="n">
         <v>100</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-10</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D99" t="n">
         <v>1476</v>
@@ -3011,7 +3011,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Фп Ноготки цветки 20x1,5г</t>
+          <t>Фп Почечный чай листья 20x1,5г</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3020,24 +3020,24 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" t="n">
-        <v>19632</v>
+        <v>47022</v>
       </c>
       <c r="E100" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-24</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+          <t>Фп Крушина кора 20x1,5г</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3046,24 +3046,24 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>4084</v>
+        <v>9711</v>
       </c>
       <c r="E101" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-30</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Фп Почечный чай листья 20x1,5г</t>
+          <t>Фп Валериана корневища с корнями 20x1,5г</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3072,24 +3072,24 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>49956</v>
+        <v>16971</v>
       </c>
       <c r="E102" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Фп Валериана корневища с корнями 20x1,5г</t>
+          <t>Фп Тысячелистник трава 20x1,5г</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3101,14 +3101,14 @@
         <v>18</v>
       </c>
       <c r="D103" t="n">
-        <v>17637</v>
+        <v>18772</v>
       </c>
       <c r="E103" t="n">
         <v>30</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
     </row>
@@ -3127,21 +3127,21 @@
         <v>19</v>
       </c>
       <c r="D104" t="n">
-        <v>3718</v>
+        <v>3646</v>
       </c>
       <c r="E104" t="n">
         <v>34</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Фп Крушина кора 20x1,5г</t>
+          <t>Фп Девясил корневища и корни 20х1,5г</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3153,21 +3153,21 @@
         <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>11637</v>
+        <v>14154</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Фп Тысячелистник трава 20x1,5г</t>
+          <t>Фп Ноготки цветки 20x1,5г</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3176,24 +3176,24 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D106" t="n">
-        <v>21256</v>
+        <v>46164</v>
       </c>
       <c r="E106" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-08</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Фп Девясил корневища и корни 20х1,5г</t>
+          <t>Фп Бадан корневища 20x1,5г</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3202,24 +3202,24 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D107" t="n">
-        <v>15072</v>
+        <v>2311</v>
       </c>
       <c r="E107" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-09</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Фп Бадан корневища 20x1,5г</t>
+          <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3228,17 +3228,17 @@
         </is>
       </c>
       <c r="C108" t="n">
+        <v>43</v>
+      </c>
+      <c r="D108" t="n">
+        <v>12454</v>
+      </c>
+      <c r="E108" t="n">
         <v>30</v>
       </c>
-      <c r="D108" t="n">
-        <v>2869</v>
-      </c>
-      <c r="E108" t="n">
-        <v>51</v>
-      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2023-01-05</t>
         </is>
       </c>
     </row>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -34,126 +34,126 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
     <t>Полынь горькая трава 50г</t>
   </si>
   <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
   </si>
   <si>
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
     <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
   <si>
@@ -208,93 +208,93 @@
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
+    <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
+    <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Желудочный №3 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Душица трава 20x1,5г</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Фп Береза листья 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
@@ -325,30 +325,30 @@
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Крушина кора 20x1,5г</t>
   </si>
   <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Девясил корневища и корни 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
@@ -382,130 +382,130 @@
     <t>2022-12-01</t>
   </si>
   <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-12-06</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2022-11-29</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2022-11-24</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
     <t>2022-12-02</t>
-  </si>
-  <si>
-    <t>2022-12-05</t>
-  </si>
-  <si>
-    <t>2022-12-06</t>
-  </si>
-  <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2022-12-08</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
-  </si>
-  <si>
-    <t>2022-12-12</t>
-  </si>
-  <si>
-    <t>2022-12-14</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2022-11-17</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2022-11-25</t>
-  </si>
-  <si>
-    <t>2022-12-13</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2022-12-19</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-02-14</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
   </si>
 </sst>
 </file>
@@ -894,10 +894,10 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2">
-        <v>81472</v>
+        <v>81440</v>
       </c>
       <c r="E2">
         <v>199</v>
@@ -914,13 +914,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>24836</v>
+        <v>38451</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>119</v>
@@ -934,13 +934,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>52997</v>
+        <v>1722</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>120</v>
@@ -954,10 +954,10 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>6317</v>
+        <v>5474</v>
       </c>
       <c r="E5">
         <v>32</v>
@@ -974,16 +974,16 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>12359</v>
+        <v>39242</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -994,13 +994,13 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>2128</v>
+        <v>11197</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>121</v>
@@ -1017,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>48692</v>
+        <v>17804</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1034,16 +1034,16 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>21285</v>
+        <v>7816</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1057,13 +1057,13 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>14118</v>
+        <v>71309</v>
       </c>
       <c r="E10">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1077,13 +1077,13 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>8303</v>
+        <v>19540</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1097,13 +1097,13 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>19252</v>
+        <v>61366</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1114,13 +1114,13 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>12388</v>
+        <v>17481</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>124</v>
@@ -1134,16 +1134,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>21256</v>
+        <v>10612</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1154,16 +1154,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>65726</v>
+        <v>4243</v>
       </c>
       <c r="E15">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1174,13 +1174,13 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>19567</v>
+        <v>43848</v>
       </c>
       <c r="E16">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>125</v>
@@ -1194,13 +1194,13 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>12068</v>
+        <v>11492</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -1217,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>45668</v>
+        <v>12087</v>
       </c>
       <c r="E18">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1234,13 +1234,13 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>13277</v>
+        <v>19486</v>
       </c>
       <c r="E19">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
@@ -1254,13 +1254,13 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>20158</v>
+        <v>18955</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -1277,13 +1277,13 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>84567</v>
+        <v>14096</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1297,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>4943</v>
+        <v>9033</v>
       </c>
       <c r="E22">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1314,13 +1314,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>21531</v>
+        <v>35992</v>
       </c>
       <c r="E23">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -1337,13 +1337,13 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>37990</v>
+        <v>20249</v>
       </c>
       <c r="E24">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1354,16 +1354,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>21733</v>
+        <v>27737</v>
       </c>
       <c r="E25">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1377,13 +1377,13 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>18419</v>
+        <v>17691</v>
       </c>
       <c r="E26">
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1397,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="D27">
-        <v>10010</v>
+        <v>11752</v>
       </c>
       <c r="E27">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1417,13 +1417,13 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>33470</v>
+        <v>32532</v>
       </c>
       <c r="E28">
         <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1434,16 +1434,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>17031</v>
+        <v>10913</v>
       </c>
       <c r="E29">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1457,13 +1457,13 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>29235</v>
+        <v>19830</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1474,16 +1474,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>12536</v>
+        <v>29892</v>
       </c>
       <c r="E31">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1494,16 +1494,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>11227</v>
-      </c>
-      <c r="E32">
-        <v>30</v>
+        <v>17960</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1514,16 +1514,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>20329</v>
+        <v>18809</v>
       </c>
       <c r="E33">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1537,13 +1537,13 @@
         <v>27</v>
       </c>
       <c r="D34">
-        <v>18380</v>
-      </c>
-      <c r="E34" t="s">
-        <v>117</v>
+        <v>19167</v>
+      </c>
+      <c r="E34">
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1554,16 +1554,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>23133</v>
+        <v>22013</v>
       </c>
       <c r="E35">
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1577,13 +1577,13 @@
         <v>29</v>
       </c>
       <c r="D36">
-        <v>31754</v>
+        <v>44385</v>
       </c>
       <c r="E36">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1597,13 +1597,13 @@
         <v>29</v>
       </c>
       <c r="D37">
-        <v>20097</v>
+        <v>17048</v>
       </c>
       <c r="E37">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1614,16 +1614,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>46695</v>
+        <v>49768</v>
       </c>
       <c r="E38">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1637,13 +1637,13 @@
         <v>30</v>
       </c>
       <c r="D39">
-        <v>20815</v>
+        <v>26858</v>
       </c>
       <c r="E39">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1654,16 +1654,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>17944</v>
+        <v>13885</v>
       </c>
       <c r="E40">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1674,16 +1674,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>14311</v>
+        <v>28049</v>
       </c>
       <c r="E41">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1694,16 +1694,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>29771</v>
+        <v>41239</v>
       </c>
       <c r="E42">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1714,16 +1714,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>11292</v>
+        <v>10550</v>
       </c>
       <c r="E43">
         <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1734,16 +1734,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>34733</v>
+        <v>33249</v>
       </c>
       <c r="E44">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1754,16 +1754,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45">
-        <v>22647</v>
+        <v>21723</v>
       </c>
       <c r="E45">
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1774,16 +1774,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46">
-        <v>8539</v>
+        <v>7713</v>
       </c>
       <c r="E46">
         <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1794,16 +1794,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>9737</v>
+        <v>8927</v>
       </c>
       <c r="E47">
         <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1814,16 +1814,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48">
-        <v>51436</v>
+        <v>49490</v>
       </c>
       <c r="E48">
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1834,16 +1834,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>1208</v>
+        <v>431</v>
       </c>
       <c r="E49">
         <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1854,16 +1854,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>10529</v>
+        <v>2471</v>
       </c>
       <c r="E50">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1874,16 +1874,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>3271</v>
+        <v>8679</v>
       </c>
       <c r="E51">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1894,16 +1894,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>5888</v>
+        <v>4952</v>
       </c>
       <c r="E52">
         <v>84</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1914,16 +1914,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D53">
-        <v>3900</v>
+        <v>3470</v>
       </c>
       <c r="E53">
         <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1934,10 +1934,10 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D54">
-        <v>7990</v>
+        <v>7940</v>
       </c>
       <c r="E54">
         <v>112</v>
@@ -1954,10 +1954,10 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D55">
-        <v>9400</v>
+        <v>9350</v>
       </c>
       <c r="E55">
         <v>1365</v>
@@ -1974,16 +1974,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>1962</v>
+        <v>1692</v>
       </c>
       <c r="E56">
         <v>257</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1994,16 +1994,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>1062</v>
+        <v>990</v>
       </c>
       <c r="E57">
         <v>286</v>
       </c>
       <c r="F57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2014,10 +2014,10 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>1854</v>
+        <v>1746</v>
       </c>
       <c r="E58">
         <v>50</v>
@@ -2034,16 +2034,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>3406</v>
+        <v>3046</v>
       </c>
       <c r="E59">
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2054,16 +2054,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60">
-        <v>139827</v>
+        <v>128743</v>
       </c>
       <c r="E60">
         <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2074,16 +2074,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>37305</v>
+        <v>87234</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2094,16 +2094,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>96810</v>
+        <v>5070</v>
       </c>
       <c r="E62">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2114,16 +2114,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>26766</v>
+        <v>25272</v>
       </c>
       <c r="E63">
         <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2134,16 +2134,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>5664</v>
+        <v>15688</v>
       </c>
       <c r="E64">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2154,16 +2154,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>17380</v>
+        <v>52786</v>
       </c>
       <c r="E65">
         <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2174,16 +2174,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>34399</v>
+        <v>32689</v>
       </c>
       <c r="E66">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2194,16 +2194,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>548697</v>
+        <v>73882</v>
       </c>
       <c r="E67">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2214,16 +2214,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>84274</v>
+        <v>40085</v>
       </c>
       <c r="E68">
         <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2234,16 +2234,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69">
-        <v>60940</v>
+        <v>521643</v>
       </c>
       <c r="E69">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2254,16 +2254,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>42641</v>
+        <v>75831</v>
       </c>
       <c r="E70">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2277,13 +2277,13 @@
         <v>29</v>
       </c>
       <c r="D71">
-        <v>80763</v>
+        <v>61785</v>
       </c>
       <c r="E71">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2294,16 +2294,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D72">
-        <v>67275</v>
+        <v>79577</v>
       </c>
       <c r="E72">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2314,16 +2314,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73">
-        <v>46365</v>
+        <v>59956</v>
       </c>
       <c r="E73">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2334,16 +2334,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D74">
-        <v>62296</v>
+        <v>44655</v>
       </c>
       <c r="E74">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2354,16 +2354,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75">
-        <v>1311041</v>
+        <v>5866</v>
       </c>
       <c r="E75">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2377,13 +2377,13 @@
         <v>36</v>
       </c>
       <c r="D76">
-        <v>55991</v>
+        <v>53893</v>
       </c>
       <c r="E76">
         <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2394,16 +2394,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D77">
-        <v>85913</v>
+        <v>211675</v>
       </c>
       <c r="E77">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2414,16 +2414,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D78">
-        <v>6640</v>
+        <v>31326</v>
       </c>
       <c r="E78">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2434,16 +2434,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D79">
-        <v>220855</v>
+        <v>40914</v>
       </c>
       <c r="E79">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2454,13 +2454,13 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D80">
-        <v>41666</v>
+        <v>15218</v>
       </c>
       <c r="E80">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
         <v>149</v>
@@ -2477,13 +2477,13 @@
         <v>43</v>
       </c>
       <c r="D81">
-        <v>33486</v>
+        <v>68392</v>
       </c>
       <c r="E81">
         <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2494,16 +2494,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D82">
-        <v>32545</v>
+        <v>31130</v>
       </c>
       <c r="E82">
         <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2514,16 +2514,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D83">
-        <v>15956</v>
+        <v>35062</v>
       </c>
       <c r="E83">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2534,16 +2534,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D84">
-        <v>36754</v>
+        <v>1504217</v>
       </c>
       <c r="E84">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2554,16 +2554,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D85">
-        <v>73126</v>
+        <v>65367</v>
       </c>
       <c r="E85">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2574,16 +2574,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D86">
-        <v>61495</v>
+        <v>79883</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2594,16 +2594,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D87">
-        <v>84526</v>
+        <v>59911</v>
       </c>
       <c r="E87">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2617,13 +2617,13 @@
         <v>48</v>
       </c>
       <c r="D88">
-        <v>31431</v>
+        <v>6213</v>
       </c>
       <c r="E88">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2634,16 +2634,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D89">
-        <v>6433</v>
+        <v>30577</v>
       </c>
       <c r="E89">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2654,16 +2654,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D90">
-        <v>35946</v>
+        <v>35118</v>
       </c>
       <c r="E90">
         <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2674,16 +2674,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D91">
-        <v>87279</v>
+        <v>83989</v>
       </c>
       <c r="E91">
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2694,16 +2694,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D92">
-        <v>6610</v>
+        <v>6322</v>
       </c>
       <c r="E92">
         <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2714,16 +2714,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D93">
-        <v>6088</v>
+        <v>53478</v>
       </c>
       <c r="E93">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2734,16 +2734,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D94">
-        <v>57564</v>
+        <v>5872</v>
       </c>
       <c r="E94">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2754,16 +2754,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D95">
-        <v>1800</v>
+        <v>1692</v>
       </c>
       <c r="E95">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2774,16 +2774,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D96">
-        <v>6181</v>
+        <v>6073</v>
       </c>
       <c r="E96" t="s">
         <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2794,16 +2794,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D97">
-        <v>1008</v>
+        <v>810</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2814,16 +2814,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D98">
-        <v>1026</v>
+        <v>846</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2834,16 +2834,16 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D99">
-        <v>1476</v>
+        <v>1386</v>
       </c>
       <c r="E99">
         <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2854,10 +2854,10 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D100">
-        <v>15279</v>
+        <v>14600</v>
       </c>
       <c r="E100">
         <v>30</v>
@@ -2874,16 +2874,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101">
-        <v>16684</v>
+        <v>14595</v>
       </c>
       <c r="E101">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2894,16 +2894,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D102">
-        <v>9513</v>
+        <v>8631</v>
       </c>
       <c r="E102">
         <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2914,16 +2914,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>3466</v>
+        <v>2803</v>
       </c>
       <c r="E103">
         <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2934,13 +2934,13 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104">
-        <v>13614</v>
+        <v>38533</v>
       </c>
       <c r="E104">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
         <v>125</v>
@@ -2954,10 +2954,10 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105">
-        <v>2041</v>
+        <v>1951</v>
       </c>
       <c r="E105">
         <v>51</v>
@@ -2977,13 +2977,13 @@
         <v>21</v>
       </c>
       <c r="D106">
-        <v>73644</v>
+        <v>13284</v>
       </c>
       <c r="E106">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2994,16 +2994,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D107">
-        <v>43788</v>
+        <v>124664</v>
       </c>
       <c r="E107">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3014,16 +3014,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D108">
-        <v>12454</v>
+        <v>11788</v>
       </c>
       <c r="E108">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="170">
   <si>
     <t>Линия производства</t>
   </si>
@@ -43,129 +43,129 @@
     <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
   </si>
   <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
     <t>Укроп пахучий плоды 50г</t>
   </si>
   <si>
-    <t>Брусника листья 50г</t>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
   </si>
   <si>
     <t>Кукуруза столбики с рыльцами 40г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
   </si>
   <si>
     <t>Эвкалипт прутовидный листья 75г</t>
   </si>
   <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
     <t>Алтей корни 75г</t>
   </si>
   <si>
@@ -175,15 +175,15 @@
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
   <si>
@@ -202,114 +202,114 @@
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Аир корневища 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Толокнянка листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
   <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
@@ -325,33 +325,33 @@
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
     <t>Контрактная площадка</t>
   </si>
   <si>
@@ -376,136 +376,154 @@
     <t>2022-11-28</t>
   </si>
   <si>
-    <t>2022-11-30</t>
-  </si>
-  <si>
     <t>2022-12-01</t>
   </si>
   <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2022-11-24</t>
+  </si>
+  <si>
+    <t>2022-11-29</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
     <t>2022-12-05</t>
   </si>
   <si>
-    <t>2022-12-06</t>
-  </si>
-  <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2022-12-08</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
-  </si>
-  <si>
-    <t>2022-12-12</t>
-  </si>
-  <si>
-    <t>2022-12-13</t>
-  </si>
-  <si>
-    <t>2022-12-14</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2022-11-29</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2022-11-24</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
-    <t>2023-08-04</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>2022-12-02</t>
+    <t>2023-02-01</t>
   </si>
 </sst>
 </file>
@@ -894,10 +912,10 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2">
-        <v>81440</v>
+        <v>81408</v>
       </c>
       <c r="E2">
         <v>199</v>
@@ -914,10 +932,10 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>38451</v>
+        <v>32213</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -934,10 +952,10 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1722</v>
+        <v>1554</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -954,10 +972,10 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>5474</v>
+        <v>5180</v>
       </c>
       <c r="E5">
         <v>32</v>
@@ -974,16 +992,16 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>39242</v>
+        <v>7255</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -994,13 +1012,13 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>11197</v>
+        <v>65730</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>121</v>
@@ -1017,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>17804</v>
+        <v>3821</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1034,16 +1052,16 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>7816</v>
+        <v>9895</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1057,13 +1075,13 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>71309</v>
+        <v>57906</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1074,16 +1092,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>19540</v>
+        <v>16786</v>
       </c>
       <c r="E11">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1094,16 +1112,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>61366</v>
+        <v>10346</v>
       </c>
       <c r="E12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1117,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>17481</v>
+        <v>18950</v>
       </c>
       <c r="E13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1137,13 +1155,13 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>10612</v>
+        <v>17401</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1157,13 +1175,13 @@
         <v>18</v>
       </c>
       <c r="D15">
-        <v>4243</v>
+        <v>41272</v>
       </c>
       <c r="E15">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1177,13 +1195,13 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>43848</v>
+        <v>12611</v>
       </c>
       <c r="E16">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1197,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>11492</v>
+        <v>18968</v>
       </c>
       <c r="E17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1214,16 +1232,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>12087</v>
+        <v>8123</v>
       </c>
       <c r="E18">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1234,16 +1252,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>19486</v>
+        <v>33684</v>
       </c>
       <c r="E19">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1257,13 +1275,13 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>18955</v>
+        <v>11219</v>
       </c>
       <c r="E20">
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1277,13 +1295,13 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>14096</v>
+        <v>16795</v>
       </c>
       <c r="E21">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1297,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>9033</v>
+        <v>11136</v>
       </c>
       <c r="E22">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1314,13 +1332,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>35992</v>
+        <v>26575</v>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -1337,13 +1355,13 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>20249</v>
+        <v>19079</v>
       </c>
       <c r="E24">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1354,16 +1372,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>27737</v>
+        <v>32466</v>
       </c>
       <c r="E25">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1374,16 +1392,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>17691</v>
+        <v>10754</v>
       </c>
       <c r="E26">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1394,16 +1412,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>11752</v>
+        <v>19096</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1414,13 +1432,13 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>32532</v>
+        <v>17389</v>
       </c>
       <c r="E28">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
         <v>129</v>
@@ -1434,16 +1452,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>10913</v>
+        <v>67012</v>
       </c>
       <c r="E29">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1454,16 +1472,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>19830</v>
+        <v>28340</v>
       </c>
       <c r="E30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1474,16 +1492,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>29892</v>
-      </c>
-      <c r="E31">
-        <v>44</v>
+        <v>17400</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1497,13 +1515,13 @@
         <v>27</v>
       </c>
       <c r="D32">
-        <v>17960</v>
-      </c>
-      <c r="E32" t="s">
-        <v>117</v>
+        <v>21593</v>
+      </c>
+      <c r="E32">
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1514,10 +1532,10 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>18809</v>
+        <v>42098</v>
       </c>
       <c r="E33">
         <v>31</v>
@@ -1534,13 +1552,13 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>19167</v>
+        <v>16068</v>
       </c>
       <c r="E34">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
         <v>132</v>
@@ -1557,13 +1575,13 @@
         <v>28</v>
       </c>
       <c r="D35">
-        <v>22013</v>
+        <v>18692</v>
       </c>
       <c r="E35">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1574,16 +1592,16 @@
         <v>113</v>
       </c>
       <c r="C36">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>47150</v>
+      </c>
+      <c r="E36">
         <v>29</v>
       </c>
-      <c r="D36">
-        <v>44385</v>
-      </c>
-      <c r="E36">
-        <v>31</v>
-      </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1597,13 +1615,13 @@
         <v>29</v>
       </c>
       <c r="D37">
-        <v>17048</v>
+        <v>13549</v>
       </c>
       <c r="E37">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1614,13 +1632,13 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>49768</v>
+        <v>26228</v>
       </c>
       <c r="E38">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
         <v>134</v>
@@ -1637,13 +1655,13 @@
         <v>30</v>
       </c>
       <c r="D39">
-        <v>26858</v>
+        <v>27622</v>
       </c>
       <c r="E39">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1654,13 +1672,13 @@
         <v>113</v>
       </c>
       <c r="C40">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>35049</v>
+      </c>
+      <c r="E40">
         <v>30</v>
-      </c>
-      <c r="D40">
-        <v>13885</v>
-      </c>
-      <c r="E40">
-        <v>33</v>
       </c>
       <c r="F40" t="s">
         <v>135</v>
@@ -1674,16 +1692,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>28049</v>
+        <v>40804</v>
       </c>
       <c r="E41">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1694,16 +1712,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>41239</v>
+        <v>10200</v>
       </c>
       <c r="E42">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1714,16 +1732,16 @@
         <v>113</v>
       </c>
       <c r="C43">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>32437</v>
+      </c>
+      <c r="E43">
         <v>33</v>
       </c>
-      <c r="D43">
-        <v>10550</v>
-      </c>
-      <c r="E43">
-        <v>76</v>
-      </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1734,16 +1752,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D44">
-        <v>33249</v>
+        <v>21247</v>
       </c>
       <c r="E44">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1754,16 +1772,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>21723</v>
+        <v>7363</v>
       </c>
       <c r="E45">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1774,16 +1792,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>7713</v>
+        <v>35215</v>
       </c>
       <c r="E46">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1797,13 +1815,13 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>8927</v>
+        <v>8759</v>
       </c>
       <c r="E47">
         <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1814,16 +1832,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>49490</v>
+        <v>45935</v>
       </c>
       <c r="E48">
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1837,13 +1855,13 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="E49">
         <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1854,16 +1872,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>2471</v>
+        <v>11676</v>
       </c>
       <c r="E50">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1874,16 +1892,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D51">
-        <v>8679</v>
+        <v>4770</v>
       </c>
       <c r="E51">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1894,16 +1912,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>4952</v>
+        <v>4380</v>
       </c>
       <c r="E52">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1917,13 +1935,13 @@
         <v>45</v>
       </c>
       <c r="D53">
-        <v>3470</v>
+        <v>3400</v>
       </c>
       <c r="E53">
         <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1934,10 +1952,10 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D54">
-        <v>7940</v>
+        <v>7830</v>
       </c>
       <c r="E54">
         <v>112</v>
@@ -1954,10 +1972,10 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D55">
-        <v>9350</v>
+        <v>9260</v>
       </c>
       <c r="E55">
         <v>1365</v>
@@ -1983,7 +2001,7 @@
         <v>257</v>
       </c>
       <c r="F56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1994,16 +2012,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>990</v>
+        <v>972</v>
       </c>
       <c r="E57">
         <v>286</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2014,7 +2032,7 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>1746</v>
@@ -2023,7 +2041,7 @@
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2034,16 +2052,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>3046</v>
+        <v>85247</v>
       </c>
       <c r="E59">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2054,16 +2072,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>128743</v>
+        <v>4764</v>
       </c>
       <c r="E60">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2074,16 +2092,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>87234</v>
+        <v>169879</v>
       </c>
       <c r="E61">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2097,13 +2115,13 @@
         <v>23</v>
       </c>
       <c r="D62">
-        <v>5070</v>
+        <v>49400</v>
       </c>
       <c r="E62">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2114,16 +2132,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>25272</v>
+        <v>72211</v>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2134,13 +2152,13 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>15688</v>
+        <v>38789</v>
       </c>
       <c r="E64">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
         <v>130</v>
@@ -2154,13 +2172,13 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D65">
-        <v>52786</v>
+        <v>74643</v>
       </c>
       <c r="E65">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
         <v>130</v>
@@ -2174,13 +2192,13 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>32689</v>
+        <v>512496</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F66" t="s">
         <v>131</v>
@@ -2194,16 +2212,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D67">
-        <v>73882</v>
+        <v>5398</v>
       </c>
       <c r="E67">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2214,16 +2232,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D68">
-        <v>40085</v>
+        <v>77597</v>
       </c>
       <c r="E68">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2234,16 +2252,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D69">
-        <v>521643</v>
+        <v>59181</v>
       </c>
       <c r="E69">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2254,16 +2272,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>75831</v>
+        <v>43950</v>
       </c>
       <c r="E70">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2274,16 +2292,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D71">
-        <v>61785</v>
+        <v>42174</v>
       </c>
       <c r="E71">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2294,16 +2312,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D72">
-        <v>79577</v>
+        <v>204529</v>
       </c>
       <c r="E72">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2314,16 +2332,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D73">
-        <v>59956</v>
+        <v>30732</v>
       </c>
       <c r="E73">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2334,16 +2352,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D74">
-        <v>44655</v>
+        <v>53820</v>
       </c>
       <c r="E74">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2354,16 +2372,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D75">
-        <v>5866</v>
+        <v>25162</v>
       </c>
       <c r="E75">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2374,16 +2392,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D76">
-        <v>53893</v>
+        <v>63928</v>
       </c>
       <c r="E76">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2394,16 +2412,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D77">
-        <v>211675</v>
+        <v>39834</v>
       </c>
       <c r="E77">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2414,16 +2432,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D78">
-        <v>31326</v>
+        <v>30230</v>
       </c>
       <c r="E78">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2434,16 +2452,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D79">
-        <v>40914</v>
+        <v>33658</v>
       </c>
       <c r="E79">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2454,16 +2472,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D80">
-        <v>15218</v>
+        <v>1459368</v>
       </c>
       <c r="E80">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2474,16 +2492,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D81">
-        <v>68392</v>
+        <v>96255</v>
       </c>
       <c r="E81">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2494,16 +2512,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D82">
-        <v>31130</v>
+        <v>63667</v>
       </c>
       <c r="E82">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2514,16 +2532,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D83">
-        <v>35062</v>
+        <v>78545</v>
       </c>
       <c r="E83">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2534,16 +2552,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D84">
-        <v>1504217</v>
+        <v>29191</v>
       </c>
       <c r="E84">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2554,16 +2572,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D85">
-        <v>65367</v>
+        <v>5997</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2574,16 +2592,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D86">
-        <v>79883</v>
+        <v>59657</v>
       </c>
       <c r="E86">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2594,16 +2612,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D87">
-        <v>59911</v>
+        <v>6863</v>
       </c>
       <c r="E87">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2614,16 +2632,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D88">
-        <v>6213</v>
+        <v>48562</v>
       </c>
       <c r="E88">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2634,16 +2652,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D89">
-        <v>30577</v>
+        <v>34722</v>
       </c>
       <c r="E89">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2654,16 +2672,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D90">
-        <v>35118</v>
+        <v>81702</v>
       </c>
       <c r="E90">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2677,13 +2695,13 @@
         <v>55</v>
       </c>
       <c r="D91">
-        <v>83989</v>
+        <v>6160</v>
       </c>
       <c r="E91">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2694,16 +2712,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D92">
-        <v>6322</v>
+        <v>52793</v>
       </c>
       <c r="E92">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2714,16 +2732,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D93">
-        <v>53478</v>
+        <v>5656</v>
       </c>
       <c r="E93">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2734,16 +2752,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D94">
-        <v>5872</v>
+        <v>26576</v>
       </c>
       <c r="E94">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2754,7 +2772,7 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D95">
         <v>1692</v>
@@ -2763,7 +2781,7 @@
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2777,13 +2795,13 @@
         <v>177</v>
       </c>
       <c r="D96">
-        <v>6073</v>
+        <v>6001</v>
       </c>
       <c r="E96" t="s">
         <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2794,7 +2812,7 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D97">
         <v>810</v>
@@ -2803,7 +2821,7 @@
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2814,7 +2832,7 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D98">
         <v>846</v>
@@ -2823,7 +2841,7 @@
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2834,7 +2852,7 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D99">
         <v>1386</v>
@@ -2843,7 +2861,7 @@
         <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2854,16 +2872,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100">
-        <v>14600</v>
+        <v>7533</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2874,16 +2892,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101">
-        <v>14595</v>
+        <v>2659</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2894,16 +2912,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102">
-        <v>8631</v>
+        <v>13754</v>
       </c>
       <c r="E102">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2914,16 +2932,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D103">
-        <v>2803</v>
+        <v>34763</v>
       </c>
       <c r="E103">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2937,13 +2955,13 @@
         <v>19</v>
       </c>
       <c r="D104">
-        <v>38533</v>
+        <v>1807</v>
       </c>
       <c r="E104">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2954,13 +2972,13 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D105">
-        <v>1951</v>
+        <v>12870</v>
       </c>
       <c r="E105">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
         <v>126</v>
@@ -2974,16 +2992,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D106">
-        <v>13284</v>
+        <v>34262</v>
       </c>
       <c r="E106">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2994,16 +3012,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D107">
-        <v>124664</v>
+        <v>11752</v>
       </c>
       <c r="E107">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3014,16 +3032,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D108">
-        <v>11788</v>
+        <v>166941</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="174">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,165 +34,165 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
     <t>Дуба кора 75г</t>
   </si>
   <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
   </si>
   <si>
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
   </si>
   <si>
     <t>Мята перечная листья 50г</t>
   </si>
   <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
     <t>Алтей корни 75г</t>
   </si>
   <si>
     <t>Солодка корни 50г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
+  </si>
+  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
@@ -202,117 +202,117 @@
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
     <t>Фп Шалфей листья 20х1,5г</t>
   </si>
   <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Пижма цветки 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
@@ -331,21 +331,21 @@
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
@@ -376,154 +376,166 @@
     <t>2022-11-28</t>
   </si>
   <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-12-06</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2022-11-29</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
     <t>2022-12-01</t>
   </si>
   <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2022-12-08</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
-  </si>
-  <si>
-    <t>2022-12-12</t>
-  </si>
-  <si>
-    <t>2022-12-13</t>
-  </si>
-  <si>
-    <t>2022-12-14</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2022-12-19</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2022-11-24</t>
-  </si>
-  <si>
-    <t>2022-11-29</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
     <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-02-22</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>2023-07-20</t>
-  </si>
-  <si>
-    <t>2023-08-04</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>2022-12-02</t>
-  </si>
-  <si>
-    <t>2022-12-05</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
   </si>
 </sst>
 </file>
@@ -912,10 +924,10 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2">
-        <v>81408</v>
+        <v>81376</v>
       </c>
       <c r="E2">
         <v>199</v>
@@ -932,13 +944,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>32213</v>
+        <v>3052</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>119</v>
@@ -952,10 +964,10 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1554</v>
+        <v>1512</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -975,13 +987,13 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>5180</v>
+        <v>7574</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -992,13 +1004,13 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>7255</v>
+        <v>6871</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>121</v>
@@ -1012,16 +1024,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>65730</v>
+        <v>3317</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1032,16 +1044,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>3821</v>
+        <v>6121</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1052,16 +1064,16 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>9895</v>
+        <v>15674</v>
       </c>
       <c r="E9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1072,16 +1084,16 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>57906</v>
+        <v>49828</v>
       </c>
       <c r="E10">
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1092,16 +1104,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>16786</v>
+        <v>14251</v>
       </c>
       <c r="E11">
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1112,16 +1124,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>10346</v>
+        <v>36512</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1132,16 +1144,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>18950</v>
+        <v>15916</v>
       </c>
       <c r="E13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1152,16 +1164,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>17401</v>
+        <v>61891</v>
       </c>
       <c r="E14">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1172,16 +1184,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>41272</v>
+        <v>9301</v>
       </c>
       <c r="E15">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1192,16 +1204,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>12611</v>
+        <v>11309</v>
       </c>
       <c r="E16">
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1212,16 +1224,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>18968</v>
+        <v>9176</v>
       </c>
       <c r="E17">
         <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1232,16 +1244,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>8123</v>
+        <v>7381</v>
       </c>
       <c r="E18">
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1252,16 +1264,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>33684</v>
+        <v>29302</v>
       </c>
       <c r="E19">
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1272,16 +1284,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>11219</v>
+        <v>22907</v>
       </c>
       <c r="E20">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1292,16 +1304,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>16795</v>
+        <v>13972</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1312,16 +1324,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>11136</v>
+        <v>16853</v>
       </c>
       <c r="E22">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1332,16 +1344,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>26575</v>
+        <v>14793</v>
       </c>
       <c r="E23">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1352,16 +1364,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>19079</v>
+        <v>95294</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1372,16 +1384,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>32466</v>
+        <v>9648</v>
       </c>
       <c r="E25">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1392,16 +1404,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>10754</v>
+        <v>55560</v>
       </c>
       <c r="E26">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1412,16 +1424,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>19096</v>
+        <v>24700</v>
       </c>
       <c r="E27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1432,16 +1444,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>17389</v>
+        <v>38512</v>
       </c>
       <c r="E28">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1452,16 +1464,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>67012</v>
+        <v>36904</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1472,16 +1484,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>28340</v>
+        <v>19087</v>
       </c>
       <c r="E30">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1492,16 +1504,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>17400</v>
-      </c>
-      <c r="E31" t="s">
-        <v>117</v>
+        <v>13870</v>
+      </c>
+      <c r="E31">
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1512,13 +1524,13 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>21593</v>
-      </c>
-      <c r="E32">
-        <v>38</v>
+        <v>15944</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
       </c>
       <c r="F32" t="s">
         <v>131</v>
@@ -1532,16 +1544,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>42098</v>
+        <v>15654</v>
       </c>
       <c r="E33">
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1552,16 +1564,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>16068</v>
+        <v>31444</v>
       </c>
       <c r="E34">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1572,16 +1584,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>18692</v>
+        <v>16423</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1592,13 +1604,13 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>47150</v>
+        <v>11421</v>
       </c>
       <c r="E36">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
         <v>132</v>
@@ -1612,13 +1624,13 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>13549</v>
+        <v>31745</v>
       </c>
       <c r="E37">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>133</v>
@@ -1632,16 +1644,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>26228</v>
+        <v>24738</v>
       </c>
       <c r="E38">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1652,16 +1664,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>27622</v>
+        <v>36604</v>
       </c>
       <c r="E39">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1672,16 +1684,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>35049</v>
+        <v>25304</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1692,16 +1704,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>40804</v>
+        <v>28559</v>
       </c>
       <c r="E41">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1712,16 +1724,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>10200</v>
+        <v>10088</v>
       </c>
       <c r="E42">
         <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1732,16 +1744,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43">
-        <v>32437</v>
+        <v>18797</v>
       </c>
       <c r="E43">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1752,16 +1764,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44">
-        <v>21247</v>
+        <v>7307</v>
       </c>
       <c r="E44">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1772,16 +1784,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>7363</v>
+        <v>32345</v>
       </c>
       <c r="E45">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1792,16 +1804,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D46">
-        <v>35215</v>
+        <v>35556</v>
       </c>
       <c r="E46">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1812,16 +1824,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47">
-        <v>8759</v>
+        <v>8255</v>
       </c>
       <c r="E47">
         <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1832,16 +1844,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48">
-        <v>45935</v>
+        <v>44913</v>
       </c>
       <c r="E48">
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1852,16 +1864,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>350</v>
+        <v>3830</v>
       </c>
       <c r="E49">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1875,13 +1887,13 @@
         <v>20</v>
       </c>
       <c r="D50">
-        <v>11676</v>
+        <v>3840</v>
       </c>
       <c r="E50">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1892,16 +1904,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>4770</v>
+        <v>15121</v>
       </c>
       <c r="E51">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1912,16 +1924,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>4380</v>
+        <v>5610</v>
       </c>
       <c r="E52">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1932,16 +1944,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="D53">
-        <v>3400</v>
+        <v>7700</v>
       </c>
       <c r="E53">
-        <v>102</v>
-      </c>
-      <c r="F53" t="s">
-        <v>145</v>
+        <v>112</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1952,13 +1964,13 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D54">
-        <v>7830</v>
+        <v>9110</v>
       </c>
       <c r="E54">
-        <v>112</v>
+        <v>1365</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1972,13 +1984,10 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>245</v>
-      </c>
-      <c r="D55">
-        <v>9260</v>
+        <v>243</v>
       </c>
       <c r="E55">
-        <v>1365</v>
+        <v>115</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1995,13 +2004,13 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>1692</v>
+        <v>1386</v>
       </c>
       <c r="E56">
         <v>257</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2012,16 +2021,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>972</v>
+        <v>864</v>
       </c>
       <c r="E57">
         <v>286</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2032,16 +2041,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>1746</v>
+        <v>1638</v>
       </c>
       <c r="E58">
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2052,16 +2061,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>85247</v>
+        <v>153157</v>
       </c>
       <c r="E59">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2072,16 +2081,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D60">
-        <v>4764</v>
+        <v>67407</v>
       </c>
       <c r="E60">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2092,16 +2101,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D61">
-        <v>169879</v>
+        <v>35981</v>
       </c>
       <c r="E61">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2112,16 +2121,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D62">
-        <v>49400</v>
+        <v>462852</v>
       </c>
       <c r="E62">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2132,16 +2141,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D63">
-        <v>72211</v>
+        <v>112674</v>
       </c>
       <c r="E63">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2152,16 +2161,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D64">
-        <v>38789</v>
+        <v>39108</v>
       </c>
       <c r="E64">
         <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2172,16 +2181,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>74643</v>
+        <v>72251</v>
       </c>
       <c r="E65">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2192,16 +2201,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D66">
-        <v>512496</v>
+        <v>37962</v>
       </c>
       <c r="E66">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2212,16 +2221,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67">
-        <v>5398</v>
+        <v>5164</v>
       </c>
       <c r="E67">
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2232,10 +2241,10 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D68">
-        <v>77597</v>
+        <v>26286</v>
       </c>
       <c r="E68">
         <v>29</v>
@@ -2255,13 +2264,13 @@
         <v>34</v>
       </c>
       <c r="D69">
-        <v>59181</v>
+        <v>97429</v>
       </c>
       <c r="E69">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2275,13 +2284,13 @@
         <v>34</v>
       </c>
       <c r="D70">
-        <v>43950</v>
+        <v>187033</v>
       </c>
       <c r="E70">
         <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2292,13 +2301,13 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D71">
-        <v>42174</v>
+        <v>73114</v>
       </c>
       <c r="E71">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
         <v>149</v>
@@ -2312,13 +2321,13 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D72">
-        <v>204529</v>
+        <v>23758</v>
       </c>
       <c r="E72">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
         <v>150</v>
@@ -2332,16 +2341,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D73">
-        <v>30732</v>
+        <v>59464</v>
       </c>
       <c r="E73">
         <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2352,16 +2361,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74">
-        <v>53820</v>
+        <v>51534</v>
       </c>
       <c r="E74">
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2372,16 +2381,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75">
-        <v>25162</v>
+        <v>27170</v>
       </c>
       <c r="E75">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2392,16 +2401,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D76">
-        <v>63928</v>
+        <v>1336014</v>
       </c>
       <c r="E76">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2412,16 +2421,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D77">
-        <v>39834</v>
+        <v>38052</v>
       </c>
       <c r="E77">
         <v>53</v>
       </c>
       <c r="F77" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2432,16 +2441,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D78">
-        <v>30230</v>
+        <v>31570</v>
       </c>
       <c r="E78">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2452,16 +2461,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D79">
-        <v>33658</v>
+        <v>26365</v>
       </c>
       <c r="E79">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2472,16 +2481,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D80">
-        <v>1459368</v>
+        <v>72659</v>
       </c>
       <c r="E80">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2492,16 +2501,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D81">
-        <v>96255</v>
+        <v>91629</v>
       </c>
       <c r="E81">
         <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2512,16 +2521,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D82">
-        <v>63667</v>
+        <v>59941</v>
       </c>
       <c r="E82">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2532,16 +2541,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83">
-        <v>78545</v>
+        <v>55157</v>
       </c>
       <c r="E83">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2555,13 +2564,13 @@
         <v>46</v>
       </c>
       <c r="D84">
-        <v>29191</v>
+        <v>5709</v>
       </c>
       <c r="E84">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2572,16 +2581,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D85">
-        <v>5997</v>
+        <v>44476</v>
       </c>
       <c r="E85">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2592,16 +2601,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D86">
-        <v>59657</v>
+        <v>6503</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2612,16 +2621,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D87">
-        <v>6863</v>
+        <v>31590</v>
       </c>
       <c r="E87">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2635,13 +2644,13 @@
         <v>51</v>
       </c>
       <c r="D88">
-        <v>48562</v>
+        <v>83499</v>
       </c>
       <c r="E88">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2652,16 +2661,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D89">
-        <v>34722</v>
+        <v>75006</v>
       </c>
       <c r="E89">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2675,13 +2684,13 @@
         <v>54</v>
       </c>
       <c r="D90">
-        <v>81702</v>
+        <v>6034</v>
       </c>
       <c r="E90">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2692,16 +2701,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D91">
-        <v>6160</v>
+        <v>49841</v>
       </c>
       <c r="E91">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2712,16 +2721,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D92">
-        <v>52793</v>
+        <v>5152</v>
       </c>
       <c r="E92">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2732,16 +2741,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D93">
-        <v>5656</v>
+        <v>11334</v>
       </c>
       <c r="E93">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2752,16 +2761,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D94">
-        <v>26576</v>
+        <v>1512</v>
       </c>
       <c r="E94">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2772,16 +2781,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D95">
-        <v>1692</v>
+        <v>26018</v>
       </c>
       <c r="E95">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2795,13 +2804,13 @@
         <v>177</v>
       </c>
       <c r="D96">
-        <v>6001</v>
+        <v>5947</v>
       </c>
       <c r="E96" t="s">
         <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2812,16 +2821,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D97">
-        <v>810</v>
+        <v>666</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2832,16 +2841,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D98">
-        <v>846</v>
+        <v>720</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2852,16 +2861,16 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D99">
-        <v>1386</v>
+        <v>1242</v>
       </c>
       <c r="E99">
         <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2872,16 +2881,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>7533</v>
+        <v>5391</v>
       </c>
       <c r="E100">
         <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2892,16 +2901,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>2659</v>
+        <v>1813</v>
       </c>
       <c r="E101">
         <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2912,16 +2921,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102">
-        <v>13754</v>
+        <v>27959</v>
       </c>
       <c r="E102">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2935,13 +2944,13 @@
         <v>18</v>
       </c>
       <c r="D103">
-        <v>34763</v>
+        <v>1789</v>
       </c>
       <c r="E103">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2955,13 +2964,13 @@
         <v>19</v>
       </c>
       <c r="D104">
-        <v>1807</v>
+        <v>11016</v>
       </c>
       <c r="E104">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2972,16 +2981,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D105">
-        <v>12870</v>
+        <v>30932</v>
       </c>
       <c r="E105">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2992,16 +3001,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D106">
-        <v>34262</v>
+        <v>30884</v>
       </c>
       <c r="E106">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3012,16 +3021,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D107">
-        <v>11752</v>
+        <v>10384</v>
       </c>
       <c r="E107">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3032,16 +3041,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D108">
-        <v>166941</v>
+        <v>157311</v>
       </c>
       <c r="E108">
         <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="172">
   <si>
     <t>Линия производства</t>
   </si>
@@ -43,144 +43,144 @@
     <t>Пустырник трава 50г</t>
   </si>
   <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
     <t>Эрва шерстистая трава 30г</t>
   </si>
   <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
     <t>Аир корневища 75г</t>
   </si>
   <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
     <t>Боярышник плоды 75г</t>
   </si>
   <si>
-    <t>Лен семена 100г</t>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
   </si>
   <si>
     <t>Ноготки цветки 50г</t>
   </si>
   <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
     <t>Алтей корни 75г</t>
   </si>
   <si>
     <t>Солодка корни 50г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
   <si>
@@ -202,45 +202,45 @@
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
   </si>
   <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
   <si>
@@ -256,36 +256,36 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Элекасол 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Желудочный №3 20x2,0г</t>
   </si>
   <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
   <si>
     <t>Фп Толокнянка листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Душица трава 20x1,5г</t>
   </si>
   <si>
@@ -328,27 +328,27 @@
     <t>Фп Крушина кора 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
@@ -373,10 +373,7 @@
     <t>2023-05-09</t>
   </si>
   <si>
-    <t>2022-11-28</t>
-  </si>
-  <si>
-    <t>2022-12-02</t>
+    <t>2022-11-29</t>
   </si>
   <si>
     <t>2022-12-05</t>
@@ -403,93 +400,93 @@
     <t>2022-12-14</t>
   </si>
   <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
     <t>2022-12-16</t>
   </si>
   <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
   </si>
   <si>
     <t>2023-01-13</t>
   </si>
   <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>2022-11-29</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
     <t>2023-01-19</t>
   </si>
   <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
     <t>2023-01-23</t>
   </si>
   <si>
@@ -499,43 +496,40 @@
     <t>2023-01-25</t>
   </si>
   <si>
-    <t>2023-01-27</t>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
   </si>
   <si>
     <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-14</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-02-17</t>
-  </si>
-  <si>
-    <t>2023-02-22</t>
-  </si>
-  <si>
-    <t>2023-07-24</t>
-  </si>
-  <si>
-    <t>2023-08-01</t>
-  </si>
-  <si>
-    <t>2023-08-02</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
   </si>
 </sst>
 </file>
@@ -924,7 +918,7 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>81376</v>
@@ -1007,10 +1001,10 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>6871</v>
+        <v>3177</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>121</v>
@@ -1024,16 +1018,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>3317</v>
+        <v>6871</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1044,16 +1038,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>6121</v>
+        <v>6051</v>
       </c>
       <c r="E8">
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1067,10 +1061,10 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>15674</v>
+        <v>49548</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>123</v>
@@ -1087,10 +1081,10 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>49828</v>
+        <v>36512</v>
       </c>
       <c r="E10">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>124</v>
@@ -1104,16 +1098,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>14251</v>
+        <v>15776</v>
       </c>
       <c r="E11">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1124,16 +1118,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>36512</v>
+        <v>61611</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1144,16 +1138,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>15916</v>
+        <v>9161</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1164,16 +1158,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>61891</v>
+        <v>9106</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1187,10 +1181,10 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>9301</v>
+        <v>29302</v>
       </c>
       <c r="E15">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>126</v>
@@ -1204,16 +1198,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>11309</v>
+        <v>22627</v>
       </c>
       <c r="E16">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1224,16 +1218,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>9176</v>
+        <v>13972</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1244,16 +1238,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>7381</v>
+        <v>16713</v>
       </c>
       <c r="E18">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1264,16 +1258,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>29302</v>
+        <v>14513</v>
       </c>
       <c r="E19">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1284,16 +1278,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>22907</v>
+        <v>95294</v>
       </c>
       <c r="E20">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1304,16 +1298,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>13972</v>
+        <v>9606</v>
       </c>
       <c r="E21">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1324,16 +1318,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>16853</v>
+        <v>55560</v>
       </c>
       <c r="E22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1344,16 +1338,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>14793</v>
+        <v>24630</v>
       </c>
       <c r="E23">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1364,16 +1358,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>95294</v>
+        <v>38372</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1384,16 +1378,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>9648</v>
+        <v>16283</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1404,16 +1398,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>55560</v>
+        <v>36624</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1424,16 +1418,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>24700</v>
+        <v>19017</v>
       </c>
       <c r="E27">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1444,16 +1438,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>38512</v>
+        <v>13870</v>
       </c>
       <c r="E28">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1467,13 +1461,13 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>36904</v>
-      </c>
-      <c r="E29">
-        <v>31</v>
+        <v>15874</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1487,13 +1481,13 @@
         <v>24</v>
       </c>
       <c r="D30">
-        <v>19087</v>
+        <v>15514</v>
       </c>
       <c r="E30">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1504,16 +1498,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>13870</v>
+        <v>31444</v>
       </c>
       <c r="E31">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1524,16 +1518,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>15944</v>
-      </c>
-      <c r="E32" t="s">
-        <v>117</v>
+        <v>11421</v>
+      </c>
+      <c r="E32">
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1544,16 +1538,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>15654</v>
+        <v>29716</v>
       </c>
       <c r="E33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1564,16 +1558,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>31444</v>
+        <v>31605</v>
       </c>
       <c r="E34">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1584,16 +1578,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>16423</v>
+        <v>24738</v>
       </c>
       <c r="E35">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1604,16 +1598,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>11421</v>
+        <v>36604</v>
       </c>
       <c r="E36">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1624,16 +1618,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>31745</v>
+        <v>25262</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1644,16 +1638,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>24738</v>
+        <v>28559</v>
       </c>
       <c r="E38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1664,16 +1658,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>36604</v>
+        <v>13314</v>
       </c>
       <c r="E39">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1684,16 +1678,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>25304</v>
+        <v>18657</v>
       </c>
       <c r="E40">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1704,16 +1698,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>28559</v>
+        <v>10018</v>
       </c>
       <c r="E41">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1724,16 +1718,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>10088</v>
+        <v>7307</v>
       </c>
       <c r="E42">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1744,16 +1738,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>18797</v>
+        <v>21165</v>
       </c>
       <c r="E43">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1764,16 +1758,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44">
-        <v>7307</v>
+        <v>35556</v>
       </c>
       <c r="E44">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1784,7 +1778,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <v>32345</v>
@@ -1793,7 +1787,7 @@
         <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1804,16 +1798,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D46">
-        <v>35556</v>
+        <v>37318</v>
       </c>
       <c r="E46">
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1824,7 +1818,7 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47">
         <v>8255</v>
@@ -1833,7 +1827,7 @@
         <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1853,7 +1847,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1864,16 +1858,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>3830</v>
+        <v>3790</v>
       </c>
       <c r="E49">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1884,16 +1878,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D50">
-        <v>3840</v>
+        <v>14921</v>
       </c>
       <c r="E50">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1904,16 +1898,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D51">
-        <v>15121</v>
+        <v>8708</v>
       </c>
       <c r="E51">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1927,13 +1921,13 @@
         <v>72</v>
       </c>
       <c r="D52">
-        <v>5610</v>
+        <v>5590</v>
       </c>
       <c r="E52">
         <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1944,7 +1938,7 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D53">
         <v>7700</v>
@@ -1964,7 +1958,7 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D54">
         <v>9110</v>
@@ -1984,7 +1978,7 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E55">
         <v>115</v>
@@ -2010,7 +2004,7 @@
         <v>257</v>
       </c>
       <c r="F56" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2021,7 +2015,7 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>864</v>
@@ -2030,7 +2024,7 @@
         <v>286</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2041,7 +2035,7 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>1638</v>
@@ -2050,7 +2044,7 @@
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2061,16 +2055,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>153157</v>
+        <v>35981</v>
       </c>
       <c r="E59">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2081,16 +2075,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D60">
-        <v>67407</v>
+        <v>111774</v>
       </c>
       <c r="E60">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2101,16 +2095,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D61">
-        <v>35981</v>
+        <v>491598</v>
       </c>
       <c r="E61">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2121,16 +2115,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62">
-        <v>462852</v>
+        <v>38928</v>
       </c>
       <c r="E62">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2141,16 +2135,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>112674</v>
+        <v>203442</v>
       </c>
       <c r="E63">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2161,16 +2155,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>39108</v>
+        <v>71711</v>
       </c>
       <c r="E64">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2184,13 +2178,13 @@
         <v>31</v>
       </c>
       <c r="D65">
-        <v>72251</v>
+        <v>5128</v>
       </c>
       <c r="E65">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2204,13 +2198,13 @@
         <v>31</v>
       </c>
       <c r="D66">
-        <v>37962</v>
+        <v>26106</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2221,16 +2215,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67">
-        <v>5164</v>
+        <v>37962</v>
       </c>
       <c r="E67">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2241,16 +2235,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D68">
-        <v>26286</v>
+        <v>97069</v>
       </c>
       <c r="E68">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2264,13 +2258,13 @@
         <v>34</v>
       </c>
       <c r="D69">
-        <v>97429</v>
+        <v>186133</v>
       </c>
       <c r="E69">
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2284,13 +2278,13 @@
         <v>34</v>
       </c>
       <c r="D70">
-        <v>187033</v>
+        <v>72818</v>
       </c>
       <c r="E70">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2301,16 +2295,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D71">
-        <v>73114</v>
+        <v>90483</v>
       </c>
       <c r="E71">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2324,13 +2318,13 @@
         <v>36</v>
       </c>
       <c r="D72">
-        <v>23758</v>
+        <v>23398</v>
       </c>
       <c r="E72">
         <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2344,13 +2338,13 @@
         <v>37</v>
       </c>
       <c r="D73">
-        <v>59464</v>
+        <v>59104</v>
       </c>
       <c r="E73">
         <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2361,7 +2355,7 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D74">
         <v>51534</v>
@@ -2370,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2381,16 +2375,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D75">
-        <v>27170</v>
+        <v>27080</v>
       </c>
       <c r="E75">
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2401,7 +2395,7 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D76">
         <v>1336014</v>
@@ -2410,7 +2404,7 @@
         <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2424,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="D77">
-        <v>38052</v>
+        <v>31570</v>
       </c>
       <c r="E77">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2441,16 +2435,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D78">
-        <v>31570</v>
+        <v>38052</v>
       </c>
       <c r="E78">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2470,7 +2464,7 @@
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2484,13 +2478,13 @@
         <v>43</v>
       </c>
       <c r="D80">
-        <v>72659</v>
+        <v>91089</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2504,13 +2498,13 @@
         <v>43</v>
       </c>
       <c r="D81">
-        <v>91629</v>
+        <v>59941</v>
       </c>
       <c r="E81">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2521,16 +2515,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D82">
-        <v>59941</v>
+        <v>72119</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2541,7 +2535,7 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D83">
         <v>55157</v>
@@ -2550,7 +2544,7 @@
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2561,16 +2555,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D84">
-        <v>5709</v>
+        <v>6449</v>
       </c>
       <c r="E84">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2584,10 +2578,10 @@
         <v>47</v>
       </c>
       <c r="D85">
-        <v>44476</v>
+        <v>5673</v>
       </c>
       <c r="E85">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
         <v>158</v>
@@ -2601,16 +2595,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D86">
-        <v>6503</v>
+        <v>44476</v>
       </c>
       <c r="E86">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2621,16 +2615,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D87">
-        <v>31590</v>
+        <v>31500</v>
       </c>
       <c r="E87">
         <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2650,7 +2644,7 @@
         <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2664,13 +2658,13 @@
         <v>51</v>
       </c>
       <c r="D89">
-        <v>75006</v>
+        <v>74826</v>
       </c>
       <c r="E89">
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2684,13 +2678,13 @@
         <v>54</v>
       </c>
       <c r="D90">
-        <v>6034</v>
+        <v>5980</v>
       </c>
       <c r="E90">
         <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2710,7 +2704,7 @@
         <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2730,7 +2724,7 @@
         <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2741,7 +2735,7 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D93">
         <v>11334</v>
@@ -2750,7 +2744,7 @@
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2770,7 +2764,7 @@
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2784,13 +2778,13 @@
         <v>69</v>
       </c>
       <c r="D95">
-        <v>26018</v>
+        <v>25928</v>
       </c>
       <c r="E95">
         <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2801,7 +2795,7 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D96">
         <v>5947</v>
@@ -2810,7 +2804,7 @@
         <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2821,16 +2815,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D97">
-        <v>666</v>
+        <v>612</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2841,16 +2835,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D98">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2861,16 +2855,16 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D99">
-        <v>1242</v>
+        <v>1062</v>
       </c>
       <c r="E99">
         <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2881,16 +2875,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>5391</v>
+        <v>5301</v>
       </c>
       <c r="E100">
         <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2901,16 +2895,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D101">
-        <v>1813</v>
+        <v>27959</v>
       </c>
       <c r="E101">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2921,16 +2915,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D102">
-        <v>27959</v>
+        <v>1789</v>
       </c>
       <c r="E102">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2941,16 +2935,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103">
-        <v>1789</v>
+        <v>10962</v>
       </c>
       <c r="E103">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2961,16 +2955,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D104">
-        <v>11016</v>
+        <v>30572</v>
       </c>
       <c r="E104">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2981,16 +2975,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105">
-        <v>30932</v>
+        <v>30704</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3001,16 +2995,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D106">
-        <v>30884</v>
+        <v>10204</v>
       </c>
       <c r="E106">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3021,16 +3015,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D107">
-        <v>10384</v>
+        <v>6565</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3044,13 +3038,13 @@
         <v>53</v>
       </c>
       <c r="D108">
-        <v>157311</v>
+        <v>157131</v>
       </c>
       <c r="E108">
         <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="170">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,144 +34,144 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
     <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
   </si>
   <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
   <si>
@@ -193,108 +193,108 @@
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
   </si>
   <si>
     <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
     <t>Фп Береза листья 20x1,5г</t>
   </si>
   <si>
@@ -304,45 +304,45 @@
     <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп Пижма цветки 20х1,5г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
   <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Крушина кора 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
@@ -373,61 +373,106 @@
     <t>2023-05-09</t>
   </si>
   <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
     <t>2022-11-29</t>
   </si>
   <si>
-    <t>2022-12-05</t>
-  </si>
-  <si>
-    <t>2022-12-06</t>
-  </si>
-  <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2022-12-08</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
-  </si>
-  <si>
-    <t>2022-12-12</t>
-  </si>
-  <si>
-    <t>2022-12-13</t>
-  </si>
-  <si>
-    <t>2022-12-14</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2022-12-19</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
     <t>2022-12-28</t>
   </si>
   <si>
-    <t>2022-12-30</t>
+    <t>2023-01-04</t>
   </si>
   <si>
     <t>2023-01-05</t>
@@ -436,100 +481,49 @@
     <t>2023-01-06</t>
   </si>
   <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2023-10-30</t>
-  </si>
-  <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
   </si>
   <si>
     <t>2023-01-11</t>
   </si>
   <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-02-17</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>2023-07-26</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>2023-08-11</t>
-  </si>
-  <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
+    <t>2023-01-31</t>
   </si>
 </sst>
 </file>
@@ -918,10 +912,10 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2">
-        <v>81376</v>
+        <v>81344</v>
       </c>
       <c r="E2">
         <v>199</v>
@@ -938,13 +932,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>3052</v>
+        <v>2141</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>119</v>
@@ -958,13 +952,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1512</v>
+        <v>6454</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>120</v>
@@ -978,16 +972,16 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>7574</v>
+        <v>1400</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1001,10 +995,10 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>3177</v>
+        <v>5631</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>121</v>
@@ -1018,16 +1012,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>6871</v>
+        <v>52581</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1041,10 +1035,10 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>6051</v>
+        <v>44676</v>
       </c>
       <c r="E8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>122</v>
@@ -1061,10 +1055,10 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>49548</v>
+        <v>33278</v>
       </c>
       <c r="E9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>123</v>
@@ -1081,10 +1075,10 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>36512</v>
+        <v>14250</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>124</v>
@@ -1098,16 +1092,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>15776</v>
+        <v>8070</v>
       </c>
       <c r="E11">
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1118,16 +1112,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>61611</v>
+        <v>26054</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1138,16 +1132,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>9161</v>
+        <v>8167</v>
       </c>
       <c r="E13">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1158,16 +1152,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>9106</v>
+        <v>12516</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1181,10 +1175,10 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>29302</v>
+        <v>21241</v>
       </c>
       <c r="E15">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
         <v>126</v>
@@ -1198,16 +1192,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>22627</v>
+        <v>15271</v>
       </c>
       <c r="E16">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1221,10 +1215,10 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>13972</v>
+        <v>14247</v>
       </c>
       <c r="E17">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>127</v>
@@ -1238,16 +1232,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>16713</v>
+        <v>84528</v>
       </c>
       <c r="E18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1258,13 +1252,13 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>14513</v>
+        <v>22782</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
         <v>128</v>
@@ -1281,13 +1275,13 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>95294</v>
-      </c>
-      <c r="E20">
-        <v>32</v>
+        <v>13788</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1301,13 +1295,13 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>9606</v>
+        <v>9480</v>
       </c>
       <c r="E21">
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1318,16 +1312,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>55560</v>
+        <v>52830</v>
       </c>
       <c r="E22">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1338,16 +1332,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>24630</v>
+        <v>33054</v>
       </c>
       <c r="E23">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1358,16 +1352,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>38372</v>
+        <v>12806</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1378,16 +1372,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>16283</v>
+        <v>13834</v>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1398,16 +1392,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>36624</v>
+        <v>35936</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1418,16 +1412,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>19017</v>
+        <v>15009</v>
       </c>
       <c r="E27">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1438,16 +1432,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>13870</v>
+        <v>26958</v>
       </c>
       <c r="E28">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1458,16 +1452,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>15874</v>
-      </c>
-      <c r="E29" t="s">
-        <v>117</v>
+        <v>29218</v>
+      </c>
+      <c r="E29">
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1481,13 +1475,13 @@
         <v>24</v>
       </c>
       <c r="D30">
-        <v>15514</v>
+        <v>18891</v>
       </c>
       <c r="E30">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1498,16 +1492,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>31444</v>
+        <v>28763</v>
       </c>
       <c r="E31">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1527,7 +1521,7 @@
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1541,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="D33">
-        <v>29716</v>
+        <v>24234</v>
       </c>
       <c r="E33">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1558,16 +1552,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>31605</v>
+        <v>26459</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1578,13 +1572,13 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>24738</v>
+        <v>24702</v>
       </c>
       <c r="E35">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
         <v>135</v>
@@ -1598,16 +1592,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>36604</v>
+        <v>36352</v>
       </c>
       <c r="E36">
         <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1621,13 +1615,13 @@
         <v>30</v>
       </c>
       <c r="D37">
-        <v>25262</v>
+        <v>16268</v>
       </c>
       <c r="E37">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1638,13 +1632,13 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>28559</v>
+        <v>12334</v>
       </c>
       <c r="E38">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
         <v>137</v>
@@ -1658,13 +1652,13 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>13314</v>
+        <v>9766</v>
       </c>
       <c r="E39">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
         <v>138</v>
@@ -1678,13 +1672,13 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D40">
-        <v>18657</v>
+        <v>19219</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
         <v>139</v>
@@ -1698,13 +1692,13 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>10018</v>
+        <v>20157</v>
       </c>
       <c r="E41">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
         <v>140</v>
@@ -1718,16 +1712,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>7307</v>
+        <v>33456</v>
       </c>
       <c r="E42">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1738,16 +1732,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43">
-        <v>21165</v>
+        <v>30343</v>
       </c>
       <c r="E43">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1758,13 +1752,13 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44">
-        <v>35556</v>
+        <v>7223</v>
       </c>
       <c r="E44">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
         <v>142</v>
@@ -1781,13 +1775,13 @@
         <v>42</v>
       </c>
       <c r="D45">
-        <v>32345</v>
+        <v>36240</v>
       </c>
       <c r="E45">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1798,16 +1792,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>37318</v>
+        <v>8031</v>
       </c>
       <c r="E46">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1818,16 +1812,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D47">
-        <v>8255</v>
+        <v>42981</v>
       </c>
       <c r="E47">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1838,16 +1832,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D48">
-        <v>44913</v>
+        <v>21026</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1861,13 +1855,13 @@
         <v>20</v>
       </c>
       <c r="D49">
-        <v>3790</v>
+        <v>3770</v>
       </c>
       <c r="E49">
         <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1878,16 +1872,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>14921</v>
+        <v>14985</v>
       </c>
       <c r="E50">
         <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1898,10 +1892,10 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51">
-        <v>8708</v>
+        <v>8468</v>
       </c>
       <c r="E51">
         <v>84</v>
@@ -1927,7 +1921,7 @@
         <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1938,7 +1932,7 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D53">
         <v>7700</v>
@@ -1958,10 +1952,10 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D54">
-        <v>9110</v>
+        <v>9100</v>
       </c>
       <c r="E54">
         <v>1365</v>
@@ -1978,7 +1972,7 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E55">
         <v>115</v>
@@ -1998,13 +1992,13 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>1386</v>
+        <v>828</v>
       </c>
       <c r="E56">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2015,13 +2009,13 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>864</v>
+        <v>1350</v>
       </c>
       <c r="E57">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="F57" t="s">
         <v>149</v>
@@ -2035,16 +2029,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>1638</v>
+        <v>1602</v>
       </c>
       <c r="E58">
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2055,16 +2049,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D59">
-        <v>35981</v>
+        <v>108876</v>
       </c>
       <c r="E59">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2075,16 +2069,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>111774</v>
+        <v>35688</v>
       </c>
       <c r="E60">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2098,13 +2092,13 @@
         <v>27</v>
       </c>
       <c r="D61">
-        <v>491598</v>
+        <v>189546</v>
       </c>
       <c r="E61">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2115,16 +2109,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D62">
-        <v>38928</v>
+        <v>24684</v>
       </c>
       <c r="E62">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2135,16 +2129,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63">
-        <v>203442</v>
+        <v>4822</v>
       </c>
       <c r="E63">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2155,16 +2149,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64">
-        <v>71711</v>
+        <v>509468</v>
       </c>
       <c r="E64">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2178,13 +2172,13 @@
         <v>31</v>
       </c>
       <c r="D65">
-        <v>5128</v>
+        <v>70019</v>
       </c>
       <c r="E65">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2198,13 +2192,13 @@
         <v>31</v>
       </c>
       <c r="D66">
-        <v>26106</v>
+        <v>37224</v>
       </c>
       <c r="E66">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2215,16 +2209,16 @@
         <v>115</v>
       </c>
       <c r="C67">
+        <v>31</v>
+      </c>
+      <c r="D67">
+        <v>172471</v>
+      </c>
+      <c r="E67">
         <v>32</v>
       </c>
-      <c r="D67">
-        <v>37962</v>
-      </c>
-      <c r="E67">
-        <v>30</v>
-      </c>
       <c r="F67" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2235,16 +2229,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>97069</v>
+        <v>92551</v>
       </c>
       <c r="E68">
         <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2255,16 +2249,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D69">
-        <v>186133</v>
+        <v>71090</v>
       </c>
       <c r="E69">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2278,13 +2272,13 @@
         <v>34</v>
       </c>
       <c r="D70">
-        <v>72818</v>
+        <v>24506</v>
       </c>
       <c r="E70">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2298,13 +2292,13 @@
         <v>35</v>
       </c>
       <c r="D71">
-        <v>90483</v>
+        <v>22822</v>
       </c>
       <c r="E71">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2315,16 +2309,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D72">
-        <v>23398</v>
+        <v>89979</v>
       </c>
       <c r="E72">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2335,16 +2329,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D73">
-        <v>59104</v>
+        <v>50346</v>
       </c>
       <c r="E73">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2355,16 +2349,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D74">
-        <v>51534</v>
+        <v>1299546</v>
       </c>
       <c r="E74">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2378,13 +2372,13 @@
         <v>39</v>
       </c>
       <c r="D75">
-        <v>27080</v>
+        <v>30454</v>
       </c>
       <c r="E75">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2395,16 +2389,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D76">
-        <v>1336014</v>
+        <v>69149</v>
       </c>
       <c r="E76">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2415,16 +2409,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D77">
-        <v>31570</v>
+        <v>25902</v>
       </c>
       <c r="E77">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2435,16 +2429,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D78">
-        <v>38052</v>
+        <v>89595</v>
       </c>
       <c r="E78">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2458,13 +2452,13 @@
         <v>42</v>
       </c>
       <c r="D79">
-        <v>26365</v>
+        <v>58159</v>
       </c>
       <c r="E79">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2475,13 +2469,13 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D80">
-        <v>91089</v>
+        <v>37854</v>
       </c>
       <c r="E80">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F80" t="s">
         <v>143</v>
@@ -2495,16 +2489,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D81">
-        <v>59941</v>
+        <v>54293</v>
       </c>
       <c r="E81">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2515,16 +2509,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D82">
-        <v>72119</v>
+        <v>5475</v>
       </c>
       <c r="E82">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2535,16 +2529,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83">
-        <v>55157</v>
+        <v>42208</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2555,16 +2549,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D84">
-        <v>6449</v>
+        <v>58481</v>
       </c>
       <c r="E84">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2578,13 +2572,13 @@
         <v>47</v>
       </c>
       <c r="D85">
-        <v>5673</v>
+        <v>6323</v>
       </c>
       <c r="E85">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2598,13 +2592,13 @@
         <v>47</v>
       </c>
       <c r="D86">
-        <v>44476</v>
+        <v>30582</v>
       </c>
       <c r="E86">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2615,16 +2609,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D87">
-        <v>31500</v>
+        <v>71604</v>
       </c>
       <c r="E87">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2635,16 +2629,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D88">
-        <v>83499</v>
+        <v>82023</v>
       </c>
       <c r="E88">
         <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2655,16 +2649,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D89">
-        <v>74826</v>
+        <v>77945</v>
       </c>
       <c r="E89">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2678,13 +2672,13 @@
         <v>54</v>
       </c>
       <c r="D90">
-        <v>5980</v>
+        <v>5926</v>
       </c>
       <c r="E90">
         <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2695,16 +2689,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D91">
-        <v>49841</v>
+        <v>47897</v>
       </c>
       <c r="E91">
         <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2718,13 +2712,13 @@
         <v>63</v>
       </c>
       <c r="D92">
-        <v>5152</v>
+        <v>5148</v>
       </c>
       <c r="E92">
         <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2735,16 +2729,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D93">
-        <v>11334</v>
+        <v>1494</v>
       </c>
       <c r="E93">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2755,16 +2749,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D94">
-        <v>1512</v>
+        <v>11118</v>
       </c>
       <c r="E94">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2775,16 +2769,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D95">
-        <v>25928</v>
+        <v>25460</v>
       </c>
       <c r="E95">
         <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2795,16 +2789,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D96">
-        <v>5947</v>
-      </c>
-      <c r="E96" t="s">
-        <v>117</v>
+        <v>432</v>
+      </c>
+      <c r="E96">
+        <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2815,16 +2809,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D97">
-        <v>612</v>
-      </c>
-      <c r="E97">
-        <v>100</v>
+        <v>5839</v>
+      </c>
+      <c r="E97" t="s">
+        <v>117</v>
       </c>
       <c r="F97" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2835,16 +2829,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D98">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2855,16 +2849,16 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D99">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="E99">
         <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2875,16 +2869,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D100">
-        <v>5301</v>
+        <v>26537</v>
       </c>
       <c r="E100">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2895,16 +2889,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>27959</v>
+        <v>1627</v>
       </c>
       <c r="E101">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2918,10 +2912,10 @@
         <v>18</v>
       </c>
       <c r="D102">
-        <v>1789</v>
+        <v>10134</v>
       </c>
       <c r="E102">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
         <v>127</v>
@@ -2935,16 +2929,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103">
-        <v>10962</v>
+        <v>10964</v>
       </c>
       <c r="E103">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2955,16 +2949,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D104">
-        <v>30572</v>
+        <v>28130</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2975,16 +2969,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D105">
-        <v>30704</v>
+        <v>29960</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2995,16 +2989,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D106">
-        <v>10204</v>
+        <v>10042</v>
       </c>
       <c r="E106">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3015,16 +3009,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D107">
-        <v>6565</v>
+        <v>6421</v>
       </c>
       <c r="E107">
         <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3035,16 +3029,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D108">
-        <v>157131</v>
+        <v>148743</v>
       </c>
       <c r="E108">
         <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="173">
   <si>
     <t>Линия производства</t>
   </si>
@@ -37,321 +37,321 @@
     <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
   </si>
   <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
     <t>Пустырник трава 50г</t>
   </si>
   <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
+  </si>
+  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Девясил корневища и корни 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Контрактная площадка</t>
   </si>
   <si>
@@ -370,19 +370,10 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-05-09</t>
-  </si>
-  <si>
     <t>2022-12-01</t>
   </si>
   <si>
-    <t>2022-12-05</t>
-  </si>
-  <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2022-12-08</t>
+    <t>2022-12-06</t>
   </si>
   <si>
     <t>2022-12-09</t>
@@ -400,6 +391,9 @@
     <t>2022-12-15</t>
   </si>
   <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
     <t>2022-12-20</t>
   </si>
   <si>
@@ -412,97 +406,109 @@
     <t>2022-12-23</t>
   </si>
   <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
     <t>2022-12-27</t>
   </si>
   <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
     <t>2022-12-29</t>
   </si>
   <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
     <t>2022-12-30</t>
   </si>
   <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
     <t>2023-01-03</t>
   </si>
   <si>
     <t>2023-01-09</t>
   </si>
   <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
   </si>
   <si>
     <t>2023-01-17</t>
   </si>
   <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
   </si>
   <si>
     <t>2023-01-27</t>
   </si>
   <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2022-12-19</t>
-  </si>
-  <si>
-    <t>2023-03-01</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2022-11-29</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
     <t>2023-01-30</t>
   </si>
   <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
+    <t>2023-02-13</t>
   </si>
   <si>
     <t>2023-02-17</t>
@@ -511,19 +517,22 @@
     <t>2023-02-23</t>
   </si>
   <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
   </si>
 </sst>
 </file>
@@ -912,16 +921,16 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c r="D2">
-        <v>81344</v>
+        <v>81024</v>
       </c>
       <c r="E2">
-        <v>199</v>
-      </c>
-      <c r="F2" t="s">
-        <v>118</v>
+        <v>432</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -932,16 +941,16 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>2141</v>
+        <v>1595</v>
       </c>
       <c r="E3">
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -952,16 +961,16 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>6454</v>
+        <v>1358</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -972,13 +981,13 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>1400</v>
+        <v>4875</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>120</v>
@@ -995,13 +1004,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>5631</v>
+        <v>45525</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1012,16 +1021,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>52581</v>
+        <v>39734</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1035,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>44676</v>
+        <v>30240</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1055,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>33278</v>
+        <v>18259</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1072,16 +1081,16 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>14250</v>
+        <v>7650</v>
       </c>
       <c r="E10">
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1092,16 +1101,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>8070</v>
+        <v>22792</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1115,13 +1124,13 @@
         <v>15</v>
       </c>
       <c r="D12">
-        <v>26054</v>
+        <v>13746</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1135,13 +1144,13 @@
         <v>16</v>
       </c>
       <c r="D13">
-        <v>8167</v>
+        <v>14039</v>
       </c>
       <c r="E13">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1155,13 +1164,13 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>12516</v>
+        <v>72572</v>
       </c>
       <c r="E14">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1172,16 +1181,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>21241</v>
+        <v>10314</v>
       </c>
       <c r="E15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1192,16 +1201,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>15271</v>
+        <v>44066</v>
       </c>
       <c r="E16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1212,16 +1221,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>14247</v>
+        <v>19842</v>
       </c>
       <c r="E17">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1232,16 +1241,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>84528</v>
-      </c>
-      <c r="E18">
-        <v>32</v>
+        <v>12220</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1252,16 +1261,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>22782</v>
+        <v>32002</v>
       </c>
       <c r="E19">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1272,16 +1281,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>13788</v>
-      </c>
-      <c r="E20" t="s">
-        <v>117</v>
+        <v>8696</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1295,10 +1304,10 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>9480</v>
+        <v>13645</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -1315,10 +1324,10 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>52830</v>
+        <v>30282</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>128</v>
@@ -1332,16 +1341,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>33054</v>
+        <v>25627</v>
       </c>
       <c r="E23">
         <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1352,16 +1361,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>12806</v>
+        <v>12910</v>
       </c>
       <c r="E24">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1372,16 +1381,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>13834</v>
+        <v>14057</v>
       </c>
       <c r="E25">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1395,10 +1404,10 @@
         <v>22</v>
       </c>
       <c r="D26">
-        <v>35936</v>
+        <v>24592</v>
       </c>
       <c r="E26">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>129</v>
@@ -1412,16 +1421,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>15009</v>
+        <v>10962</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1432,16 +1441,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>26958</v>
+        <v>23211</v>
       </c>
       <c r="E28">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1452,16 +1461,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>29218</v>
+        <v>22736</v>
       </c>
       <c r="E29">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1472,16 +1481,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>18891</v>
+        <v>18177</v>
       </c>
       <c r="E30">
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1492,16 +1501,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>28763</v>
+        <v>14728</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1512,16 +1521,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>11421</v>
+        <v>11158</v>
       </c>
       <c r="E32">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1532,16 +1541,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>24234</v>
+        <v>23666</v>
       </c>
       <c r="E33">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1552,16 +1561,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>26459</v>
+        <v>18743</v>
       </c>
       <c r="E34">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1572,16 +1581,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>24702</v>
+        <v>31804</v>
       </c>
       <c r="E35">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1592,16 +1601,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>36352</v>
+        <v>18533</v>
       </c>
       <c r="E36">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1612,16 +1621,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>16268</v>
+        <v>28406</v>
       </c>
       <c r="E37">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1632,16 +1641,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>12334</v>
+        <v>33950</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1652,16 +1661,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>9766</v>
+        <v>34042</v>
       </c>
       <c r="E39">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1672,16 +1681,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>19219</v>
+        <v>7404</v>
       </c>
       <c r="E40">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1692,16 +1701,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>20157</v>
+        <v>28855</v>
       </c>
       <c r="E41">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1712,16 +1721,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D42">
-        <v>33456</v>
+        <v>9514</v>
       </c>
       <c r="E42">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1732,16 +1741,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>30343</v>
+        <v>7069</v>
       </c>
       <c r="E43">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1752,16 +1761,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>7223</v>
+        <v>20466</v>
       </c>
       <c r="E44">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1772,16 +1781,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D45">
-        <v>36240</v>
+        <v>36567</v>
       </c>
       <c r="E45">
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1792,16 +1801,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D46">
-        <v>8031</v>
+        <v>19605</v>
       </c>
       <c r="E46">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1812,16 +1821,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D47">
-        <v>42981</v>
+        <v>41497</v>
       </c>
       <c r="E47">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1832,16 +1841,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48">
-        <v>21026</v>
+        <v>28796</v>
       </c>
       <c r="E48">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1852,16 +1861,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>3770</v>
+        <v>3440</v>
       </c>
       <c r="E49">
         <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1872,16 +1881,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>14985</v>
+        <v>3006</v>
       </c>
       <c r="E50">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1892,16 +1901,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>8468</v>
+        <v>13935</v>
       </c>
       <c r="E51">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1912,16 +1921,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D52">
-        <v>5590</v>
+        <v>8108</v>
       </c>
       <c r="E52">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1932,16 +1941,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="D53">
-        <v>7700</v>
+        <v>7170</v>
       </c>
       <c r="E53">
-        <v>112</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="F53" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1952,16 +1961,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="D54">
-        <v>9100</v>
+        <v>5450</v>
       </c>
       <c r="E54">
-        <v>1365</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="F54" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1972,13 +1981,16 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="D55">
+        <v>8870</v>
       </c>
       <c r="E55">
-        <v>115</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
+        <v>362</v>
+      </c>
+      <c r="F55" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1989,16 +2001,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D56">
-        <v>828</v>
+        <v>156894</v>
       </c>
       <c r="E56">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2009,16 +2021,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>1350</v>
+        <v>56916</v>
       </c>
       <c r="E57">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2029,16 +2041,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D58">
-        <v>1602</v>
+        <v>4246</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2049,16 +2061,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59">
-        <v>108876</v>
+        <v>80761</v>
       </c>
       <c r="E59">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2069,16 +2081,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>35688</v>
+        <v>306</v>
       </c>
       <c r="E60">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2089,16 +2101,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>189546</v>
+        <v>153949</v>
       </c>
       <c r="E61">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2109,16 +2121,16 @@
         <v>115</v>
       </c>
       <c r="C62">
+        <v>29</v>
+      </c>
+      <c r="D62">
+        <v>64196</v>
+      </c>
+      <c r="E62">
         <v>28</v>
       </c>
-      <c r="D62">
-        <v>24684</v>
-      </c>
-      <c r="E62">
-        <v>29</v>
-      </c>
       <c r="F62" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2129,16 +2141,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>4822</v>
+        <v>34974</v>
       </c>
       <c r="E63">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2149,16 +2161,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>509468</v>
+        <v>82779</v>
       </c>
       <c r="E64">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2169,16 +2181,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D65">
-        <v>70019</v>
+        <v>21076</v>
       </c>
       <c r="E65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2189,16 +2201,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D66">
-        <v>37224</v>
+        <v>1440</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2209,16 +2221,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D67">
-        <v>172471</v>
+        <v>22868</v>
       </c>
       <c r="E67">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2229,16 +2241,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D68">
-        <v>92551</v>
+        <v>75447</v>
       </c>
       <c r="E68">
         <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2249,16 +2261,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69">
-        <v>71090</v>
+        <v>31380</v>
       </c>
       <c r="E69">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2269,16 +2281,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>24506</v>
+        <v>1157922</v>
       </c>
       <c r="E70">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2289,16 +2301,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71">
-        <v>22822</v>
+        <v>131322</v>
       </c>
       <c r="E71">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2309,16 +2321,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D72">
-        <v>89979</v>
+        <v>29086</v>
       </c>
       <c r="E72">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2329,13 +2341,13 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D73">
-        <v>50346</v>
+        <v>44544</v>
       </c>
       <c r="E73">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
         <v>139</v>
@@ -2349,16 +2361,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D74">
-        <v>1299546</v>
+        <v>24858</v>
       </c>
       <c r="E74">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2369,16 +2381,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D75">
-        <v>30454</v>
+        <v>55459</v>
       </c>
       <c r="E75">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2389,16 +2401,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D76">
-        <v>69149</v>
+        <v>458366</v>
       </c>
       <c r="E76">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F76" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2409,16 +2421,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D77">
-        <v>25902</v>
+        <v>47466</v>
       </c>
       <c r="E77">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2429,16 +2441,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D78">
-        <v>89595</v>
+        <v>65063</v>
       </c>
       <c r="E78">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2449,16 +2461,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D79">
-        <v>58159</v>
+        <v>54917</v>
       </c>
       <c r="E79">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2469,16 +2481,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D80">
-        <v>37854</v>
+        <v>5367</v>
       </c>
       <c r="E80">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2492,13 +2504,13 @@
         <v>45</v>
       </c>
       <c r="D81">
-        <v>54293</v>
+        <v>39760</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2509,16 +2521,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82">
-        <v>5475</v>
+        <v>29070</v>
       </c>
       <c r="E82">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2529,16 +2541,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D83">
-        <v>42208</v>
+        <v>39635</v>
       </c>
       <c r="E83">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2549,16 +2561,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D84">
-        <v>58481</v>
+        <v>72779</v>
       </c>
       <c r="E84">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2569,16 +2581,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D85">
-        <v>6323</v>
+        <v>6143</v>
       </c>
       <c r="E85">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2589,16 +2601,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D86">
-        <v>30582</v>
+        <v>51665</v>
       </c>
       <c r="E86">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2609,16 +2621,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D87">
-        <v>71604</v>
+        <v>70611</v>
       </c>
       <c r="E87">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F87" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2632,13 +2644,13 @@
         <v>50</v>
       </c>
       <c r="D88">
-        <v>82023</v>
+        <v>66240</v>
       </c>
       <c r="E88">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2649,16 +2661,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D89">
-        <v>77945</v>
+        <v>5746</v>
       </c>
       <c r="E89">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2669,16 +2681,16 @@
         <v>115</v>
       </c>
       <c r="C90">
+        <v>53</v>
+      </c>
+      <c r="D90">
+        <v>47195</v>
+      </c>
+      <c r="E90">
         <v>54</v>
       </c>
-      <c r="D90">
-        <v>5926</v>
-      </c>
-      <c r="E90">
-        <v>37</v>
-      </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2689,16 +2701,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91">
-        <v>47897</v>
+        <v>4698</v>
       </c>
       <c r="E91">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2709,16 +2721,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D92">
-        <v>5148</v>
+        <v>10650</v>
       </c>
       <c r="E92">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2729,16 +2741,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D93">
-        <v>1494</v>
+        <v>24578</v>
       </c>
       <c r="E93">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2749,16 +2761,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="D94">
-        <v>11118</v>
+        <v>1548</v>
       </c>
       <c r="E94">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2769,16 +2781,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="D95">
-        <v>25460</v>
-      </c>
-      <c r="E95">
-        <v>37</v>
+        <v>5324</v>
+      </c>
+      <c r="E95" t="s">
+        <v>117</v>
       </c>
       <c r="F95" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2789,16 +2801,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D96">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2809,16 +2821,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D97">
-        <v>5839</v>
-      </c>
-      <c r="E97" t="s">
-        <v>117</v>
+        <v>540</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2829,16 +2841,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="D98">
-        <v>594</v>
+        <v>1170</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2849,16 +2861,16 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="D99">
-        <v>1026</v>
+        <v>936</v>
       </c>
       <c r="E99">
-        <v>100</v>
-      </c>
-      <c r="F99" t="s">
-        <v>167</v>
+        <v>68</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2869,16 +2881,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100">
-        <v>26537</v>
+        <v>1249</v>
       </c>
       <c r="E100">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2892,13 +2904,13 @@
         <v>16</v>
       </c>
       <c r="D101">
-        <v>1627</v>
+        <v>10226</v>
       </c>
       <c r="E101">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2909,16 +2921,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D102">
-        <v>10134</v>
+        <v>44123</v>
       </c>
       <c r="E102">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2929,16 +2941,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D103">
-        <v>10964</v>
+        <v>26222</v>
       </c>
       <c r="E103">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2949,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D104">
-        <v>28130</v>
+        <v>28646</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2969,16 +2981,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D105">
-        <v>29960</v>
+        <v>9484</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2992,13 +3004,13 @@
         <v>37</v>
       </c>
       <c r="D106">
-        <v>10042</v>
+        <v>6043</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3009,16 +3021,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D107">
-        <v>6421</v>
+        <v>136881</v>
       </c>
       <c r="E107">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3029,16 +3041,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D108">
-        <v>148743</v>
+        <v>30255</v>
       </c>
       <c r="E108">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -37,138 +37,138 @@
     <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
   </si>
   <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
     <t>Рябина плоды 50г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
   </si>
   <si>
     <t>Дуба кора 75г</t>
   </si>
   <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
   </si>
   <si>
     <t>Шалфей листья 50г</t>
   </si>
   <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
   </si>
   <si>
     <t>Девясил корневища и корни 50г</t>
   </si>
   <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
     <t>Пустырник трава 50г</t>
   </si>
   <si>
@@ -196,108 +196,108 @@
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
     <t>Фп Брусника листья 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
+    <t>Фп Душица трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+    <t>Фп Толокнянка листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Череда трава 20х1,5г</t>
   </si>
   <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
   <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
     <t>Фп Береза листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
@@ -370,13 +370,10 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>2022-12-06</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
   </si>
   <si>
     <t>2022-12-12</t>
@@ -391,6 +388,9 @@
     <t>2022-12-15</t>
   </si>
   <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
     <t>2022-12-19</t>
   </si>
   <si>
@@ -406,133 +406,133 @@
     <t>2022-12-23</t>
   </si>
   <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
     <t>2022-12-27</t>
   </si>
   <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
   </si>
   <si>
     <t>2023-01-06</t>
   </si>
   <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
     <t>2023-01-12</t>
   </si>
   <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
     <t>2023-01-16</t>
   </si>
   <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
   </si>
   <si>
     <t>2023-02-01</t>
   </si>
   <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
     <t>2023-02-02</t>
   </si>
   <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>2023-06-12</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>2023-02-17</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>2023-05-24</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t>2023-07-24</t>
-  </si>
-  <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>2023-03-03</t>
+    <t>2023-03-06</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2">
         <v>81024</v>
@@ -941,10 +941,10 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1595</v>
+        <v>937</v>
       </c>
       <c r="E3">
         <v>37</v>
@@ -964,10 +964,10 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1358</v>
+        <v>3839</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -981,16 +981,16 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>4875</v>
+        <v>1302</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1001,13 +1001,13 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>45525</v>
+        <v>34736</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>120</v>
@@ -1021,13 +1021,13 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>39734</v>
+        <v>24416</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>120</v>
@@ -1041,13 +1041,13 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>30240</v>
+        <v>15417</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>121</v>
@@ -1061,13 +1061,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>18259</v>
+        <v>6894</v>
       </c>
       <c r="E9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>122</v>
@@ -1084,13 +1084,13 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>7650</v>
+        <v>12681</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1101,16 +1101,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>22792</v>
+        <v>66160</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1121,16 +1121,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>13746</v>
+        <v>9180</v>
       </c>
       <c r="E12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1141,16 +1141,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>14039</v>
-      </c>
-      <c r="E13">
-        <v>31</v>
+        <v>11058</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1161,16 +1161,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>72572</v>
+        <v>28306</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1181,16 +1181,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>10314</v>
+        <v>11635</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1201,16 +1201,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>44066</v>
+        <v>40944</v>
       </c>
       <c r="E16">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1221,16 +1221,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>19842</v>
+        <v>18666</v>
       </c>
       <c r="E17">
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1241,16 +1241,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>12220</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
+        <v>7940</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1264,13 +1264,13 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>32002</v>
+        <v>11720</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1284,13 +1284,13 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>8696</v>
+        <v>22828</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1301,16 +1301,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>13645</v>
+        <v>28392</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1321,16 +1321,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>30282</v>
+        <v>24143</v>
       </c>
       <c r="E22">
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1341,16 +1341,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>25627</v>
+        <v>21181</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1361,16 +1361,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>12910</v>
+        <v>12656</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1381,16 +1381,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>14057</v>
+        <v>10780</v>
       </c>
       <c r="E25">
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1401,16 +1401,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>24592</v>
+        <v>21112</v>
       </c>
       <c r="E26">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1421,16 +1421,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>10962</v>
+        <v>22028</v>
       </c>
       <c r="E27">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1441,16 +1441,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>23211</v>
+        <v>16903</v>
       </c>
       <c r="E28">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1461,16 +1461,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>22736</v>
+        <v>15635</v>
       </c>
       <c r="E29">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1481,16 +1481,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>18177</v>
+        <v>10304</v>
       </c>
       <c r="E30">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1501,16 +1501,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>14728</v>
+        <v>106887</v>
       </c>
       <c r="E31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1521,16 +1521,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>11158</v>
+        <v>22630</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1544,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>23666</v>
+        <v>16741</v>
       </c>
       <c r="E33">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1561,16 +1561,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>18743</v>
+        <v>30110</v>
       </c>
       <c r="E34">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1581,16 +1581,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>31804</v>
+        <v>27734</v>
       </c>
       <c r="E35">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1601,16 +1601,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>18533</v>
+        <v>32046</v>
       </c>
       <c r="E36">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1621,16 +1621,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>28406</v>
+        <v>32236</v>
       </c>
       <c r="E37">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1641,16 +1641,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>33950</v>
+        <v>7012</v>
       </c>
       <c r="E38">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1664,13 +1664,13 @@
         <v>40</v>
       </c>
       <c r="D39">
-        <v>34042</v>
+        <v>44016</v>
       </c>
       <c r="E39">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1684,13 +1684,13 @@
         <v>42</v>
       </c>
       <c r="D40">
-        <v>7404</v>
+        <v>26741</v>
       </c>
       <c r="E40">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1701,16 +1701,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>28855</v>
+        <v>6579</v>
       </c>
       <c r="E41">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1721,16 +1721,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42">
-        <v>9514</v>
+        <v>9332</v>
       </c>
       <c r="E42">
         <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1741,16 +1741,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D43">
-        <v>7069</v>
+        <v>18331</v>
       </c>
       <c r="E43">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1764,7 +1764,7 @@
         <v>50</v>
       </c>
       <c r="D44">
-        <v>20466</v>
+        <v>20284</v>
       </c>
       <c r="E44">
         <v>31</v>
@@ -1781,16 +1781,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45">
-        <v>36567</v>
+        <v>38249</v>
       </c>
       <c r="E45">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1801,16 +1801,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46">
-        <v>19605</v>
+        <v>36175</v>
       </c>
       <c r="E46">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1824,13 +1824,13 @@
         <v>53</v>
       </c>
       <c r="D47">
-        <v>41497</v>
+        <v>27111</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1841,16 +1841,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48">
-        <v>28796</v>
+        <v>28152</v>
       </c>
       <c r="E48">
         <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1861,16 +1861,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>3440</v>
+        <v>3180</v>
       </c>
       <c r="E49">
         <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1884,13 +1884,13 @@
         <v>22</v>
       </c>
       <c r="D50">
-        <v>3006</v>
+        <v>2936</v>
       </c>
       <c r="E50">
         <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1901,16 +1901,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>13935</v>
+        <v>11565</v>
       </c>
       <c r="E51">
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1921,10 +1921,10 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>8108</v>
+        <v>7718</v>
       </c>
       <c r="E52">
         <v>78</v>
@@ -1941,7 +1941,7 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D53">
         <v>7170</v>
@@ -1950,7 +1950,7 @@
         <v>237</v>
       </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1964,13 +1964,13 @@
         <v>143</v>
       </c>
       <c r="D54">
-        <v>5450</v>
+        <v>5330</v>
       </c>
       <c r="E54">
         <v>123</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1981,7 +1981,7 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D55">
         <v>8870</v>
@@ -1990,7 +1990,7 @@
         <v>362</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2001,10 +2001,10 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>156894</v>
+        <v>145482</v>
       </c>
       <c r="E56">
         <v>28</v>
@@ -2021,16 +2021,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D57">
-        <v>56916</v>
+        <v>3706</v>
       </c>
       <c r="E57">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2041,16 +2041,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>4246</v>
+        <v>69619</v>
       </c>
       <c r="E58">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2061,16 +2061,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D59">
-        <v>80761</v>
+        <v>133213</v>
       </c>
       <c r="E59">
         <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2081,16 +2081,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="E60">
         <v>70</v>
       </c>
       <c r="F60" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2101,16 +2101,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61">
-        <v>153949</v>
+        <v>17944</v>
       </c>
       <c r="E61">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2121,16 +2121,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62">
-        <v>64196</v>
+        <v>61082</v>
       </c>
       <c r="E62">
         <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2144,13 +2144,13 @@
         <v>30</v>
       </c>
       <c r="D63">
-        <v>34974</v>
+        <v>33876</v>
       </c>
       <c r="E63">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2161,16 +2161,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D64">
-        <v>82779</v>
+        <v>76929</v>
       </c>
       <c r="E64">
         <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2181,16 +2181,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>21076</v>
+        <v>1368</v>
       </c>
       <c r="E65">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2201,16 +2201,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D66">
-        <v>1440</v>
+        <v>68337</v>
       </c>
       <c r="E66">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2221,16 +2221,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D67">
-        <v>22868</v>
+        <v>28392</v>
       </c>
       <c r="E67">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2241,16 +2241,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>75447</v>
+        <v>20978</v>
       </c>
       <c r="E68">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2264,13 +2264,13 @@
         <v>34</v>
       </c>
       <c r="D69">
-        <v>31380</v>
+        <v>1100034</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2281,16 +2281,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>1157922</v>
+        <v>123870</v>
       </c>
       <c r="E70">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2304,13 +2304,13 @@
         <v>36</v>
       </c>
       <c r="D71">
-        <v>131322</v>
+        <v>26782</v>
       </c>
       <c r="E71">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2321,16 +2321,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D72">
-        <v>29086</v>
+        <v>23004</v>
       </c>
       <c r="E72">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2341,13 +2341,13 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D73">
-        <v>44544</v>
+        <v>50653</v>
       </c>
       <c r="E73">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
         <v>139</v>
@@ -2361,16 +2361,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D74">
-        <v>24858</v>
+        <v>42366</v>
       </c>
       <c r="E74">
         <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2381,16 +2381,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D75">
-        <v>55459</v>
+        <v>428216</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F75" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2401,16 +2401,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D76">
-        <v>458366</v>
+        <v>52073</v>
       </c>
       <c r="E76">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2421,16 +2421,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77">
-        <v>47466</v>
+        <v>45018</v>
       </c>
       <c r="E77">
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2441,16 +2441,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D78">
-        <v>65063</v>
+        <v>83214</v>
       </c>
       <c r="E78">
         <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2461,16 +2461,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79">
-        <v>54917</v>
+        <v>26730</v>
       </c>
       <c r="E79">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2481,13 +2481,13 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D80">
-        <v>5367</v>
+        <v>64055</v>
       </c>
       <c r="E80">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
         <v>142</v>
@@ -2501,10 +2501,10 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D81">
-        <v>39760</v>
+        <v>38032</v>
       </c>
       <c r="E81">
         <v>26</v>
@@ -2521,13 +2521,13 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D82">
-        <v>29070</v>
+        <v>5043</v>
       </c>
       <c r="E82">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
         <v>143</v>
@@ -2541,10 +2541,10 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D83">
-        <v>39635</v>
+        <v>37601</v>
       </c>
       <c r="E83">
         <v>28</v>
@@ -2561,16 +2561,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D84">
-        <v>72779</v>
+        <v>5585</v>
       </c>
       <c r="E84">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2581,16 +2581,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D85">
-        <v>6143</v>
+        <v>48587</v>
       </c>
       <c r="E85">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2601,16 +2601,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D86">
-        <v>51665</v>
+        <v>65985</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2621,16 +2621,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D87">
-        <v>70611</v>
+        <v>70655</v>
       </c>
       <c r="E87">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2641,16 +2641,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D88">
-        <v>66240</v>
+        <v>63360</v>
       </c>
       <c r="E88">
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2661,16 +2661,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D89">
-        <v>5746</v>
+        <v>44891</v>
       </c>
       <c r="E89">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F89" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2681,16 +2681,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D90">
-        <v>47195</v>
+        <v>5584</v>
       </c>
       <c r="E90">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2701,16 +2701,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D91">
-        <v>4698</v>
+        <v>4500</v>
       </c>
       <c r="E91">
         <v>47</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2721,16 +2721,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D92">
-        <v>10650</v>
+        <v>10290</v>
       </c>
       <c r="E92">
         <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2741,16 +2741,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D93">
-        <v>24578</v>
+        <v>23228</v>
       </c>
       <c r="E93">
         <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2761,16 +2761,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D94">
-        <v>1548</v>
+        <v>1530</v>
       </c>
       <c r="E94">
         <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2781,16 +2781,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D95">
-        <v>5324</v>
+        <v>5216</v>
       </c>
       <c r="E95" t="s">
         <v>117</v>
       </c>
       <c r="F95" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2801,7 +2801,7 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D96">
         <v>378</v>
@@ -2810,7 +2810,7 @@
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2821,16 +2821,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D97">
-        <v>540</v>
+        <v>432</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2841,16 +2841,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D98">
-        <v>1170</v>
+        <v>1098</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2861,7 +2861,7 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D99">
         <v>936</v>
@@ -2881,10 +2881,10 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100">
-        <v>1249</v>
+        <v>1213</v>
       </c>
       <c r="E100">
         <v>51</v>
@@ -2901,16 +2901,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D101">
-        <v>10226</v>
+        <v>8318</v>
       </c>
       <c r="E101">
         <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2921,16 +2921,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D102">
-        <v>44123</v>
+        <v>40127</v>
       </c>
       <c r="E102">
         <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2941,16 +2941,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D103">
-        <v>26222</v>
+        <v>20822</v>
       </c>
       <c r="E103">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D104">
-        <v>28646</v>
+        <v>25406</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2981,16 +2981,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D105">
-        <v>9484</v>
+        <v>5305</v>
       </c>
       <c r="E105">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3001,16 +3001,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D106">
-        <v>6043</v>
+        <v>8980</v>
       </c>
       <c r="E106">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3021,16 +3021,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D107">
-        <v>136881</v>
+        <v>127809</v>
       </c>
       <c r="E107">
         <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3041,10 +3041,10 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D108">
-        <v>30255</v>
+        <v>29913</v>
       </c>
       <c r="E108">
         <v>41</v>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,156 +34,156 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
     <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
     <t>Бессмертник песчаный цветки 30г</t>
   </si>
   <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
   </si>
   <si>
     <t>Ламинарии слоевища (морская капуста) 100г</t>
   </si>
   <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
+    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
   <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
@@ -193,135 +193,135 @@
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
   <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
@@ -331,15 +331,15 @@
     <t>Фп Крушина кора 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
@@ -370,169 +370,169 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-11-29</t>
+    <t>2022-12-07</t>
   </si>
   <si>
     <t>2022-12-08</t>
   </si>
   <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
     <t>2022-12-12</t>
   </si>
   <si>
     <t>2022-12-13</t>
   </si>
   <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
     <t>2022-12-14</t>
   </si>
   <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2022-12-19</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-06-07</t>
-  </si>
-  <si>
-    <t>2023-06-14</t>
-  </si>
-  <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-05-25</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t>2023-07-24</t>
-  </si>
-  <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-03-06</t>
+    <t>2023-03-03</t>
   </si>
 </sst>
 </file>
@@ -921,10 +921,10 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2">
-        <v>81024</v>
+        <v>80864</v>
       </c>
       <c r="E2">
         <v>432</v>
@@ -941,13 +941,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>937</v>
+        <v>2831</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -961,13 +961,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>3839</v>
+        <v>1078</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -984,13 +984,13 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>1302</v>
+        <v>30704</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1001,16 +1001,16 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>34736</v>
+        <v>23744</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1024,13 +1024,13 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>24416</v>
+        <v>5886</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1041,16 +1041,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>15417</v>
+        <v>12037</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1061,16 +1061,16 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>6894</v>
+        <v>64928</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1081,16 +1081,16 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>12681</v>
+        <v>25282</v>
       </c>
       <c r="E10">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1104,13 +1104,13 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>66160</v>
+        <v>10403</v>
       </c>
       <c r="E11">
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1124,13 +1124,13 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>9180</v>
+        <v>16272</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1141,10 +1141,10 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>11058</v>
+        <v>9826</v>
       </c>
       <c r="E13" t="s">
         <v>117</v>
@@ -1161,13 +1161,13 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>28306</v>
+        <v>40496</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>126</v>
@@ -1184,13 +1184,13 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>11635</v>
+        <v>24360</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1204,13 +1204,13 @@
         <v>17</v>
       </c>
       <c r="D16">
-        <v>40944</v>
+        <v>7380</v>
       </c>
       <c r="E16">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1224,13 +1224,13 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>18666</v>
+        <v>22127</v>
       </c>
       <c r="E17">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1244,13 +1244,13 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>7940</v>
+        <v>11160</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1264,13 +1264,13 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>11720</v>
+        <v>21596</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1284,13 +1284,13 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>22828</v>
+        <v>11088</v>
       </c>
       <c r="E20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1301,16 +1301,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>28392</v>
+        <v>18858</v>
       </c>
       <c r="E21">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1321,16 +1321,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>24143</v>
+        <v>20733</v>
       </c>
       <c r="E22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1341,16 +1341,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>21181</v>
+        <v>9884</v>
       </c>
       <c r="E23">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1361,16 +1361,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>12656</v>
+        <v>8736</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1384,13 +1384,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>10780</v>
+        <v>20460</v>
       </c>
       <c r="E25">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1401,16 +1401,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>21112</v>
+        <v>15699</v>
       </c>
       <c r="E26">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1421,16 +1421,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>22028</v>
+        <v>15411</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1441,16 +1441,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>16903</v>
+        <v>7055</v>
       </c>
       <c r="E28">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1461,16 +1461,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>15635</v>
+        <v>32606</v>
       </c>
       <c r="E29">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1481,16 +1481,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>10304</v>
+        <v>15509</v>
       </c>
       <c r="E30">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1501,16 +1501,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>106887</v>
+        <v>101847</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1524,13 +1524,13 @@
         <v>32</v>
       </c>
       <c r="D32">
-        <v>22630</v>
+        <v>21902</v>
       </c>
       <c r="E32">
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1541,16 +1541,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>16741</v>
+        <v>28878</v>
       </c>
       <c r="E33">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1564,13 +1564,13 @@
         <v>35</v>
       </c>
       <c r="D34">
-        <v>30110</v>
+        <v>6228</v>
       </c>
       <c r="E34">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1581,16 +1581,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>27734</v>
+        <v>26726</v>
       </c>
       <c r="E35">
         <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1604,13 +1604,13 @@
         <v>37</v>
       </c>
       <c r="D36">
-        <v>32046</v>
+        <v>30912</v>
       </c>
       <c r="E36">
         <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1624,13 +1624,13 @@
         <v>38</v>
       </c>
       <c r="D37">
-        <v>32236</v>
+        <v>24277</v>
       </c>
       <c r="E37">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1641,16 +1641,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>7012</v>
+        <v>32124</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1661,16 +1661,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>44016</v>
+        <v>42434</v>
       </c>
       <c r="E39">
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1681,16 +1681,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>26741</v>
+        <v>6019</v>
       </c>
       <c r="E40">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1701,16 +1701,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>6579</v>
+        <v>8324</v>
       </c>
       <c r="E41">
         <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1721,16 +1721,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>9332</v>
+        <v>37017</v>
       </c>
       <c r="E42">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1741,16 +1741,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43">
-        <v>18331</v>
+        <v>34719</v>
       </c>
       <c r="E43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1761,16 +1761,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44">
-        <v>20284</v>
+        <v>18331</v>
       </c>
       <c r="E44">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1781,16 +1781,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>38249</v>
+        <v>25095</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1804,13 +1804,13 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>36175</v>
+        <v>26920</v>
       </c>
       <c r="E46">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1821,16 +1821,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D47">
-        <v>27111</v>
+        <v>20284</v>
       </c>
       <c r="E47">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1841,16 +1841,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>28152</v>
+        <v>23446</v>
       </c>
       <c r="E48">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1864,13 +1864,13 @@
         <v>15</v>
       </c>
       <c r="D49">
-        <v>3180</v>
+        <v>2006</v>
       </c>
       <c r="E49">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1881,16 +1881,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>2936</v>
+        <v>4680</v>
       </c>
       <c r="E50">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1901,16 +1901,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D51">
-        <v>11565</v>
+        <v>6838</v>
       </c>
       <c r="E51">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1921,16 +1921,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>7718</v>
+        <v>20672</v>
       </c>
       <c r="E52">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1941,16 +1941,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D53">
-        <v>7170</v>
+        <v>7090</v>
       </c>
       <c r="E53">
         <v>237</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1961,16 +1961,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54">
-        <v>5330</v>
+        <v>5200</v>
       </c>
       <c r="E54">
         <v>123</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1981,16 +1981,16 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D55">
-        <v>8870</v>
+        <v>8790</v>
       </c>
       <c r="E55">
         <v>362</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2001,16 +2001,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>145482</v>
+        <v>2662</v>
       </c>
       <c r="E56">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2021,16 +2021,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>3706</v>
+        <v>138102</v>
       </c>
       <c r="E57">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2041,16 +2041,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>69619</v>
+        <v>65443</v>
       </c>
       <c r="E58">
         <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2064,13 +2064,13 @@
         <v>24</v>
       </c>
       <c r="D59">
-        <v>133213</v>
+        <v>129901</v>
       </c>
       <c r="E59">
         <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2081,16 +2081,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60">
-        <v>288</v>
+        <v>16936</v>
       </c>
       <c r="E60">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2101,16 +2101,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61">
-        <v>17944</v>
+        <v>59210</v>
       </c>
       <c r="E61">
         <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2124,13 +2124,13 @@
         <v>28</v>
       </c>
       <c r="D62">
-        <v>61082</v>
+        <v>31302</v>
       </c>
       <c r="E62">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2144,13 +2144,13 @@
         <v>30</v>
       </c>
       <c r="D63">
-        <v>33876</v>
+        <v>75921</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2164,13 +2164,13 @@
         <v>30</v>
       </c>
       <c r="D64">
-        <v>76929</v>
+        <v>27384</v>
       </c>
       <c r="E64">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2190,7 +2190,7 @@
         <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2204,13 +2204,13 @@
         <v>31</v>
       </c>
       <c r="D66">
-        <v>68337</v>
+        <v>68193</v>
       </c>
       <c r="E66">
         <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2221,16 +2221,16 @@
         <v>115</v>
       </c>
       <c r="C67">
+        <v>32</v>
+      </c>
+      <c r="D67">
+        <v>1038114</v>
+      </c>
+      <c r="E67">
         <v>31</v>
       </c>
-      <c r="D67">
-        <v>28392</v>
-      </c>
-      <c r="E67">
-        <v>30</v>
-      </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2241,16 +2241,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68">
-        <v>20978</v>
+        <v>20924</v>
       </c>
       <c r="E68">
         <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2264,13 +2264,13 @@
         <v>34</v>
       </c>
       <c r="D69">
-        <v>1100034</v>
+        <v>25468</v>
       </c>
       <c r="E69">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2281,16 +2281,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D70">
-        <v>123870</v>
+        <v>22428</v>
       </c>
       <c r="E70">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2301,16 +2301,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D71">
-        <v>26782</v>
+        <v>49429</v>
       </c>
       <c r="E71">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2321,16 +2321,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D72">
-        <v>23004</v>
+        <v>41880</v>
       </c>
       <c r="E72">
         <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2341,16 +2341,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D73">
-        <v>50653</v>
+        <v>24714</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2361,16 +2361,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D74">
-        <v>42366</v>
+        <v>59591</v>
       </c>
       <c r="E74">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2381,16 +2381,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D75">
-        <v>428216</v>
+        <v>5009</v>
       </c>
       <c r="E75">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2401,16 +2401,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D76">
-        <v>52073</v>
+        <v>43506</v>
       </c>
       <c r="E76">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2424,13 +2424,13 @@
         <v>42</v>
       </c>
       <c r="D77">
-        <v>45018</v>
+        <v>4755</v>
       </c>
       <c r="E77">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2441,16 +2441,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78">
-        <v>83214</v>
+        <v>52073</v>
       </c>
       <c r="E78">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2461,16 +2461,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D79">
-        <v>26730</v>
+        <v>37312</v>
       </c>
       <c r="E79">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2484,13 +2484,13 @@
         <v>43</v>
       </c>
       <c r="D80">
-        <v>64055</v>
+        <v>82206</v>
       </c>
       <c r="E80">
         <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2504,13 +2504,13 @@
         <v>43</v>
       </c>
       <c r="D81">
-        <v>38032</v>
+        <v>44555</v>
       </c>
       <c r="E81">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2521,16 +2521,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D82">
-        <v>5043</v>
+        <v>35999</v>
       </c>
       <c r="E82">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2544,13 +2544,13 @@
         <v>44</v>
       </c>
       <c r="D83">
-        <v>37601</v>
+        <v>66137</v>
       </c>
       <c r="E83">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2561,16 +2561,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D84">
-        <v>5585</v>
+        <v>153366</v>
       </c>
       <c r="E84">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2581,16 +2581,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D85">
-        <v>48587</v>
+        <v>64113</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F85" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2604,13 +2604,13 @@
         <v>46</v>
       </c>
       <c r="D86">
-        <v>65985</v>
+        <v>515102</v>
       </c>
       <c r="E86">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F86" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2624,13 +2624,13 @@
         <v>46</v>
       </c>
       <c r="D87">
-        <v>70655</v>
+        <v>60786</v>
       </c>
       <c r="E87">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2641,16 +2641,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D88">
-        <v>63360</v>
+        <v>42083</v>
       </c>
       <c r="E88">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F88" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2664,13 +2664,13 @@
         <v>51</v>
       </c>
       <c r="D89">
-        <v>44891</v>
+        <v>5440</v>
       </c>
       <c r="E89">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2681,16 +2681,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D90">
-        <v>5584</v>
+        <v>4176</v>
       </c>
       <c r="E90">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2701,16 +2701,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D91">
-        <v>4500</v>
+        <v>22796</v>
       </c>
       <c r="E91">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2730,7 +2730,7 @@
         <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2741,16 +2741,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="D93">
-        <v>23228</v>
+        <v>1530</v>
       </c>
       <c r="E93">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2761,16 +2761,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D94">
-        <v>1530</v>
-      </c>
-      <c r="E94">
-        <v>61</v>
+        <v>4496</v>
+      </c>
+      <c r="E94" t="s">
+        <v>117</v>
       </c>
       <c r="F94" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2781,16 +2781,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D95">
-        <v>5216</v>
-      </c>
-      <c r="E95" t="s">
-        <v>117</v>
+        <v>270</v>
+      </c>
+      <c r="E95">
+        <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2801,7 +2801,7 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D96">
         <v>378</v>
@@ -2810,7 +2810,7 @@
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2821,16 +2821,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D97">
-        <v>432</v>
+        <v>1080</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2841,16 +2841,13 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>232</v>
-      </c>
-      <c r="D98">
-        <v>1098</v>
+        <v>258</v>
       </c>
       <c r="E98">
-        <v>100</v>
-      </c>
-      <c r="F98" t="s">
-        <v>168</v>
+        <v>70</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2861,10 +2858,10 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D99">
-        <v>936</v>
+        <v>774</v>
       </c>
       <c r="E99">
         <v>68</v>
@@ -2881,16 +2878,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D100">
-        <v>1213</v>
+        <v>637</v>
       </c>
       <c r="E100">
         <v>51</v>
       </c>
       <c r="F100" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2901,16 +2898,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D101">
-        <v>8318</v>
+        <v>7202</v>
       </c>
       <c r="E101">
         <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2921,16 +2918,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D102">
-        <v>40127</v>
+        <v>20390</v>
       </c>
       <c r="E102">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2941,16 +2938,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D103">
-        <v>20822</v>
+        <v>24632</v>
       </c>
       <c r="E103">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2964,13 +2961,13 @@
         <v>31</v>
       </c>
       <c r="D104">
-        <v>25406</v>
+        <v>55121</v>
       </c>
       <c r="E104">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2984,13 +2981,13 @@
         <v>33</v>
       </c>
       <c r="D105">
-        <v>5305</v>
+        <v>5269</v>
       </c>
       <c r="E105">
         <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3010,7 +3007,7 @@
         <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3024,13 +3021,13 @@
         <v>49</v>
       </c>
       <c r="D107">
-        <v>127809</v>
+        <v>127377</v>
       </c>
       <c r="E107">
         <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3041,10 +3038,10 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D108">
-        <v>29913</v>
+        <v>29139</v>
       </c>
       <c r="E108">
         <v>41</v>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="171">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,144 +34,144 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
     <t>Аир корневища 75г</t>
   </si>
   <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
     <t>Рябина плоды 50г</t>
   </si>
   <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
@@ -205,99 +205,99 @@
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
   <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
   </si>
   <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Подорожник листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
   <si>
@@ -307,6 +307,9 @@
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
@@ -319,36 +322,33 @@
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Бадан корневища 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Девясил корневища и корни 20х1,5г</t>
   </si>
   <si>
@@ -370,30 +370,18 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2022-12-08</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
-  </si>
-  <si>
-    <t>2022-12-12</t>
-  </si>
-  <si>
     <t>2022-12-13</t>
   </si>
   <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
     <t>2022-12-15</t>
   </si>
   <si>
     <t>2022-12-16</t>
   </si>
   <si>
-    <t>2022-12-19</t>
-  </si>
-  <si>
     <t>2022-12-20</t>
   </si>
   <si>
@@ -412,127 +400,133 @@
     <t>2022-12-27</t>
   </si>
   <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>2023-06-23</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2022-12-28</t>
   </si>
   <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-06-13</t>
-  </si>
-  <si>
-    <t>2023-06-14</t>
-  </si>
-  <si>
-    <t>2023-11-22</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-05-26</t>
-  </si>
-  <si>
-    <t>2023-05-30</t>
-  </si>
-  <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
-    <t>2023-07-24</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>2022-12-14</t>
-  </si>
-  <si>
-    <t>2023-03-03</t>
+    <t>2023-02-22</t>
   </si>
 </sst>
 </file>
@@ -921,10 +915,10 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D2">
-        <v>80864</v>
+        <v>80768</v>
       </c>
       <c r="E2">
         <v>432</v>
@@ -941,13 +935,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2831</v>
+        <v>20338</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -961,13 +955,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1078</v>
+        <v>16728</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -981,13 +975,13 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>30704</v>
+        <v>9937</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>120</v>
@@ -1001,16 +995,16 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>23744</v>
+        <v>6876</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1021,16 +1015,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>5886</v>
+        <v>17444</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1041,16 +1035,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>12037</v>
-      </c>
-      <c r="E8">
-        <v>31</v>
+        <v>7544</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1064,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>64928</v>
+        <v>5980</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1081,16 +1075,16 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>25282</v>
+        <v>9661</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1104,13 +1098,13 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>10403</v>
+        <v>18557</v>
       </c>
       <c r="E11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1121,16 +1115,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>16272</v>
+        <v>13440</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1144,13 +1138,13 @@
         <v>16</v>
       </c>
       <c r="D13">
-        <v>9826</v>
-      </c>
-      <c r="E13" t="s">
-        <v>117</v>
+        <v>15420</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1164,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>40496</v>
+        <v>8638</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1181,16 +1175,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>24360</v>
+        <v>7154</v>
       </c>
       <c r="E15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1204,13 +1198,13 @@
         <v>17</v>
       </c>
       <c r="D16">
-        <v>7380</v>
+        <v>18796</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1224,13 +1218,13 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>22127</v>
+        <v>17107</v>
       </c>
       <c r="E17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1241,16 +1235,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>11160</v>
+        <v>12815</v>
       </c>
       <c r="E18">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1261,16 +1255,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>21596</v>
+        <v>12681</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1281,16 +1275,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>11088</v>
+        <v>17010</v>
       </c>
       <c r="E20">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1301,16 +1295,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>18858</v>
+        <v>86922</v>
       </c>
       <c r="E21">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1321,16 +1315,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>20733</v>
+        <v>8890</v>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1341,16 +1335,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>9884</v>
+        <v>17800</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1361,16 +1355,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>8736</v>
+        <v>8484</v>
       </c>
       <c r="E24">
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1381,16 +1375,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>20460</v>
+        <v>24343</v>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1404,13 +1398,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>15699</v>
+        <v>12905</v>
       </c>
       <c r="E26">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1421,16 +1415,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>15411</v>
+        <v>28756</v>
       </c>
       <c r="E27">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1441,16 +1435,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>7055</v>
+        <v>87587</v>
       </c>
       <c r="E28">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1461,16 +1455,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>32606</v>
+        <v>23698</v>
       </c>
       <c r="E29">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1481,16 +1475,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>15509</v>
+        <v>17934</v>
       </c>
       <c r="E30">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1501,16 +1495,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>101847</v>
+        <v>13096</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1521,16 +1515,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>21902</v>
+        <v>7055</v>
       </c>
       <c r="E32">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1541,16 +1535,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>28878</v>
+        <v>71553</v>
       </c>
       <c r="E33">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1561,16 +1555,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>6228</v>
+        <v>35658</v>
       </c>
       <c r="E34">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1581,16 +1575,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>26726</v>
+        <v>5626</v>
       </c>
       <c r="E35">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1601,16 +1595,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>30912</v>
+        <v>29380</v>
       </c>
       <c r="E36">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1621,16 +1615,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>24277</v>
+        <v>7414</v>
       </c>
       <c r="E37">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1641,16 +1635,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>32124</v>
+        <v>67958</v>
       </c>
       <c r="E38">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1661,16 +1655,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>42434</v>
+        <v>5921</v>
       </c>
       <c r="E39">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1681,16 +1675,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>6019</v>
+        <v>29455</v>
       </c>
       <c r="E40">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1701,16 +1695,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>8324</v>
+        <v>15167</v>
       </c>
       <c r="E41">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1721,16 +1715,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D42">
-        <v>37017</v>
+        <v>30552</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1741,16 +1735,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D43">
-        <v>34719</v>
+        <v>21670</v>
       </c>
       <c r="E43">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1761,16 +1755,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D44">
-        <v>18331</v>
+        <v>18534</v>
       </c>
       <c r="E44">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1781,16 +1775,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D45">
-        <v>25095</v>
+        <v>24736</v>
       </c>
       <c r="E45">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1801,16 +1795,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46">
-        <v>26920</v>
+        <v>35323</v>
       </c>
       <c r="E46">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1821,16 +1815,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>20284</v>
+        <v>22031</v>
       </c>
       <c r="E47">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1841,16 +1835,16 @@
         <v>113</v>
       </c>
       <c r="C48">
+        <v>74</v>
+      </c>
+      <c r="D48">
+        <v>5824</v>
+      </c>
+      <c r="E48">
         <v>51</v>
       </c>
-      <c r="D48">
-        <v>23446</v>
-      </c>
-      <c r="E48">
-        <v>40</v>
-      </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1861,16 +1855,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>2006</v>
+        <v>2676</v>
       </c>
       <c r="E49">
         <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1881,16 +1875,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>4680</v>
+        <v>4060</v>
       </c>
       <c r="E50">
         <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1901,16 +1895,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D51">
-        <v>6838</v>
+        <v>5918</v>
       </c>
       <c r="E51">
         <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1921,16 +1915,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D52">
-        <v>20672</v>
+        <v>18492</v>
       </c>
       <c r="E52">
         <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1944,13 +1938,13 @@
         <v>141</v>
       </c>
       <c r="D53">
-        <v>7090</v>
+        <v>5030</v>
       </c>
       <c r="E53">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1961,16 +1955,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D54">
-        <v>5200</v>
+        <v>6900</v>
       </c>
       <c r="E54">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1981,16 +1975,16 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D55">
-        <v>8790</v>
+        <v>8740</v>
       </c>
       <c r="E55">
         <v>362</v>
       </c>
-      <c r="F55" t="s">
-        <v>153</v>
+      <c r="F55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2001,16 +1995,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56">
-        <v>2662</v>
+        <v>2464</v>
       </c>
       <c r="E56">
         <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2021,16 +2015,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>138102</v>
+        <v>116214</v>
       </c>
       <c r="E57">
         <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2041,16 +2035,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>65443</v>
+        <v>53927</v>
       </c>
       <c r="E58">
         <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2061,16 +2055,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>129901</v>
+        <v>106501</v>
       </c>
       <c r="E59">
         <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2081,16 +2075,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>16936</v>
+        <v>47096</v>
       </c>
       <c r="E60">
         <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2101,16 +2095,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>59210</v>
+        <v>26316</v>
       </c>
       <c r="E61">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2121,16 +2115,16 @@
         <v>115</v>
       </c>
       <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>15820</v>
+      </c>
+      <c r="E62">
         <v>28</v>
       </c>
-      <c r="D62">
-        <v>31302</v>
-      </c>
-      <c r="E62">
-        <v>30</v>
-      </c>
       <c r="F62" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2141,16 +2135,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D63">
-        <v>75921</v>
+        <v>59319</v>
       </c>
       <c r="E63">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2161,16 +2155,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D64">
-        <v>27384</v>
+        <v>24648</v>
       </c>
       <c r="E64">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2181,16 +2175,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>1368</v>
+        <v>301168</v>
       </c>
       <c r="E65">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2201,16 +2195,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D66">
-        <v>68193</v>
+        <v>69117</v>
       </c>
       <c r="E66">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2221,16 +2215,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D67">
-        <v>1038114</v>
+        <v>1314</v>
       </c>
       <c r="E67">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2241,16 +2235,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>20924</v>
+        <v>22426</v>
       </c>
       <c r="E68">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2261,16 +2255,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>25468</v>
+        <v>34794</v>
       </c>
       <c r="E69">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2281,16 +2275,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D70">
-        <v>22428</v>
+        <v>19584</v>
       </c>
       <c r="E70">
         <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2301,16 +2295,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D71">
-        <v>49429</v>
+        <v>65952</v>
       </c>
       <c r="E71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2321,16 +2315,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D72">
-        <v>41880</v>
+        <v>21042</v>
       </c>
       <c r="E72">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2341,16 +2335,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D73">
-        <v>24714</v>
+        <v>1075835</v>
       </c>
       <c r="E73">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2361,16 +2355,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D74">
-        <v>59591</v>
+        <v>45397</v>
       </c>
       <c r="E74">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2381,16 +2375,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>5009</v>
+        <v>38010</v>
       </c>
       <c r="E75">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2401,16 +2395,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D76">
-        <v>43506</v>
+        <v>125250</v>
       </c>
       <c r="E76">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2421,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D77">
-        <v>4755</v>
+        <v>54207</v>
       </c>
       <c r="E77">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2441,16 +2435,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D78">
-        <v>52073</v>
+        <v>39587</v>
       </c>
       <c r="E78">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2461,16 +2455,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D79">
-        <v>37312</v>
+        <v>33676</v>
       </c>
       <c r="E79">
         <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2481,16 +2475,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D80">
-        <v>82206</v>
+        <v>4829</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2501,16 +2495,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D81">
-        <v>44555</v>
+        <v>4377</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2521,16 +2515,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D82">
-        <v>35999</v>
+        <v>55275</v>
       </c>
       <c r="E82">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2541,16 +2535,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D83">
-        <v>66137</v>
+        <v>59567</v>
       </c>
       <c r="E83">
         <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2561,16 +2555,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D84">
-        <v>153366</v>
+        <v>48599</v>
       </c>
       <c r="E84">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2581,16 +2575,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D85">
-        <v>64113</v>
+        <v>34559</v>
       </c>
       <c r="E85">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2601,16 +2595,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D86">
-        <v>515102</v>
+        <v>53388</v>
       </c>
       <c r="E86">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2621,16 +2615,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D87">
-        <v>60786</v>
+        <v>36665</v>
       </c>
       <c r="E87">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2641,16 +2635,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D88">
-        <v>42083</v>
+        <v>5386</v>
       </c>
       <c r="E88">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2661,16 +2655,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D89">
-        <v>5440</v>
+        <v>4050</v>
       </c>
       <c r="E89">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2681,16 +2675,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D90">
-        <v>4176</v>
+        <v>32978</v>
       </c>
       <c r="E90">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2701,16 +2695,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D91">
-        <v>22796</v>
+        <v>21734</v>
       </c>
       <c r="E91">
         <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2724,13 +2718,13 @@
         <v>61</v>
       </c>
       <c r="D92">
-        <v>10290</v>
+        <v>10182</v>
       </c>
       <c r="E92">
         <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2741,16 +2735,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D93">
-        <v>1530</v>
+        <v>1512</v>
       </c>
       <c r="E93">
         <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2761,16 +2755,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D94">
-        <v>4496</v>
-      </c>
-      <c r="E94" t="s">
-        <v>117</v>
+        <v>1422</v>
+      </c>
+      <c r="E94">
+        <v>70</v>
       </c>
       <c r="F94" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2781,16 +2775,16 @@
         <v>115</v>
       </c>
       <c r="C95">
+        <v>133</v>
+      </c>
+      <c r="D95">
+        <v>4478</v>
+      </c>
+      <c r="E95" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" t="s">
         <v>165</v>
-      </c>
-      <c r="D95">
-        <v>270</v>
-      </c>
-      <c r="E95">
-        <v>100</v>
-      </c>
-      <c r="F95" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2801,16 +2795,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D96">
-        <v>378</v>
+        <v>1422</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2821,16 +2815,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="D97">
-        <v>1080</v>
+        <v>1656</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2841,13 +2835,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>258</v>
+        <v>247</v>
+      </c>
+      <c r="D98">
+        <v>2646</v>
       </c>
       <c r="E98">
-        <v>70</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F98" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2858,10 +2855,10 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D99">
-        <v>774</v>
+        <v>1602</v>
       </c>
       <c r="E99">
         <v>68</v>
@@ -2878,16 +2875,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>637</v>
+        <v>16376</v>
       </c>
       <c r="E100">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2898,16 +2895,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D101">
-        <v>7202</v>
+        <v>12851</v>
       </c>
       <c r="E101">
         <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2921,13 +2918,13 @@
         <v>25</v>
       </c>
       <c r="D102">
-        <v>20390</v>
+        <v>20654</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2938,16 +2935,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D103">
-        <v>24632</v>
+        <v>46931</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2958,16 +2955,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D104">
-        <v>55121</v>
+        <v>4369</v>
       </c>
       <c r="E104">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2978,16 +2975,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D105">
-        <v>5269</v>
+        <v>7666</v>
       </c>
       <c r="E105">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2998,13 +2995,13 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D106">
-        <v>8980</v>
+        <v>114651</v>
       </c>
       <c r="E106">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
         <v>157</v>
@@ -3018,16 +3015,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D107">
-        <v>127377</v>
+        <v>4435</v>
       </c>
       <c r="E107">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3038,16 +3035,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D108">
-        <v>29139</v>
+        <v>24836</v>
       </c>
       <c r="E108">
         <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="166">
   <si>
     <t>Линия производства</t>
   </si>
@@ -37,138 +37,138 @@
     <t>Чага (березовый гриб) 50г</t>
   </si>
   <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
     <t>Полынь горькая трава 50г</t>
   </si>
   <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
     <t>Брусника листья 50г</t>
   </si>
   <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
   </si>
   <si>
     <t>Спорыш трава 50г</t>
   </si>
   <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
     <t>Череда трава 50г</t>
   </si>
   <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
     <t>Рябина плоды 50г</t>
   </si>
   <si>
@@ -193,102 +193,102 @@
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Пастушья сумка трава 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
   </si>
   <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Береза листья 20x1,5г</t>
   </si>
   <si>
@@ -325,24 +325,24 @@
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
@@ -370,22 +370,10 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2022-12-13</t>
-  </si>
-  <si>
     <t>2022-12-14</t>
   </si>
   <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
+    <t>2022-12-19</t>
   </si>
   <si>
     <t>2022-12-22</t>
@@ -394,139 +382,136 @@
     <t>2022-12-23</t>
   </si>
   <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
     <t>2022-12-26</t>
   </si>
   <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
   </si>
   <si>
     <t>2023-01-05</t>
   </si>
   <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>2023-03-14</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2023-06-15</t>
-  </si>
-  <si>
-    <t>2023-06-23</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
     <t>2023-01-20</t>
   </si>
   <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
     <t>2023-02-01</t>
   </si>
   <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
     <t>2023-02-10</t>
   </si>
   <si>
-    <t>2023-02-14</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
   </si>
   <si>
     <t>2023-02-23</t>
   </si>
   <si>
-    <t>2023-05-26</t>
-  </si>
-  <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>2023-06-05</t>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
   </si>
   <si>
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2023-02-22</t>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
   </si>
 </sst>
 </file>
@@ -915,7 +900,7 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D2">
         <v>80768</v>
@@ -935,10 +920,10 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>20338</v>
+        <v>19344</v>
       </c>
       <c r="E3">
         <v>45</v>
@@ -955,13 +940,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>16728</v>
+        <v>4762</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -975,13 +960,13 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>9937</v>
+        <v>13348</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>120</v>
@@ -995,13 +980,13 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>6876</v>
+        <v>12614</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>120</v>
@@ -1015,13 +1000,13 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>17444</v>
+        <v>16962</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>121</v>
@@ -1035,13 +1020,13 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>7544</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
+        <v>17689</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>121</v>
@@ -1055,13 +1040,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>5980</v>
+        <v>11261</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>122</v>
@@ -1075,13 +1060,13 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>9661</v>
+        <v>16141</v>
       </c>
       <c r="E10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>122</v>
@@ -1095,13 +1080,13 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>18557</v>
+        <v>11239</v>
       </c>
       <c r="E11">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>123</v>
@@ -1115,16 +1100,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>13440</v>
+        <v>7819</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1135,16 +1120,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>15420</v>
+        <v>11477</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1155,16 +1140,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>8638</v>
+        <v>16344</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1175,16 +1160,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>7154</v>
+        <v>7840</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1195,16 +1180,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>18796</v>
+        <v>81175</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1215,16 +1200,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>17107</v>
+        <v>22522</v>
       </c>
       <c r="E17">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1235,16 +1220,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>12815</v>
+        <v>16688</v>
       </c>
       <c r="E18">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1255,16 +1240,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>12681</v>
+        <v>27748</v>
       </c>
       <c r="E19">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1275,16 +1260,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>17010</v>
+        <v>23405</v>
       </c>
       <c r="E20">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1295,16 +1280,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>86922</v>
+        <v>45932</v>
       </c>
       <c r="E21">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1315,16 +1300,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>8890</v>
+        <v>12984</v>
       </c>
       <c r="E22">
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1335,16 +1320,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>17800</v>
+        <v>18079</v>
       </c>
       <c r="E23">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1355,16 +1340,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>8484</v>
+        <v>5264</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1375,16 +1360,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>24343</v>
+        <v>6294</v>
       </c>
       <c r="E25">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1395,16 +1380,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>12905</v>
+        <v>67885</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1415,16 +1400,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>28756</v>
+        <v>7041</v>
       </c>
       <c r="E27">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1435,16 +1420,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>87587</v>
+        <v>27028</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1455,16 +1440,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>23698</v>
-      </c>
-      <c r="E29">
-        <v>43</v>
+        <v>18422</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1475,16 +1460,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>17934</v>
+        <v>34636</v>
       </c>
       <c r="E30">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1495,16 +1480,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>13096</v>
+        <v>37842</v>
       </c>
       <c r="E31">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1515,16 +1500,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>7055</v>
+        <v>5333</v>
       </c>
       <c r="E32">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1535,16 +1520,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>71553</v>
+        <v>64934</v>
       </c>
       <c r="E33">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1555,16 +1540,16 @@
         <v>113</v>
       </c>
       <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>21055</v>
+      </c>
+      <c r="E34">
         <v>31</v>
       </c>
-      <c r="D34">
-        <v>35658</v>
-      </c>
-      <c r="E34">
-        <v>37</v>
-      </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1575,16 +1560,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D35">
-        <v>5626</v>
+        <v>30296</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1595,16 +1580,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>29380</v>
+        <v>13720</v>
       </c>
       <c r="E36">
         <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1615,16 +1600,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D37">
-        <v>7414</v>
+        <v>120284</v>
       </c>
       <c r="E37">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1635,16 +1620,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D38">
-        <v>67958</v>
+        <v>20032</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1655,16 +1640,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>5921</v>
+        <v>28951</v>
       </c>
       <c r="E39">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1678,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="D40">
-        <v>29455</v>
+        <v>29572</v>
       </c>
       <c r="E40">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1695,16 +1680,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>15167</v>
+        <v>24046</v>
       </c>
       <c r="E41">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1715,16 +1700,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42">
-        <v>30552</v>
+        <v>23266</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1738,10 +1723,10 @@
         <v>44</v>
       </c>
       <c r="D43">
-        <v>21670</v>
+        <v>32831</v>
       </c>
       <c r="E43">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
         <v>144</v>
@@ -1755,16 +1740,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>18534</v>
+        <v>23483</v>
       </c>
       <c r="E44">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1775,16 +1760,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45">
-        <v>24736</v>
+        <v>18016</v>
       </c>
       <c r="E45">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1798,7 +1783,7 @@
         <v>47</v>
       </c>
       <c r="D46">
-        <v>35323</v>
+        <v>21681</v>
       </c>
       <c r="E46">
         <v>40</v>
@@ -1815,13 +1800,13 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>22031</v>
+        <v>25872</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
         <v>147</v>
@@ -1835,10 +1820,10 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D48">
-        <v>5824</v>
+        <v>5432</v>
       </c>
       <c r="E48">
         <v>51</v>
@@ -1855,10 +1840,10 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>2676</v>
+        <v>2115</v>
       </c>
       <c r="E49">
         <v>104</v>
@@ -1875,16 +1860,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>4060</v>
+        <v>3745</v>
       </c>
       <c r="E50">
         <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1895,16 +1880,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>5918</v>
+        <v>5400</v>
       </c>
       <c r="E51">
         <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1915,16 +1900,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D52">
-        <v>18492</v>
+        <v>16422</v>
       </c>
       <c r="E52">
         <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1935,10 +1920,10 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53">
-        <v>5030</v>
+        <v>4835</v>
       </c>
       <c r="E53">
         <v>123</v>
@@ -1955,10 +1940,10 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D54">
-        <v>6900</v>
+        <v>6825</v>
       </c>
       <c r="E54">
         <v>237</v>
@@ -1975,10 +1960,10 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D55">
-        <v>8740</v>
+        <v>8700</v>
       </c>
       <c r="E55">
         <v>362</v>
@@ -1995,16 +1980,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>2464</v>
+        <v>108757</v>
       </c>
       <c r="E56">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2015,16 +2000,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>116214</v>
+        <v>50039</v>
       </c>
       <c r="E57">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2035,16 +2020,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>53927</v>
+        <v>43136</v>
       </c>
       <c r="E58">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2055,16 +2040,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D59">
-        <v>106501</v>
+        <v>14272</v>
       </c>
       <c r="E59">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2075,16 +2060,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D60">
-        <v>47096</v>
+        <v>25506</v>
       </c>
       <c r="E60">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2095,16 +2080,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D61">
-        <v>26316</v>
+        <v>53469</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2115,16 +2100,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D62">
-        <v>15820</v>
+        <v>23478</v>
       </c>
       <c r="E62">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2138,13 +2123,13 @@
         <v>27</v>
       </c>
       <c r="D63">
-        <v>59319</v>
+        <v>30384</v>
       </c>
       <c r="E63">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2155,16 +2140,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>24648</v>
+        <v>299813</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2178,13 +2163,13 @@
         <v>28</v>
       </c>
       <c r="D65">
-        <v>301168</v>
+        <v>65517</v>
       </c>
       <c r="E65">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2198,13 +2183,13 @@
         <v>28</v>
       </c>
       <c r="D66">
-        <v>69117</v>
+        <v>20698</v>
       </c>
       <c r="E66">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2218,13 +2203,13 @@
         <v>29</v>
       </c>
       <c r="D67">
-        <v>1314</v>
+        <v>55962</v>
       </c>
       <c r="E67">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2235,16 +2220,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>22426</v>
+        <v>968321</v>
       </c>
       <c r="E68">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2255,16 +2240,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69">
-        <v>34794</v>
+        <v>19080</v>
       </c>
       <c r="E69">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2278,13 +2263,13 @@
         <v>32</v>
       </c>
       <c r="D70">
-        <v>19584</v>
+        <v>111678</v>
       </c>
       <c r="E70">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2298,13 +2283,13 @@
         <v>34</v>
       </c>
       <c r="D71">
-        <v>65952</v>
+        <v>20610</v>
       </c>
       <c r="E71">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2315,13 +2300,13 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D72">
-        <v>21042</v>
+        <v>36138</v>
       </c>
       <c r="E72">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
         <v>153</v>
@@ -2335,16 +2320,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73">
-        <v>1075835</v>
+        <v>4235</v>
       </c>
       <c r="E73">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2355,16 +2340,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74">
-        <v>45397</v>
+        <v>52371</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2375,16 +2360,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75">
-        <v>38010</v>
+        <v>44405</v>
       </c>
       <c r="E75">
         <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2395,16 +2380,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76">
-        <v>125250</v>
+        <v>44695</v>
       </c>
       <c r="E76">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2415,16 +2400,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D77">
-        <v>54207</v>
+        <v>50253</v>
       </c>
       <c r="E77">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2435,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78">
-        <v>39587</v>
+        <v>32524</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2455,16 +2440,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79">
-        <v>33676</v>
+        <v>47880</v>
       </c>
       <c r="E79">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2475,16 +2460,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D80">
-        <v>4829</v>
+        <v>38957</v>
       </c>
       <c r="E80">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2495,16 +2480,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D81">
-        <v>4377</v>
+        <v>4143</v>
       </c>
       <c r="E81">
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2515,16 +2500,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D82">
-        <v>55275</v>
+        <v>57155</v>
       </c>
       <c r="E82">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2535,16 +2520,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D83">
-        <v>59567</v>
+        <v>32363</v>
       </c>
       <c r="E83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2558,10 +2543,10 @@
         <v>40</v>
       </c>
       <c r="D84">
-        <v>48599</v>
+        <v>5594</v>
       </c>
       <c r="E84">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
         <v>141</v>
@@ -2578,13 +2563,13 @@
         <v>41</v>
       </c>
       <c r="D85">
-        <v>34559</v>
+        <v>2736</v>
       </c>
       <c r="E85">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2598,13 +2583,13 @@
         <v>42</v>
       </c>
       <c r="D86">
-        <v>53388</v>
+        <v>34068</v>
       </c>
       <c r="E86">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F86" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2615,16 +2600,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D87">
-        <v>36665</v>
+        <v>191551</v>
       </c>
       <c r="E87">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2635,16 +2620,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D88">
-        <v>5386</v>
+        <v>5022</v>
       </c>
       <c r="E88">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2655,16 +2640,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D89">
-        <v>4050</v>
+        <v>3870</v>
       </c>
       <c r="E89">
         <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2675,16 +2660,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D90">
-        <v>32978</v>
+        <v>31880</v>
       </c>
       <c r="E90">
         <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2698,13 +2683,13 @@
         <v>58</v>
       </c>
       <c r="D91">
-        <v>21734</v>
+        <v>21464</v>
       </c>
       <c r="E91">
         <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2715,16 +2700,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D92">
-        <v>10182</v>
+        <v>9786</v>
       </c>
       <c r="E92">
         <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2744,7 +2729,7 @@
         <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2764,7 +2749,7 @@
         <v>70</v>
       </c>
       <c r="F94" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2775,7 +2760,7 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D95">
         <v>4478</v>
@@ -2784,7 +2769,7 @@
         <v>117</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2795,7 +2780,7 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D96">
         <v>1422</v>
@@ -2804,7 +2789,7 @@
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2815,16 +2800,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D97">
-        <v>1656</v>
+        <v>1602</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2835,16 +2820,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D98">
-        <v>2646</v>
+        <v>2538</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2855,7 +2840,7 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D99">
         <v>1602</v>
@@ -2875,16 +2860,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D100">
-        <v>16376</v>
+        <v>12383</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2895,16 +2880,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D101">
-        <v>12851</v>
+        <v>19358</v>
       </c>
       <c r="E101">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2915,16 +2900,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D102">
-        <v>20654</v>
+        <v>42269</v>
       </c>
       <c r="E102">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2935,16 +2920,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103">
-        <v>46931</v>
+        <v>4063</v>
       </c>
       <c r="E103">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2958,13 +2943,13 @@
         <v>27</v>
       </c>
       <c r="D104">
-        <v>4369</v>
+        <v>7306</v>
       </c>
       <c r="E104">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2975,16 +2960,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D105">
-        <v>7666</v>
+        <v>24026</v>
       </c>
       <c r="E105">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2995,16 +2980,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D106">
-        <v>114651</v>
+        <v>111046</v>
       </c>
       <c r="E106">
         <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3015,16 +3000,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D107">
-        <v>4435</v>
+        <v>3949</v>
       </c>
       <c r="E107">
         <v>51</v>
       </c>
       <c r="F107" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3035,16 +3020,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D108">
-        <v>24836</v>
+        <v>22874</v>
       </c>
       <c r="E108">
         <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -37,138 +37,138 @@
     <t>Чага (березовый гриб) 50г</t>
   </si>
   <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
     <t>Толокнянка листья 50г</t>
   </si>
   <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
     <t>Валериана корневища с корнями 50г</t>
   </si>
   <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
   </si>
   <si>
     <t>Береза почки 50г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
   </si>
   <si>
     <t>Эвкалипт прутовидный листья 75г</t>
   </si>
   <si>
-    <t>Бессмертник песчаный цветки 30г</t>
+    <t>Череда трава 50г</t>
   </si>
   <si>
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
     <t>Рябина плоды 50г</t>
   </si>
   <si>
@@ -193,126 +193,126 @@
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
     <t>Фп Шалфей листья 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
     <t>Фп Толокнянка листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
     <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Череда трава 20х1,5г</t>
   </si>
   <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Пастушья сумка трава 20х1,5г</t>
   </si>
   <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
     <t>Фп Подорожник листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
   </si>
   <si>
@@ -334,24 +334,24 @@
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
     <t>Контрактная площадка</t>
   </si>
   <si>
@@ -370,148 +370,148 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2022-12-14</t>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
   </si>
   <si>
     <t>2022-12-19</t>
   </si>
   <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
     <t>2022-12-22</t>
   </si>
   <si>
     <t>2022-12-23</t>
   </si>
   <si>
-    <t>2022-12-27</t>
+    <t>2022-12-29</t>
   </si>
   <si>
     <t>2022-12-30</t>
   </si>
   <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
     <t>2023-01-02</t>
   </si>
   <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
     <t>2023-01-11</t>
   </si>
   <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
     <t>2023-01-13</t>
   </si>
   <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
     <t>2023-01-27</t>
   </si>
   <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
     <t>2023-02-07</t>
   </si>
   <si>
-    <t>2023-02-16</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
-    <t>2023-06-15</t>
-  </si>
-  <si>
-    <t>2023-07-20</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-02-22</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>2023-05-30</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>2023-06-09</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2023-02-17</t>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
   </si>
 </sst>
 </file>
@@ -900,10 +900,10 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2">
-        <v>80768</v>
+        <v>80512</v>
       </c>
       <c r="E2">
         <v>432</v>
@@ -920,10 +920,10 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>19344</v>
+        <v>11630</v>
       </c>
       <c r="E3">
         <v>45</v>
@@ -940,13 +940,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>4762</v>
+        <v>2024</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -960,10 +960,10 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>13348</v>
+        <v>3577</v>
       </c>
       <c r="E5">
         <v>35</v>
@@ -980,10 +980,10 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>12614</v>
+        <v>8274</v>
       </c>
       <c r="E6">
         <v>37</v>
@@ -1000,13 +1000,13 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>16962</v>
+        <v>6935</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>121</v>
@@ -1020,13 +1020,13 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>17689</v>
+        <v>4088</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>121</v>
@@ -1040,13 +1040,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>11261</v>
+        <v>2128</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
         <v>122</v>
@@ -1060,13 +1060,13 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>16141</v>
+        <v>10296</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>122</v>
@@ -1080,13 +1080,13 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>11239</v>
+        <v>16282</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>123</v>
@@ -1100,13 +1100,13 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>7819</v>
+        <v>49535</v>
       </c>
       <c r="E12">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
         <v>124</v>
@@ -1120,16 +1120,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>11477</v>
+        <v>2043</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1140,16 +1140,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>16344</v>
+        <v>4283</v>
       </c>
       <c r="E14">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1160,13 +1160,13 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>7840</v>
+        <v>47613</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
         <v>126</v>
@@ -1180,16 +1180,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>81175</v>
+        <v>23800</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1200,16 +1200,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>22522</v>
+        <v>9582</v>
       </c>
       <c r="E17">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1220,16 +1220,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>16688</v>
+        <v>17762</v>
       </c>
       <c r="E18">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1240,16 +1240,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>27748</v>
+        <v>17242</v>
       </c>
       <c r="E19">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1260,16 +1260,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>23405</v>
+        <v>24584</v>
       </c>
       <c r="E20">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1280,16 +1280,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>45932</v>
+        <v>12787</v>
       </c>
       <c r="E21">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1300,16 +1300,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>12984</v>
+        <v>40812</v>
       </c>
       <c r="E22">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1320,16 +1320,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>18079</v>
+        <v>72894</v>
       </c>
       <c r="E23">
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1340,16 +1340,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>5264</v>
+        <v>37896</v>
       </c>
       <c r="E24">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1360,16 +1360,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>6294</v>
+        <v>17808</v>
       </c>
       <c r="E25">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1380,16 +1380,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>67885</v>
+        <v>8456</v>
       </c>
       <c r="E26">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1400,16 +1400,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>7041</v>
-      </c>
-      <c r="E27">
-        <v>37</v>
+        <v>13886</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1420,16 +1420,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>27028</v>
+        <v>24751</v>
       </c>
       <c r="E28">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1440,16 +1440,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>18422</v>
-      </c>
-      <c r="E29" t="s">
-        <v>117</v>
+        <v>26426</v>
+      </c>
+      <c r="E29">
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1460,16 +1460,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>34636</v>
+        <v>13788</v>
       </c>
       <c r="E30">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1480,16 +1480,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>37842</v>
+        <v>15145</v>
       </c>
       <c r="E31">
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1500,16 +1500,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>5333</v>
+        <v>16080</v>
       </c>
       <c r="E32">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1520,16 +1520,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>64934</v>
+        <v>9954</v>
       </c>
       <c r="E33">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1540,16 +1540,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>21055</v>
+        <v>12598</v>
       </c>
       <c r="E34">
         <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1560,16 +1560,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>30296</v>
+        <v>31465</v>
       </c>
       <c r="E35">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1580,16 +1580,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>13720</v>
+        <v>22026</v>
       </c>
       <c r="E36">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1600,16 +1600,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>120284</v>
+        <v>17975</v>
       </c>
       <c r="E37">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1620,16 +1620,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>20032</v>
+        <v>23085</v>
       </c>
       <c r="E38">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1640,16 +1640,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>28951</v>
+        <v>25108</v>
       </c>
       <c r="E39">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1660,16 +1660,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>29572</v>
+        <v>21197</v>
       </c>
       <c r="E40">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1680,16 +1680,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>24046</v>
+        <v>18688</v>
       </c>
       <c r="E41">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1700,16 +1700,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>23266</v>
+        <v>19983</v>
       </c>
       <c r="E42">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1720,16 +1720,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D43">
-        <v>32831</v>
+        <v>18141</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1740,13 +1740,13 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D44">
-        <v>23483</v>
+        <v>17355</v>
       </c>
       <c r="E44">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
         <v>144</v>
@@ -1760,13 +1760,13 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>18016</v>
+        <v>29002</v>
       </c>
       <c r="E45">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
         <v>145</v>
@@ -1780,13 +1780,13 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>21681</v>
+        <v>23282</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
         <v>146</v>
@@ -1800,13 +1800,13 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D47">
-        <v>25872</v>
+        <v>36313</v>
       </c>
       <c r="E47">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
         <v>147</v>
@@ -1820,10 +1820,10 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D48">
-        <v>5432</v>
+        <v>5362</v>
       </c>
       <c r="E48">
         <v>51</v>
@@ -1840,16 +1840,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>2115</v>
+        <v>1060</v>
       </c>
       <c r="E49">
         <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1860,16 +1860,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>3745</v>
+        <v>2430</v>
       </c>
       <c r="E50">
         <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1880,16 +1880,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="E51">
         <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1900,16 +1900,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>16422</v>
+        <v>10422</v>
       </c>
       <c r="E52">
         <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1920,16 +1920,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D53">
-        <v>4835</v>
+        <v>4590</v>
       </c>
       <c r="E53">
         <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1940,16 +1940,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D54">
-        <v>6825</v>
+        <v>6650</v>
       </c>
       <c r="E54">
         <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1960,10 +1960,10 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D55">
-        <v>8700</v>
+        <v>8680</v>
       </c>
       <c r="E55">
         <v>362</v>
@@ -1980,16 +1980,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>108757</v>
+        <v>7342</v>
       </c>
       <c r="E56">
         <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2000,10 +2000,10 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>50039</v>
+        <v>33137</v>
       </c>
       <c r="E57">
         <v>32</v>
@@ -2020,13 +2020,13 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>43136</v>
+        <v>27909</v>
       </c>
       <c r="E58">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
         <v>123</v>
@@ -2040,16 +2040,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>14272</v>
+        <v>27638</v>
       </c>
       <c r="E59">
         <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2060,16 +2060,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>25506</v>
+        <v>168296</v>
       </c>
       <c r="E60">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2080,13 +2080,13 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>53469</v>
+        <v>2183</v>
       </c>
       <c r="E61">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
         <v>152</v>
@@ -2100,16 +2100,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>23478</v>
+        <v>2433</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2120,16 +2120,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>30384</v>
+        <v>36864</v>
       </c>
       <c r="E63">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2140,16 +2140,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>299813</v>
+        <v>21546</v>
       </c>
       <c r="E64">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2160,16 +2160,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>65517</v>
+        <v>20700</v>
       </c>
       <c r="E65">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2180,16 +2180,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>20698</v>
+        <v>12150</v>
       </c>
       <c r="E66">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2200,16 +2200,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>55962</v>
+        <v>48903</v>
       </c>
       <c r="E67">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2220,16 +2220,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>968321</v>
+        <v>14596</v>
       </c>
       <c r="E68">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2240,16 +2240,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>19080</v>
+        <v>17934</v>
       </c>
       <c r="E69">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2260,16 +2260,16 @@
         <v>115</v>
       </c>
       <c r="C70">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>24330</v>
+      </c>
+      <c r="E70">
         <v>32</v>
       </c>
-      <c r="D70">
-        <v>111678</v>
-      </c>
-      <c r="E70">
-        <v>52</v>
-      </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2280,16 +2280,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D71">
-        <v>20610</v>
+        <v>28691</v>
       </c>
       <c r="E71">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2300,16 +2300,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>36138</v>
+        <v>14202</v>
       </c>
       <c r="E72">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2320,16 +2320,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>4235</v>
+        <v>727337</v>
       </c>
       <c r="E73">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2340,16 +2340,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>52371</v>
+        <v>30348</v>
       </c>
       <c r="E74">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2360,16 +2360,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D75">
-        <v>44405</v>
+        <v>35277</v>
       </c>
       <c r="E75">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2380,16 +2380,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>44695</v>
+        <v>145435</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2400,16 +2400,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D77">
-        <v>50253</v>
+        <v>33391</v>
       </c>
       <c r="E77">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>32524</v>
+        <v>90780</v>
       </c>
       <c r="E78">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2440,16 +2440,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D79">
-        <v>47880</v>
+        <v>40761</v>
       </c>
       <c r="E79">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2460,16 +2460,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D80">
-        <v>38957</v>
+        <v>42161</v>
       </c>
       <c r="E80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2480,16 +2480,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D81">
-        <v>4143</v>
+        <v>127543</v>
       </c>
       <c r="E81">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2500,16 +2500,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D82">
-        <v>57155</v>
+        <v>24208</v>
       </c>
       <c r="E82">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2520,16 +2520,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D83">
-        <v>32363</v>
+        <v>28949</v>
       </c>
       <c r="E83">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2540,16 +2540,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>5594</v>
+        <v>25019</v>
       </c>
       <c r="E84">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2560,16 +2560,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D85">
-        <v>2736</v>
+        <v>3006</v>
       </c>
       <c r="E85">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2580,16 +2580,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D86">
-        <v>34068</v>
+        <v>4370</v>
       </c>
       <c r="E86">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2600,16 +2600,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D87">
-        <v>191551</v>
+        <v>23454</v>
       </c>
       <c r="E87">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F87" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2620,16 +2620,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D88">
-        <v>5022</v>
+        <v>2556</v>
       </c>
       <c r="E88">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2640,16 +2640,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D89">
-        <v>3870</v>
+        <v>2808</v>
       </c>
       <c r="E89">
         <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2660,16 +2660,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D90">
-        <v>31880</v>
+        <v>7230</v>
       </c>
       <c r="E90">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2680,16 +2680,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D91">
-        <v>21464</v>
+        <v>16442</v>
       </c>
       <c r="E91">
         <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2700,13 +2700,13 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D92">
-        <v>9786</v>
+        <v>26552</v>
       </c>
       <c r="E92">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
         <v>158</v>
@@ -2720,13 +2720,13 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D93">
-        <v>1512</v>
+        <v>612</v>
       </c>
       <c r="E93">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F93" t="s">
         <v>159</v>
@@ -2740,13 +2740,13 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D94">
-        <v>1422</v>
-      </c>
-      <c r="E94">
-        <v>70</v>
+        <v>3578</v>
+      </c>
+      <c r="E94" t="s">
+        <v>117</v>
       </c>
       <c r="F94" t="s">
         <v>160</v>
@@ -2760,13 +2760,13 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D95">
-        <v>4478</v>
-      </c>
-      <c r="E95" t="s">
-        <v>117</v>
+        <v>1512</v>
+      </c>
+      <c r="E95">
+        <v>61</v>
       </c>
       <c r="F95" t="s">
         <v>161</v>
@@ -2780,10 +2780,10 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D96">
-        <v>1422</v>
+        <v>1332</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -2800,10 +2800,10 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D97">
-        <v>1602</v>
+        <v>1566</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -2820,10 +2820,10 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D98">
-        <v>2538</v>
+        <v>2250</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -2840,10 +2840,10 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D99">
-        <v>1602</v>
+        <v>1566</v>
       </c>
       <c r="E99">
         <v>68</v>
@@ -2860,16 +2860,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D100">
-        <v>12383</v>
+        <v>7289</v>
       </c>
       <c r="E100">
         <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2880,16 +2880,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D101">
-        <v>19358</v>
+        <v>11852</v>
       </c>
       <c r="E101">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2900,16 +2900,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D102">
-        <v>42269</v>
+        <v>25313</v>
       </c>
       <c r="E102">
         <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2920,13 +2920,13 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D103">
-        <v>4063</v>
+        <v>5164</v>
       </c>
       <c r="E103">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F103" t="s">
         <v>127</v>
@@ -2940,16 +2940,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D104">
-        <v>7306</v>
+        <v>15728</v>
       </c>
       <c r="E104">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2963,13 +2963,13 @@
         <v>31</v>
       </c>
       <c r="D105">
-        <v>24026</v>
+        <v>2581</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2980,16 +2980,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D106">
-        <v>111046</v>
+        <v>98172</v>
       </c>
       <c r="E106">
         <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3000,16 +3000,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D107">
-        <v>3949</v>
+        <v>19868</v>
       </c>
       <c r="E107">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3023,10 +3023,10 @@
         <v>55</v>
       </c>
       <c r="D108">
-        <v>22874</v>
+        <v>9121</v>
       </c>
       <c r="E108">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
         <v>165</v>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="170">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,295 +34,304 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
     <t>Чага (березовый гриб) 50г</t>
   </si>
   <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
     <t>Подорожник большой листья 50г</t>
   </si>
   <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
     <t>Алтей корни 75г</t>
   </si>
   <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
     <t>Рябина плоды 50г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
   <si>
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
   <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
     <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Сенна листья 20x1,5г</t>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
   </si>
   <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Аир корневища 20x1,5г</t>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
   </si>
   <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
+    <t>Фп Череда трава 20х1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Пастушья сумка трава 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Крушина кора 20x1,5г</t>
@@ -331,24 +340,15 @@
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Бадан корневища 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
@@ -370,148 +370,160 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-11-30</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2022-12-19</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>2023-03-21</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
   </si>
   <si>
     <t>2023-01-06</t>
   </si>
   <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
     <t>2023-01-10</t>
   </si>
   <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
     <t>2023-01-12</t>
   </si>
   <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
     <t>2023-01-17</t>
   </si>
   <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
     <t>2023-01-18</t>
   </si>
   <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-03-16</t>
-  </si>
-  <si>
-    <t>2023-06-14</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-05-08</t>
-  </si>
-  <si>
-    <t>2023-06-02</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2023-08-25</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
+    <t>2023-03-08</t>
   </si>
 </sst>
 </file>
@@ -900,13 +912,13 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D2">
-        <v>80512</v>
+        <v>78880</v>
       </c>
       <c r="E2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -920,13 +932,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>11630</v>
+        <v>17458</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -940,13 +952,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>2024</v>
+        <v>13271</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -960,13 +972,13 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>3577</v>
+        <v>9973</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>120</v>
@@ -980,13 +992,13 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>8274</v>
+        <v>20579</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>120</v>
@@ -1000,13 +1012,13 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>6935</v>
+        <v>17150</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>121</v>
@@ -1020,16 +1032,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>4088</v>
-      </c>
-      <c r="E8">
-        <v>51</v>
+        <v>10652</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1040,13 +1052,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>2128</v>
+        <v>10456</v>
       </c>
       <c r="E9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>122</v>
@@ -1060,16 +1072,16 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>10296</v>
+        <v>7930</v>
       </c>
       <c r="E10">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1080,16 +1092,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>16282</v>
+        <v>14378</v>
       </c>
       <c r="E11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1100,13 +1112,13 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>49535</v>
+        <v>19202</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>124</v>
@@ -1120,16 +1132,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>2043</v>
+        <v>12639</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1140,16 +1152,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>4283</v>
+        <v>21766</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1160,13 +1172,13 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>47613</v>
+        <v>13963</v>
       </c>
       <c r="E15">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>126</v>
@@ -1180,13 +1192,13 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>23800</v>
+        <v>42327</v>
       </c>
       <c r="E16">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>126</v>
@@ -1200,13 +1212,13 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>9582</v>
+        <v>22638</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>127</v>
@@ -1220,13 +1232,13 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>17762</v>
+        <v>17416</v>
       </c>
       <c r="E18">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
         <v>127</v>
@@ -1240,16 +1252,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>17242</v>
+        <v>13902</v>
       </c>
       <c r="E19">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1260,16 +1272,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>24584</v>
+        <v>68819</v>
       </c>
       <c r="E20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1280,16 +1292,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>12787</v>
+        <v>27461</v>
       </c>
       <c r="E21">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1300,16 +1312,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>40812</v>
+        <v>79926</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1320,16 +1332,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>72894</v>
+        <v>22412</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1340,16 +1352,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>37896</v>
+        <v>9133</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1360,16 +1372,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>17808</v>
+        <v>28754</v>
       </c>
       <c r="E25">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1380,13 +1392,13 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>8456</v>
+        <v>18709</v>
       </c>
       <c r="E26">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -1400,16 +1412,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>13886</v>
-      </c>
-      <c r="E27" t="s">
-        <v>117</v>
+        <v>15731</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1420,16 +1432,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>24751</v>
+        <v>32012</v>
       </c>
       <c r="E28">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1440,16 +1452,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>26426</v>
+        <v>16831</v>
       </c>
       <c r="E29">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1460,13 +1472,13 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>13788</v>
+        <v>70600</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>134</v>
@@ -1480,13 +1492,13 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>15145</v>
+        <v>18761</v>
       </c>
       <c r="E31">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
         <v>134</v>
@@ -1500,16 +1512,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>16080</v>
+        <v>30263</v>
       </c>
       <c r="E32">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1520,16 +1532,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>9954</v>
+        <v>9710</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1540,16 +1552,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>12598</v>
+        <v>15887</v>
       </c>
       <c r="E34">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1560,16 +1572,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D35">
-        <v>31465</v>
+        <v>17624</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1580,16 +1592,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>22026</v>
+        <v>72718</v>
       </c>
       <c r="E36">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1600,16 +1612,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>17975</v>
+        <v>14867</v>
       </c>
       <c r="E37">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1620,13 +1632,13 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>23085</v>
+        <v>10415</v>
       </c>
       <c r="E38">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
         <v>139</v>
@@ -1640,13 +1652,13 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>25108</v>
+        <v>24878</v>
       </c>
       <c r="E39">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
         <v>140</v>
@@ -1660,16 +1672,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>21197</v>
+        <v>21420</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1680,16 +1692,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>18688</v>
+        <v>24959</v>
       </c>
       <c r="E41">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1700,16 +1712,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D42">
-        <v>19983</v>
+        <v>23198</v>
       </c>
       <c r="E42">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1720,16 +1732,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D43">
-        <v>18141</v>
+        <v>10276</v>
       </c>
       <c r="E43">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1740,16 +1752,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>17355</v>
+        <v>31840</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1760,16 +1772,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>29002</v>
+        <v>18928</v>
       </c>
       <c r="E45">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1780,16 +1792,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>23282</v>
+        <v>24952</v>
       </c>
       <c r="E46">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1800,16 +1812,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D47">
-        <v>36313</v>
+        <v>14247</v>
       </c>
       <c r="E47">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1820,16 +1832,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="D48">
-        <v>5362</v>
+        <v>5124</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1840,16 +1852,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>1060</v>
+        <v>3740</v>
       </c>
       <c r="E49">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1860,16 +1872,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>2430</v>
+        <v>9602</v>
       </c>
       <c r="E50">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1880,16 +1892,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D51">
-        <v>4600</v>
+        <v>4420</v>
       </c>
       <c r="E51">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1900,16 +1912,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D52">
-        <v>10422</v>
+        <v>4210</v>
       </c>
       <c r="E52">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1920,16 +1932,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>4590</v>
+        <v>3214</v>
       </c>
       <c r="E53">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1940,16 +1952,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="D54">
-        <v>6650</v>
+        <v>5490</v>
       </c>
       <c r="E54">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1960,13 +1972,13 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D55">
-        <v>8680</v>
+        <v>7510</v>
       </c>
       <c r="E55">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1980,16 +1992,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>7342</v>
+        <v>11484</v>
       </c>
       <c r="E56">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2000,16 +2012,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>33137</v>
+        <v>15246</v>
       </c>
       <c r="E57">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2023,13 +2035,13 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <v>27909</v>
+        <v>6174</v>
       </c>
       <c r="E58">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2043,13 +2055,13 @@
         <v>12</v>
       </c>
       <c r="D59">
-        <v>27638</v>
+        <v>25274</v>
       </c>
       <c r="E59">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2060,16 +2072,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>168296</v>
+        <v>21194</v>
       </c>
       <c r="E60">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2080,16 +2092,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>2183</v>
+        <v>20682</v>
       </c>
       <c r="E61">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2100,16 +2112,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62">
-        <v>2433</v>
+        <v>41296</v>
       </c>
       <c r="E62">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2123,13 +2135,13 @@
         <v>17</v>
       </c>
       <c r="D63">
-        <v>36864</v>
+        <v>10908</v>
       </c>
       <c r="E63">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2140,16 +2152,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>21546</v>
+        <v>10926</v>
       </c>
       <c r="E64">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2160,16 +2172,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>20700</v>
+        <v>11626</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2180,16 +2192,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>12150</v>
+        <v>2039</v>
       </c>
       <c r="E66">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2200,16 +2212,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>48903</v>
+        <v>14130</v>
       </c>
       <c r="E67">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2220,16 +2232,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>14596</v>
+        <v>10080</v>
       </c>
       <c r="E68">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2240,16 +2252,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D69">
-        <v>17934</v>
+        <v>15273</v>
       </c>
       <c r="E69">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2260,16 +2272,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70">
-        <v>24330</v>
+        <v>30825</v>
       </c>
       <c r="E70">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2280,16 +2292,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71">
-        <v>28691</v>
+        <v>13716</v>
       </c>
       <c r="E71">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2300,16 +2312,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D72">
-        <v>14202</v>
+        <v>54801</v>
       </c>
       <c r="E72">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2320,16 +2332,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>727337</v>
+        <v>95845</v>
       </c>
       <c r="E73">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2340,16 +2352,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D74">
-        <v>30348</v>
+        <v>32436</v>
       </c>
       <c r="E74">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2363,13 +2375,13 @@
         <v>26</v>
       </c>
       <c r="D75">
-        <v>35277</v>
+        <v>25322</v>
       </c>
       <c r="E75">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2383,13 +2395,13 @@
         <v>26</v>
       </c>
       <c r="D76">
-        <v>145435</v>
+        <v>501390</v>
       </c>
       <c r="E76">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2400,16 +2412,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77">
-        <v>33391</v>
+        <v>22188</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2420,16 +2432,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78">
-        <v>90780</v>
+        <v>20679</v>
       </c>
       <c r="E78">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2443,13 +2455,13 @@
         <v>28</v>
       </c>
       <c r="D79">
-        <v>40761</v>
+        <v>24485</v>
       </c>
       <c r="E79">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2463,13 +2475,13 @@
         <v>28</v>
       </c>
       <c r="D80">
-        <v>42161</v>
+        <v>2080</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2483,13 +2495,13 @@
         <v>28</v>
       </c>
       <c r="D81">
-        <v>127543</v>
+        <v>697302</v>
       </c>
       <c r="E81">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2503,13 +2515,13 @@
         <v>28</v>
       </c>
       <c r="D82">
-        <v>24208</v>
+        <v>117463</v>
       </c>
       <c r="E82">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2523,13 +2535,13 @@
         <v>29</v>
       </c>
       <c r="D83">
-        <v>28949</v>
+        <v>2790</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2540,16 +2552,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D84">
-        <v>25019</v>
+        <v>46851</v>
       </c>
       <c r="E84">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2560,16 +2572,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D85">
-        <v>3006</v>
+        <v>21815</v>
       </c>
       <c r="E85">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2580,16 +2592,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D86">
-        <v>4370</v>
+        <v>32059</v>
       </c>
       <c r="E86">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2600,16 +2612,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87">
-        <v>23454</v>
+        <v>4156</v>
       </c>
       <c r="E87">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2620,16 +2632,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D88">
-        <v>2556</v>
+        <v>2646</v>
       </c>
       <c r="E88">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2640,16 +2652,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D89">
-        <v>2808</v>
+        <v>15446</v>
       </c>
       <c r="E89">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2660,16 +2672,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D90">
-        <v>7230</v>
+        <v>20882</v>
       </c>
       <c r="E90">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2683,13 +2695,13 @@
         <v>46</v>
       </c>
       <c r="D91">
-        <v>16442</v>
+        <v>7014</v>
       </c>
       <c r="E91">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2700,16 +2712,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D92">
-        <v>26552</v>
-      </c>
-      <c r="E92">
-        <v>36</v>
+        <v>3272</v>
+      </c>
+      <c r="E92" t="s">
+        <v>117</v>
       </c>
       <c r="F92" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2720,16 +2732,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="D93">
-        <v>612</v>
+        <v>882</v>
       </c>
       <c r="E93">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2740,16 +2752,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="D94">
-        <v>3578</v>
-      </c>
-      <c r="E94" t="s">
-        <v>117</v>
+        <v>1260</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2760,16 +2772,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="D95">
-        <v>1512</v>
+        <v>1494</v>
       </c>
       <c r="E95">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2780,16 +2792,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="D96">
-        <v>1332</v>
+        <v>1980</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2800,16 +2812,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="D97">
-        <v>1566</v>
+        <v>1098</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2820,16 +2832,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="D98">
-        <v>2250</v>
+        <v>1404</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
-      <c r="F98" t="s">
-        <v>164</v>
+      <c r="F98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2840,13 +2852,13 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D99">
-        <v>1566</v>
+        <v>2430</v>
       </c>
       <c r="E99">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2860,16 +2872,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100">
-        <v>7289</v>
+        <v>3292</v>
       </c>
       <c r="E100">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2880,16 +2892,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <v>11852</v>
+        <v>28081</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2900,16 +2912,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D102">
-        <v>25313</v>
+        <v>13394</v>
       </c>
       <c r="E102">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2920,16 +2932,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D103">
-        <v>5164</v>
+        <v>13014</v>
       </c>
       <c r="E103">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2940,16 +2952,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D104">
-        <v>15728</v>
+        <v>20889</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2963,13 +2975,13 @@
         <v>31</v>
       </c>
       <c r="D105">
-        <v>2581</v>
+        <v>2509</v>
       </c>
       <c r="E105">
         <v>51</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2980,16 +2992,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D106">
-        <v>98172</v>
+        <v>14087</v>
       </c>
       <c r="E106">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3000,16 +3012,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D107">
-        <v>19868</v>
+        <v>78554</v>
       </c>
       <c r="E107">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3020,16 +3032,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D108">
-        <v>9121</v>
+        <v>8226</v>
       </c>
       <c r="E108">
         <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="165">
   <si>
     <t>Линия производства</t>
   </si>
@@ -37,282 +37,282 @@
     <t>Сб. Грудной №4 50г</t>
   </si>
   <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
     <t>Чабрец трава 50г</t>
   </si>
   <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
     <t>Мать-и-мачеха листья 35г</t>
   </si>
   <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
     <t>Сенна листья 50г</t>
   </si>
   <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
   </si>
   <si>
     <t>Тысячелистник трава 50г</t>
   </si>
   <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
+    <t>Дуба кора 75г</t>
   </si>
   <si>
     <t>Эрва шерстистая трава 30г</t>
   </si>
   <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
   </si>
   <si>
     <t>Шалфей листья 50г</t>
   </si>
   <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
+    <t>Алтей корни 75г</t>
   </si>
   <si>
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
     <t>Рябина плоды 50г</t>
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
     <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
   <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
     <t>Фп Липа цветки 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
   <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Душица трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
   <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Пижма цветки 20х1,5г</t>
   </si>
   <si>
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
@@ -325,30 +325,30 @@
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
@@ -370,160 +370,145 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-01-13</t>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-03-07</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
   </si>
   <si>
     <t>2023-01-19</t>
   </si>
   <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
     <t>2023-01-20</t>
   </si>
   <si>
     <t>2023-01-23</t>
   </si>
   <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
     <t>2023-01-25</t>
   </si>
   <si>
     <t>2023-01-26</t>
   </si>
   <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>2023-02-14</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
-  </si>
-  <si>
-    <t>2023-02-22</t>
+    <t>2023-02-01</t>
   </si>
   <si>
     <t>2023-02-23</t>
   </si>
   <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-03-02</t>
-  </si>
-  <si>
-    <t>2023-03-03</t>
-  </si>
-  <si>
-    <t>2023-03-09</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>2023-03-16</t>
-  </si>
-  <si>
-    <t>2023-03-17</t>
-  </si>
-  <si>
-    <t>2023-03-21</t>
-  </si>
-  <si>
-    <t>2023-05-25</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-02-17</t>
-  </si>
-  <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
+    <t>2023-05-01</t>
   </si>
   <si>
     <t>2023-08-17</t>
   </si>
   <si>
-    <t>2023-08-24</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-11-29</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-03-08</t>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
   </si>
 </sst>
 </file>
@@ -915,10 +900,10 @@
         <v>260</v>
       </c>
       <c r="D2">
-        <v>78880</v>
+        <v>78016</v>
       </c>
       <c r="E2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -932,13 +917,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>17458</v>
+        <v>20923</v>
       </c>
       <c r="E3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -952,13 +937,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>13271</v>
-      </c>
-      <c r="E4">
-        <v>42</v>
+        <v>8706</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -972,13 +957,13 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>9973</v>
+        <v>19078</v>
       </c>
       <c r="E5">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>120</v>
@@ -992,16 +977,16 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>20579</v>
+        <v>11845</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1012,16 +997,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>17150</v>
+        <v>6921</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1032,13 +1017,13 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>10652</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
+        <v>21503</v>
+      </c>
+      <c r="E8">
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>122</v>
@@ -1052,13 +1037,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>10456</v>
+        <v>21168</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>122</v>
@@ -1072,13 +1057,13 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>7930</v>
+        <v>23709</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>123</v>
@@ -1092,13 +1077,13 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>14378</v>
+        <v>24638</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>124</v>
@@ -1112,13 +1097,13 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>19202</v>
+        <v>25195</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
         <v>124</v>
@@ -1132,16 +1117,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>12639</v>
+        <v>15360</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1152,16 +1137,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>21766</v>
+        <v>20508</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1172,16 +1157,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>13963</v>
+        <v>31668</v>
       </c>
       <c r="E15">
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1192,16 +1177,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>42327</v>
+        <v>7246</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1212,16 +1197,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>22638</v>
+        <v>16847</v>
       </c>
       <c r="E17">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1232,16 +1217,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>17416</v>
+        <v>18760</v>
       </c>
       <c r="E18">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1252,16 +1237,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>13902</v>
+        <v>14703</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1272,16 +1257,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>68819</v>
+        <v>55601</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1292,16 +1277,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>27461</v>
+        <v>30276</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1312,16 +1297,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>79926</v>
+        <v>61514</v>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1332,16 +1317,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>22412</v>
+        <v>29114</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1355,13 +1340,13 @@
         <v>33</v>
       </c>
       <c r="D24">
-        <v>9133</v>
+        <v>15062</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1372,16 +1357,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>28754</v>
+        <v>14507</v>
       </c>
       <c r="E25">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1392,16 +1377,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>18709</v>
+        <v>25987</v>
       </c>
       <c r="E26">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1412,16 +1397,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>15731</v>
+        <v>101841</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1432,16 +1417,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>32012</v>
+        <v>15381</v>
       </c>
       <c r="E28">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1452,16 +1437,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>16831</v>
+        <v>14809</v>
       </c>
       <c r="E29">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1472,16 +1457,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>70600</v>
+        <v>38241</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1492,16 +1477,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>18761</v>
+        <v>26017</v>
       </c>
       <c r="E31">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1512,16 +1497,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>30263</v>
+        <v>18466</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1532,16 +1517,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>9710</v>
+        <v>30394</v>
       </c>
       <c r="E33">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1552,16 +1537,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>15887</v>
+        <v>22324</v>
       </c>
       <c r="E34">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1572,16 +1557,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>17624</v>
+        <v>9155</v>
       </c>
       <c r="E35">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1592,16 +1577,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>72718</v>
+        <v>24159</v>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1612,16 +1597,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>14867</v>
+        <v>95489</v>
       </c>
       <c r="E37">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1632,16 +1617,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D38">
-        <v>10415</v>
+        <v>25182</v>
       </c>
       <c r="E38">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1652,16 +1637,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>24878</v>
+        <v>14391</v>
       </c>
       <c r="E39">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1672,16 +1657,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>21420</v>
+        <v>9576</v>
       </c>
       <c r="E40">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1695,13 +1680,13 @@
         <v>50</v>
       </c>
       <c r="D41">
-        <v>24959</v>
+        <v>88951</v>
       </c>
       <c r="E41">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1712,16 +1697,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>23198</v>
+        <v>18102</v>
       </c>
       <c r="E42">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1735,13 +1720,13 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>10276</v>
+        <v>30930</v>
       </c>
       <c r="E43">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1755,13 +1740,13 @@
         <v>59</v>
       </c>
       <c r="D44">
-        <v>31840</v>
+        <v>23663</v>
       </c>
       <c r="E44">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1772,16 +1757,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45">
-        <v>18928</v>
+        <v>52626</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1792,16 +1777,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D46">
-        <v>24952</v>
+        <v>13841</v>
       </c>
       <c r="E46">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1812,16 +1797,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="D47">
-        <v>14247</v>
+        <v>41129</v>
       </c>
       <c r="E47">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1832,16 +1817,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D48">
-        <v>5124</v>
+        <v>5026</v>
       </c>
       <c r="E48">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1852,16 +1837,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>3740</v>
+        <v>5007</v>
       </c>
       <c r="E49">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1872,16 +1857,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>9602</v>
+        <v>3550</v>
       </c>
       <c r="E50">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1892,16 +1877,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D51">
-        <v>4420</v>
+        <v>3010</v>
       </c>
       <c r="E51">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1912,16 +1897,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D52">
-        <v>4210</v>
+        <v>18448</v>
       </c>
       <c r="E52">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1932,16 +1917,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="D53">
-        <v>3214</v>
+        <v>4870</v>
       </c>
       <c r="E53">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1952,16 +1937,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D54">
-        <v>5490</v>
+        <v>2304</v>
       </c>
       <c r="E54">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1975,10 +1960,10 @@
         <v>260</v>
       </c>
       <c r="D55">
-        <v>7510</v>
+        <v>7170</v>
       </c>
       <c r="E55">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1992,16 +1977,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>11484</v>
+        <v>14238</v>
       </c>
       <c r="E56">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2012,16 +1997,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>15246</v>
+        <v>6768</v>
       </c>
       <c r="E57">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2032,16 +2017,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>6174</v>
+        <v>61735</v>
       </c>
       <c r="E58">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2052,16 +2037,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>25274</v>
+        <v>9268</v>
       </c>
       <c r="E59">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2072,16 +2057,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>21194</v>
+        <v>1643</v>
       </c>
       <c r="E60">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2092,16 +2077,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>20682</v>
+        <v>25011</v>
       </c>
       <c r="E61">
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2112,16 +2097,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>41296</v>
+        <v>46949</v>
       </c>
       <c r="E62">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2132,16 +2117,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D63">
-        <v>10908</v>
+        <v>13833</v>
       </c>
       <c r="E63">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2152,13 +2137,13 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>10926</v>
+        <v>20930</v>
       </c>
       <c r="E64">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
         <v>120</v>
@@ -2172,16 +2157,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>11626</v>
+        <v>18959</v>
       </c>
       <c r="E65">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2192,16 +2177,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>2039</v>
+        <v>29466</v>
       </c>
       <c r="E66">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2212,16 +2197,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>14130</v>
+        <v>19376</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2232,16 +2217,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>10080</v>
+        <v>46277</v>
       </c>
       <c r="E68">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2255,13 +2240,13 @@
         <v>23</v>
       </c>
       <c r="D69">
-        <v>15273</v>
+        <v>79744</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F69" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2275,13 +2260,13 @@
         <v>24</v>
       </c>
       <c r="D70">
-        <v>30825</v>
+        <v>17547</v>
       </c>
       <c r="E70">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2292,16 +2277,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71">
-        <v>13716</v>
+        <v>589097</v>
       </c>
       <c r="E71">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2312,16 +2297,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>54801</v>
+        <v>43267</v>
       </c>
       <c r="E72">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2332,16 +2317,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>95845</v>
+        <v>109921</v>
       </c>
       <c r="E73">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2352,16 +2337,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74">
-        <v>32436</v>
+        <v>2430</v>
       </c>
       <c r="E74">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2372,16 +2357,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75">
-        <v>25322</v>
+        <v>15120</v>
       </c>
       <c r="E75">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2392,16 +2377,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76">
-        <v>501390</v>
+        <v>44457</v>
       </c>
       <c r="E76">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2415,13 +2400,13 @@
         <v>27</v>
       </c>
       <c r="D77">
-        <v>22188</v>
+        <v>19889</v>
       </c>
       <c r="E77">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2435,13 +2420,13 @@
         <v>27</v>
       </c>
       <c r="D78">
-        <v>20679</v>
+        <v>23166</v>
       </c>
       <c r="E78">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2455,13 +2440,13 @@
         <v>28</v>
       </c>
       <c r="D79">
-        <v>24485</v>
+        <v>2080</v>
       </c>
       <c r="E79">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2475,13 +2460,13 @@
         <v>28</v>
       </c>
       <c r="D80">
-        <v>2080</v>
+        <v>28585</v>
       </c>
       <c r="E80">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2492,16 +2477,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>697302</v>
+        <v>55314</v>
       </c>
       <c r="E81">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2512,16 +2497,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82">
-        <v>117463</v>
+        <v>3814</v>
       </c>
       <c r="E82">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2532,16 +2517,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>2790</v>
+        <v>23382</v>
       </c>
       <c r="E83">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2552,16 +2537,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84">
-        <v>46851</v>
+        <v>66458</v>
       </c>
       <c r="E84">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2572,13 +2557,13 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D85">
-        <v>21815</v>
+        <v>16454</v>
       </c>
       <c r="E85">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
         <v>127</v>
@@ -2592,16 +2577,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86">
-        <v>32059</v>
+        <v>876834</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2612,16 +2597,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D87">
-        <v>4156</v>
+        <v>28998</v>
       </c>
       <c r="E87">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2632,16 +2617,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D88">
-        <v>2646</v>
+        <v>2340</v>
       </c>
       <c r="E88">
         <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2652,16 +2637,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D89">
-        <v>15446</v>
+        <v>28998</v>
       </c>
       <c r="E89">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2672,16 +2657,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D90">
-        <v>20882</v>
+        <v>15320</v>
       </c>
       <c r="E90">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2692,16 +2677,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D91">
-        <v>7014</v>
+        <v>6528</v>
       </c>
       <c r="E91">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2712,16 +2697,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D92">
-        <v>3272</v>
+        <v>3128</v>
       </c>
       <c r="E92" t="s">
         <v>117</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2732,16 +2717,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D93">
-        <v>882</v>
+        <v>1260</v>
       </c>
       <c r="E93">
         <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2752,16 +2737,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D94">
-        <v>1260</v>
+        <v>1866</v>
       </c>
       <c r="E94">
         <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2772,16 +2757,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D95">
-        <v>1494</v>
+        <v>3012</v>
       </c>
       <c r="E95">
         <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2792,16 +2777,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D96">
-        <v>1980</v>
+        <v>972</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2812,16 +2797,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D97">
-        <v>1098</v>
+        <v>3500</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
-      <c r="F97" t="s">
-        <v>167</v>
+      <c r="F97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2835,10 +2820,10 @@
         <v>260</v>
       </c>
       <c r="D98">
-        <v>1404</v>
+        <v>1044</v>
       </c>
       <c r="E98">
-        <v>100</v>
+        <v>331</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2855,7 +2840,7 @@
         <v>260</v>
       </c>
       <c r="D99">
-        <v>2430</v>
+        <v>2322</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -2872,16 +2857,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D100">
-        <v>3292</v>
+        <v>1555</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2892,16 +2877,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D101">
-        <v>28081</v>
+        <v>12402</v>
       </c>
       <c r="E101">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2912,16 +2897,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D102">
-        <v>13394</v>
+        <v>20306</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2935,13 +2920,13 @@
         <v>26</v>
       </c>
       <c r="D103">
-        <v>13014</v>
+        <v>44492</v>
       </c>
       <c r="E103">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2952,16 +2937,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D104">
-        <v>20889</v>
+        <v>18477</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2972,16 +2957,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105">
-        <v>2509</v>
+        <v>17975</v>
       </c>
       <c r="E105">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2992,16 +2977,16 @@
         <v>116</v>
       </c>
       <c r="C106">
+        <v>33</v>
+      </c>
+      <c r="D106">
+        <v>75008</v>
+      </c>
+      <c r="E106">
         <v>31</v>
       </c>
-      <c r="D106">
-        <v>14087</v>
-      </c>
-      <c r="E106">
-        <v>41</v>
-      </c>
       <c r="F106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3012,16 +2997,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D107">
-        <v>78554</v>
+        <v>10564</v>
       </c>
       <c r="E107">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3032,16 +3017,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D108">
-        <v>8226</v>
+        <v>7812</v>
       </c>
       <c r="E108">
         <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,141 +34,141 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
     <t>Сб. Грудной №4 50г</t>
   </si>
   <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
     <t>Можжевельник плоды 50г</t>
   </si>
   <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
     <t>Боярышник плоды 75г</t>
   </si>
   <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
     <t>Липа цветки 35г</t>
   </si>
   <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
     <t>Толокнянка листья 50г</t>
   </si>
   <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
+    <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
     <t>Алтей корни 75г</t>
   </si>
   <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
     <t>Рябина плоды 50г</t>
   </si>
   <si>
@@ -184,174 +184,174 @@
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
   <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп Аир корневища 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
     <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
     <t>Фп Бадан корневища 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
     <t>Контрактная площадка</t>
   </si>
   <si>
@@ -370,16 +370,91 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-08</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2023-03-29</t>
+  </si>
+  <si>
+    <t>2023-04-20</t>
   </si>
   <si>
     <t>2023-01-24</t>
   </si>
   <si>
-    <t>2023-01-27</t>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
   </si>
   <si>
     <t>2023-01-30</t>
@@ -388,127 +463,43 @@
     <t>2023-01-31</t>
   </si>
   <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
     <t>2023-02-02</t>
   </si>
   <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
-  </si>
-  <si>
-    <t>2023-02-17</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-03-03</t>
-  </si>
-  <si>
-    <t>2023-03-07</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>2023-03-16</t>
-  </si>
-  <si>
-    <t>2023-04-19</t>
-  </si>
-  <si>
-    <t>2023-08-30</t>
-  </si>
-  <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-02-24</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2023-04-18</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
   </si>
   <si>
     <t>2023-08-23</t>
   </si>
   <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>2023-09-05</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>2023-03-06</t>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
   </si>
 </sst>
 </file>
@@ -897,10 +888,10 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2">
-        <v>78016</v>
+        <v>76160</v>
       </c>
       <c r="E2">
         <v>412</v>
@@ -917,13 +908,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>20923</v>
+        <v>15190</v>
       </c>
       <c r="E3">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -937,13 +928,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>8706</v>
-      </c>
-      <c r="E4" t="s">
-        <v>117</v>
+        <v>14742</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -957,16 +948,16 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>19078</v>
+        <v>18809</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -977,16 +968,16 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>11845</v>
+        <v>10873</v>
       </c>
       <c r="E6">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -997,16 +988,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>6921</v>
+        <v>20370</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1017,16 +1008,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21503</v>
+        <v>4715</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1037,16 +1028,16 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>21168</v>
+        <v>24573</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1057,16 +1048,16 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>23709</v>
+        <v>12154</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1077,16 +1068,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>24638</v>
+        <v>41385</v>
       </c>
       <c r="E11">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1097,16 +1088,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>25195</v>
+        <v>10937</v>
       </c>
       <c r="E12">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1117,13 +1108,13 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>15360</v>
+        <v>11785</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>124</v>
@@ -1137,13 +1128,13 @@
         <v>113</v>
       </c>
       <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>15918</v>
+      </c>
+      <c r="E14">
         <v>30</v>
-      </c>
-      <c r="D14">
-        <v>20508</v>
-      </c>
-      <c r="E14">
-        <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -1157,13 +1148,13 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>31668</v>
+        <v>27321</v>
       </c>
       <c r="E15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>125</v>
@@ -1177,16 +1168,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>7246</v>
+        <v>46151</v>
       </c>
       <c r="E16">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1197,13 +1188,13 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>16847</v>
+        <v>13130</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -1217,13 +1208,13 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>18760</v>
+        <v>6705</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
         <v>126</v>
@@ -1237,16 +1228,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>14703</v>
+        <v>25277</v>
       </c>
       <c r="E19">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1257,16 +1248,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>55601</v>
+        <v>13468</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1277,13 +1268,13 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>30276</v>
-      </c>
-      <c r="E21">
-        <v>44</v>
+        <v>14138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -1297,13 +1288,13 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>61514</v>
+        <v>17951</v>
       </c>
       <c r="E22">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
         <v>128</v>
@@ -1317,13 +1308,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>29114</v>
+        <v>75668</v>
       </c>
       <c r="E23">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -1337,13 +1328,13 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>15062</v>
+        <v>24080</v>
       </c>
       <c r="E24">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
@@ -1357,16 +1348,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>14507</v>
+        <v>12110</v>
       </c>
       <c r="E25">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1377,16 +1368,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>25987</v>
+        <v>17901</v>
       </c>
       <c r="E26">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1397,13 +1388,13 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>101841</v>
+        <v>11213</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
         <v>129</v>
@@ -1417,16 +1408,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>15381</v>
+        <v>19680</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1437,16 +1428,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>14809</v>
+        <v>70891</v>
       </c>
       <c r="E29">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1457,16 +1448,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>38241</v>
+        <v>23651</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1477,16 +1468,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>26017</v>
+        <v>40444</v>
       </c>
       <c r="E31">
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1497,16 +1488,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>18466</v>
+        <v>112579</v>
       </c>
       <c r="E32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1517,16 +1508,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>30394</v>
+        <v>30940</v>
       </c>
       <c r="E33">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1537,16 +1528,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>22324</v>
+        <v>20376</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1557,13 +1548,13 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>9155</v>
+        <v>33020</v>
       </c>
       <c r="E35">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
         <v>134</v>
@@ -1577,16 +1568,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>24159</v>
+        <v>38036</v>
       </c>
       <c r="E36">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1597,16 +1588,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>95489</v>
+        <v>32770</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1617,16 +1608,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>25182</v>
+        <v>25494</v>
       </c>
       <c r="E38">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1637,13 +1628,13 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>14391</v>
+        <v>75959</v>
       </c>
       <c r="E39">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>136</v>
@@ -1657,16 +1648,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>9576</v>
+        <v>11049</v>
       </c>
       <c r="E40">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1677,16 +1668,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>88951</v>
+        <v>28333</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1697,13 +1688,13 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>18102</v>
+        <v>34211</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
         <v>138</v>
@@ -1717,13 +1708,13 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>30930</v>
+        <v>18161</v>
       </c>
       <c r="E43">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
         <v>139</v>
@@ -1737,16 +1728,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>23663</v>
+        <v>24462</v>
       </c>
       <c r="E44">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1757,13 +1748,13 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>52626</v>
+        <v>14655</v>
       </c>
       <c r="E45">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
         <v>140</v>
@@ -1777,13 +1768,13 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>13841</v>
+        <v>28193</v>
       </c>
       <c r="E46">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
         <v>141</v>
@@ -1797,13 +1788,13 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>41129</v>
+        <v>9753</v>
       </c>
       <c r="E47">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
         <v>142</v>
@@ -1817,10 +1808,10 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="D48">
-        <v>5026</v>
+        <v>4032</v>
       </c>
       <c r="E48">
         <v>52</v>
@@ -1837,10 +1828,10 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>5007</v>
+        <v>3150</v>
       </c>
       <c r="E49">
         <v>41</v>
@@ -1857,16 +1848,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>3550</v>
+        <v>2950</v>
       </c>
       <c r="E50">
         <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1877,16 +1868,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>3010</v>
+        <v>1340</v>
       </c>
       <c r="E51">
         <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1897,16 +1888,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>18448</v>
+        <v>14468</v>
       </c>
       <c r="E52">
         <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1917,16 +1908,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>4870</v>
+        <v>1240</v>
       </c>
       <c r="E53">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1937,16 +1928,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="D54">
-        <v>2304</v>
+        <v>4300</v>
       </c>
       <c r="E54">
-        <v>315</v>
+        <v>229</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1957,10 +1948,10 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D55">
-        <v>7170</v>
+        <v>6940</v>
       </c>
       <c r="E55">
         <v>353</v>
@@ -1980,13 +1971,13 @@
         <v>11</v>
       </c>
       <c r="D56">
-        <v>14238</v>
+        <v>267097</v>
       </c>
       <c r="E56">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1997,16 +1988,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>6768</v>
+        <v>7947</v>
       </c>
       <c r="E57">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2017,16 +2008,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>61735</v>
+        <v>1332</v>
       </c>
       <c r="E58">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2037,16 +2028,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>9268</v>
+        <v>7236</v>
       </c>
       <c r="E59">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2057,16 +2048,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>1643</v>
+        <v>7218</v>
       </c>
       <c r="E60">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2077,16 +2068,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>25011</v>
+        <v>26784</v>
       </c>
       <c r="E61">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2097,16 +2088,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D62">
-        <v>46949</v>
+        <v>15859</v>
       </c>
       <c r="E62">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2117,16 +2108,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D63">
-        <v>13833</v>
+        <v>23433</v>
       </c>
       <c r="E63">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2137,16 +2128,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D64">
-        <v>20930</v>
+        <v>12168</v>
       </c>
       <c r="E64">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2157,16 +2148,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>18959</v>
+        <v>12600</v>
       </c>
       <c r="E65">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2177,16 +2168,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>29466</v>
+        <v>13634</v>
       </c>
       <c r="E66">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2197,16 +2188,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>19376</v>
+        <v>2266</v>
       </c>
       <c r="E67">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2217,16 +2208,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>46277</v>
+        <v>34997</v>
       </c>
       <c r="E68">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2237,16 +2228,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>79744</v>
+        <v>33457</v>
       </c>
       <c r="E69">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2257,16 +2248,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>17547</v>
+        <v>21951</v>
       </c>
       <c r="E70">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2277,16 +2268,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>589097</v>
+        <v>16486</v>
       </c>
       <c r="E71">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2297,16 +2288,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D72">
-        <v>43267</v>
+        <v>31919</v>
       </c>
       <c r="E72">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2317,16 +2308,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>109921</v>
+        <v>36269</v>
       </c>
       <c r="E73">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2337,16 +2328,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D74">
-        <v>2430</v>
+        <v>24971</v>
       </c>
       <c r="E74">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2357,16 +2348,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D75">
-        <v>15120</v>
+        <v>53012</v>
       </c>
       <c r="E75">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2377,16 +2368,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D76">
-        <v>44457</v>
+        <v>10082</v>
       </c>
       <c r="E76">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2397,16 +2388,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>19889</v>
+        <v>20790</v>
       </c>
       <c r="E77">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2417,16 +2408,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D78">
-        <v>23166</v>
+        <v>38988</v>
       </c>
       <c r="E78">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2437,16 +2428,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D79">
-        <v>2080</v>
+        <v>121081</v>
       </c>
       <c r="E79">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2457,16 +2448,16 @@
         <v>115</v>
       </c>
       <c r="C80">
+        <v>25</v>
+      </c>
+      <c r="D80">
+        <v>24389</v>
+      </c>
+      <c r="E80">
         <v>28</v>
       </c>
-      <c r="D80">
-        <v>28585</v>
-      </c>
-      <c r="E80">
-        <v>30</v>
-      </c>
       <c r="F80" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2477,16 +2468,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81">
-        <v>55314</v>
+        <v>24920</v>
       </c>
       <c r="E81">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2497,16 +2488,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D82">
-        <v>3814</v>
+        <v>19964</v>
       </c>
       <c r="E82">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2517,16 +2508,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83">
-        <v>23382</v>
+        <v>154152</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2537,16 +2528,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>66458</v>
+        <v>123264</v>
       </c>
       <c r="E84">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2560,13 +2551,13 @@
         <v>32</v>
       </c>
       <c r="D85">
-        <v>16454</v>
+        <v>69714</v>
       </c>
       <c r="E85">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2580,13 +2571,13 @@
         <v>32</v>
       </c>
       <c r="D86">
-        <v>876834</v>
+        <v>5070</v>
       </c>
       <c r="E86">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2597,16 +2588,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D87">
-        <v>28998</v>
+        <v>1324854</v>
       </c>
       <c r="E87">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2617,16 +2608,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D88">
-        <v>2340</v>
+        <v>43680</v>
       </c>
       <c r="E88">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2637,16 +2628,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D89">
-        <v>28998</v>
-      </c>
-      <c r="E89">
-        <v>36</v>
+        <v>2534</v>
+      </c>
+      <c r="E89" t="s">
+        <v>117</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2657,16 +2648,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="D90">
-        <v>15320</v>
+        <v>8398</v>
       </c>
       <c r="E90">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2677,16 +2668,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="D91">
-        <v>6528</v>
+        <v>1458</v>
       </c>
       <c r="E91">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F91" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2697,16 +2688,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="D92">
-        <v>3128</v>
-      </c>
-      <c r="E92" t="s">
-        <v>117</v>
+        <v>13396</v>
+      </c>
+      <c r="E92">
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2717,16 +2708,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D93">
-        <v>1260</v>
+        <v>2844</v>
       </c>
       <c r="E93">
         <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2737,16 +2728,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="D94">
-        <v>1866</v>
+        <v>3268</v>
       </c>
       <c r="E94">
         <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2757,16 +2748,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="D95">
-        <v>3012</v>
+        <v>10206</v>
       </c>
       <c r="E95">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2777,16 +2768,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="D96">
-        <v>972</v>
+        <v>2106</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2797,16 +2788,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D97">
-        <v>3500</v>
+        <v>3996</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
-      <c r="F97">
-        <v>0</v>
+      <c r="F97" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2817,10 +2808,10 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D98">
-        <v>1044</v>
+        <v>846</v>
       </c>
       <c r="E98">
         <v>331</v>
@@ -2837,10 +2828,10 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D99">
-        <v>2322</v>
+        <v>1872</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -2857,16 +2848,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D100">
-        <v>1555</v>
+        <v>7895</v>
       </c>
       <c r="E100">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2877,16 +2868,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D101">
-        <v>12402</v>
+        <v>7740</v>
       </c>
       <c r="E101">
         <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2897,16 +2888,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D102">
-        <v>20306</v>
+        <v>12537</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2917,16 +2908,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D103">
-        <v>44492</v>
+        <v>50258</v>
       </c>
       <c r="E103">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2937,16 +2928,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D104">
-        <v>18477</v>
+        <v>56516</v>
       </c>
       <c r="E104">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2957,16 +2948,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D105">
-        <v>17975</v>
+        <v>27324</v>
       </c>
       <c r="E105">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2977,16 +2968,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D106">
-        <v>75008</v>
+        <v>9124</v>
       </c>
       <c r="E106">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2997,16 +2988,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D107">
-        <v>10564</v>
+        <v>5670</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3017,16 +3008,16 @@
         <v>116</v>
       </c>
       <c r="C108">
+        <v>44</v>
+      </c>
+      <c r="D108">
+        <v>4273</v>
+      </c>
+      <c r="E108">
         <v>51</v>
       </c>
-      <c r="D108">
-        <v>7812</v>
-      </c>
-      <c r="E108">
-        <v>33</v>
-      </c>
       <c r="F108" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="158">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,324 +34,324 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
     <t>Чистотел трава 50г</t>
   </si>
   <si>
-    <t>Валериана корневища с корнями 50г</t>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
   </si>
   <si>
     <t>Кукуруза столбики с рыльцами 40г</t>
   </si>
   <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
   </si>
   <si>
     <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
   </si>
   <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
     <t>Фп Чистотел трава 20х1,5г</t>
   </si>
   <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Береза листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+    <t>Фп Шиповник плоды 20х2,0г</t>
   </si>
   <si>
     <t>Фп Череда трава 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
     <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
   <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Девясил корневища и корни 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
     <t>Контрактная площадка</t>
   </si>
   <si>
@@ -370,136 +370,124 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>2023-03-22</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
   </si>
   <si>
     <t>2023-02-08</t>
   </si>
   <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
     <t>2023-02-13</t>
   </si>
   <si>
+    <t>2023-03-28</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-28</t>
+  </si>
+  <si>
     <t>2023-02-14</t>
   </si>
   <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
-  </si>
-  <si>
-    <t>2023-02-17</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-02-22</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>2023-02-24</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-03-01</t>
-  </si>
-  <si>
-    <t>2023-03-02</t>
-  </si>
-  <si>
-    <t>2023-03-06</t>
-  </si>
-  <si>
     <t>2023-03-08</t>
   </si>
   <si>
-    <t>2023-03-10</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>2023-03-16</t>
-  </si>
-  <si>
-    <t>2023-03-20</t>
-  </si>
-  <si>
-    <t>2023-03-29</t>
-  </si>
-  <si>
-    <t>2023-04-20</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-08-30</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-03-15</t>
-  </si>
-  <si>
-    <t>2023-04-18</t>
-  </si>
-  <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>2023-12-11</t>
-  </si>
-  <si>
-    <t>2023-12-18</t>
-  </si>
-  <si>
-    <t>2023-03-14</t>
+    <t>2023-03-17</t>
   </si>
 </sst>
 </file>
@@ -888,13 +876,13 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D2">
-        <v>76160</v>
+        <v>74464</v>
       </c>
       <c r="E2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -908,13 +896,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>15190</v>
+        <v>21253</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -928,13 +916,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>14742</v>
+        <v>7185</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -948,16 +936,16 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>18809</v>
+        <v>56011</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -968,13 +956,13 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>10873</v>
+        <v>8384</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>120</v>
@@ -988,13 +976,13 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>20370</v>
+        <v>16920</v>
       </c>
       <c r="E7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>120</v>
@@ -1008,16 +996,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>4715</v>
+        <v>9381</v>
       </c>
       <c r="E8">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1028,13 +1016,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>24573</v>
+        <v>5041</v>
       </c>
       <c r="E9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>121</v>
@@ -1048,10 +1036,10 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>12154</v>
+        <v>11532</v>
       </c>
       <c r="E10">
         <v>32</v>
@@ -1068,13 +1056,13 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>41385</v>
+        <v>8007</v>
       </c>
       <c r="E11">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>122</v>
@@ -1088,16 +1076,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>10937</v>
+        <v>14317</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1108,16 +1096,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>11785</v>
+        <v>13353</v>
       </c>
       <c r="E13">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1128,16 +1116,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>15918</v>
+        <v>22661</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1148,16 +1136,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>27321</v>
+        <v>18228</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1168,16 +1156,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>46151</v>
+        <v>30569</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1188,16 +1176,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>13130</v>
+        <v>32558</v>
       </c>
       <c r="E17">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1208,16 +1196,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>6705</v>
+        <v>19873</v>
       </c>
       <c r="E18">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1228,16 +1216,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>25277</v>
-      </c>
-      <c r="E19">
-        <v>42</v>
+        <v>10653</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1248,16 +1236,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>13468</v>
+        <v>29818</v>
       </c>
       <c r="E20">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1268,16 +1256,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>14138</v>
-      </c>
-      <c r="E21" t="s">
-        <v>117</v>
+        <v>22859</v>
+      </c>
+      <c r="E21">
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1288,16 +1276,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>17951</v>
+        <v>18135</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1308,16 +1296,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>75668</v>
+        <v>15588</v>
       </c>
       <c r="E23">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1328,13 +1316,13 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>24080</v>
+        <v>21030</v>
       </c>
       <c r="E24">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
@@ -1348,13 +1336,13 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>12110</v>
+        <v>26862</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
         <v>128</v>
@@ -1368,13 +1356,13 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>17901</v>
+        <v>9831</v>
       </c>
       <c r="E26">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -1388,16 +1376,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>11213</v>
+        <v>15768</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1408,13 +1396,13 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>19680</v>
+        <v>23898</v>
       </c>
       <c r="E28">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
         <v>129</v>
@@ -1428,16 +1416,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>70891</v>
+        <v>37808</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1448,13 +1436,13 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>23651</v>
+        <v>30084</v>
       </c>
       <c r="E30">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>130</v>
@@ -1468,13 +1456,13 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>40444</v>
+        <v>19611</v>
       </c>
       <c r="E31">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
         <v>131</v>
@@ -1488,13 +1476,13 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>112579</v>
+        <v>18032</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
         <v>131</v>
@@ -1508,13 +1496,13 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>30940</v>
+        <v>28385</v>
       </c>
       <c r="E33">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
         <v>132</v>
@@ -1528,16 +1516,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>20376</v>
+        <v>122652</v>
       </c>
       <c r="E34">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1548,16 +1536,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>33020</v>
+        <v>12449</v>
       </c>
       <c r="E35">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1568,16 +1556,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>38036</v>
+        <v>63029</v>
       </c>
       <c r="E36">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1588,16 +1576,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>32770</v>
+        <v>27296</v>
       </c>
       <c r="E37">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1608,16 +1596,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>25494</v>
+        <v>78640</v>
       </c>
       <c r="E38">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1628,16 +1616,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>75959</v>
+        <v>10861</v>
       </c>
       <c r="E39">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1648,16 +1636,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>11049</v>
+        <v>24340</v>
       </c>
       <c r="E40">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1668,16 +1656,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>28333</v>
+        <v>26265</v>
       </c>
       <c r="E41">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1688,16 +1676,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>34211</v>
+        <v>3150</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1708,16 +1696,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>18161</v>
+        <v>46819</v>
       </c>
       <c r="E43">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1728,16 +1716,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D44">
-        <v>24462</v>
+        <v>22038</v>
       </c>
       <c r="E44">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1748,16 +1736,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>14655</v>
+        <v>8203</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1768,16 +1756,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D46">
-        <v>28193</v>
+        <v>21779</v>
       </c>
       <c r="E46">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1788,16 +1776,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D47">
-        <v>9753</v>
+        <v>31733</v>
       </c>
       <c r="E47">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1808,16 +1796,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="D48">
-        <v>4032</v>
+        <v>8670</v>
       </c>
       <c r="E48">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1828,16 +1816,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>3150</v>
+        <v>3890</v>
       </c>
       <c r="E49">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1848,16 +1836,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>2950</v>
+        <v>3490</v>
       </c>
       <c r="E50">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1871,13 +1859,13 @@
         <v>21</v>
       </c>
       <c r="D51">
-        <v>1340</v>
+        <v>8788</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1888,16 +1876,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>14468</v>
+        <v>1980</v>
       </c>
       <c r="E52">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1908,16 +1896,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D53">
-        <v>1240</v>
+        <v>5520</v>
       </c>
       <c r="E53">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1928,16 +1916,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D54">
-        <v>4300</v>
+        <v>3660</v>
       </c>
       <c r="E54">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1948,13 +1936,13 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D55">
-        <v>6940</v>
+        <v>6670</v>
       </c>
       <c r="E55">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1971,13 +1959,13 @@
         <v>11</v>
       </c>
       <c r="D56">
-        <v>267097</v>
+        <v>16259</v>
       </c>
       <c r="E56">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1988,10 +1976,10 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>7947</v>
+        <v>23130</v>
       </c>
       <c r="E57">
         <v>29</v>
@@ -2008,16 +1996,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58">
-        <v>1332</v>
+        <v>30260</v>
       </c>
       <c r="E58">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2028,16 +2016,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>7236</v>
+        <v>34326</v>
       </c>
       <c r="E59">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2048,16 +2036,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>7218</v>
+        <v>16730</v>
       </c>
       <c r="E60">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2068,16 +2056,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>26784</v>
+        <v>19456</v>
       </c>
       <c r="E61">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2088,16 +2076,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>15859</v>
+        <v>89728</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2108,16 +2096,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>23433</v>
+        <v>18205</v>
       </c>
       <c r="E63">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2128,16 +2116,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>12168</v>
+        <v>16614</v>
       </c>
       <c r="E64">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2148,16 +2136,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>12600</v>
+        <v>14780</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2168,16 +2156,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>13634</v>
+        <v>41778</v>
       </c>
       <c r="E66">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2188,16 +2176,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>2266</v>
+        <v>100602</v>
       </c>
       <c r="E67">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2208,16 +2196,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>34997</v>
+        <v>580081</v>
       </c>
       <c r="E68">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2228,16 +2216,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>33457</v>
+        <v>27251</v>
       </c>
       <c r="E69">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2248,16 +2236,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>21951</v>
+        <v>8498</v>
       </c>
       <c r="E70">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2268,16 +2256,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>16486</v>
+        <v>3432</v>
       </c>
       <c r="E71">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2288,16 +2276,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>31919</v>
+        <v>14634</v>
       </c>
       <c r="E72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2308,16 +2296,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73">
-        <v>36269</v>
+        <v>37527</v>
       </c>
       <c r="E73">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2331,13 +2319,13 @@
         <v>22</v>
       </c>
       <c r="D74">
-        <v>24971</v>
+        <v>20619</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2348,16 +2336,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>53012</v>
+        <v>56641</v>
       </c>
       <c r="E75">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2368,16 +2356,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76">
-        <v>10082</v>
+        <v>30384</v>
       </c>
       <c r="E76">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2388,16 +2376,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>20790</v>
+        <v>92142</v>
       </c>
       <c r="E77">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2408,16 +2396,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>38988</v>
+        <v>15768</v>
       </c>
       <c r="E78">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2431,13 +2419,13 @@
         <v>25</v>
       </c>
       <c r="D79">
-        <v>121081</v>
+        <v>54104</v>
       </c>
       <c r="E79">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2448,16 +2436,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D80">
-        <v>24389</v>
+        <v>27126</v>
       </c>
       <c r="E80">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2471,13 +2459,13 @@
         <v>27</v>
       </c>
       <c r="D81">
-        <v>24920</v>
+        <v>57042</v>
       </c>
       <c r="E81">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2488,13 +2476,13 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D82">
-        <v>19964</v>
+        <v>44573</v>
       </c>
       <c r="E82">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
         <v>131</v>
@@ -2508,13 +2496,13 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>154152</v>
+        <v>35919</v>
       </c>
       <c r="E83">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
         <v>131</v>
@@ -2528,16 +2516,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D84">
-        <v>123264</v>
+        <v>4876</v>
       </c>
       <c r="E84">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2548,16 +2536,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85">
-        <v>69714</v>
+        <v>4389</v>
       </c>
       <c r="E85">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2568,16 +2556,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86">
-        <v>5070</v>
+        <v>36642</v>
       </c>
       <c r="E86">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2588,16 +2576,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D87">
-        <v>1324854</v>
+        <v>44243</v>
       </c>
       <c r="E87">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2611,13 +2599,13 @@
         <v>45</v>
       </c>
       <c r="D88">
-        <v>43680</v>
+        <v>1436508</v>
       </c>
       <c r="E88">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2628,16 +2616,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D89">
-        <v>2534</v>
+        <v>1724</v>
       </c>
       <c r="E89" t="s">
         <v>117</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2648,16 +2636,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D90">
-        <v>8398</v>
+        <v>8182</v>
       </c>
       <c r="E90">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2668,16 +2656,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D91">
-        <v>1458</v>
+        <v>2718</v>
       </c>
       <c r="E91">
         <v>100</v>
       </c>
       <c r="F91" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2688,16 +2676,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D92">
-        <v>13396</v>
+        <v>12460</v>
       </c>
       <c r="E92">
         <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2708,16 +2696,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D93">
-        <v>2844</v>
+        <v>2602</v>
       </c>
       <c r="E93">
         <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2728,16 +2716,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D94">
-        <v>3268</v>
+        <v>10044</v>
       </c>
       <c r="E94">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2751,13 +2739,13 @@
         <v>227</v>
       </c>
       <c r="D95">
-        <v>10206</v>
+        <v>4266</v>
       </c>
       <c r="E95">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2768,16 +2756,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D96">
-        <v>2106</v>
+        <v>3870</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2788,16 +2776,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D97">
-        <v>3996</v>
+        <v>3646</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2808,13 +2796,13 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D98">
-        <v>846</v>
+        <v>2016</v>
       </c>
       <c r="E98">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2828,10 +2816,10 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D99">
-        <v>1872</v>
+        <v>3392</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -2848,16 +2836,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100">
-        <v>7895</v>
+        <v>17478</v>
       </c>
       <c r="E100">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2868,16 +2856,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D101">
-        <v>7740</v>
+        <v>5866</v>
       </c>
       <c r="E101">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2888,16 +2876,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102">
-        <v>12537</v>
+        <v>41684</v>
       </c>
       <c r="E102">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2908,16 +2896,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D103">
-        <v>50258</v>
+        <v>11664</v>
       </c>
       <c r="E103">
         <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2928,16 +2916,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D104">
-        <v>56516</v>
+        <v>48710</v>
       </c>
       <c r="E104">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2948,16 +2936,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D105">
-        <v>27324</v>
+        <v>22092</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2968,16 +2956,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D106">
-        <v>9124</v>
+        <v>5310</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2988,16 +2976,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D107">
-        <v>5670</v>
+        <v>3931</v>
       </c>
       <c r="E107">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3008,16 +2996,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D108">
-        <v>4273</v>
+        <v>25316</v>
       </c>
       <c r="E108">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
   <si>
     <t>Линия производства</t>
   </si>
@@ -37,135 +37,135 @@
     <t>Сб. Грудной №4 50г</t>
   </si>
   <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
     <t>Крушина кора 50г</t>
   </si>
   <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
     <t>Лен семена 100г</t>
   </si>
   <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
     <t>Пустырник трава 50г</t>
   </si>
   <si>
-    <t>Сенна листья 50г</t>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
   </si>
   <si>
     <t>Подорожник большой листья 50г</t>
   </si>
   <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
     <t>Чага (березовый гриб) 50г</t>
   </si>
   <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
     <t>Береза почки 50г</t>
   </si>
   <si>
@@ -178,180 +178,180 @@
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
     <t>Фп Подорожник листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+    <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
   </si>
   <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
     <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
   <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
     <t>Фп Бадан корневища 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
     <t>Контрактная площадка</t>
   </si>
   <si>
@@ -370,13 +370,10 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
   </si>
   <si>
     <t>2023-02-16</t>
@@ -385,109 +382,124 @@
     <t>2023-02-17</t>
   </si>
   <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-08</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2023-03-21</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>2023-03-28</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>2023-04-11</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-03-22</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
     <t>2023-02-20</t>
   </si>
   <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-02-22</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>2023-02-24</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-03-01</t>
-  </si>
-  <si>
-    <t>2023-03-02</t>
-  </si>
-  <si>
-    <t>2023-03-06</t>
-  </si>
-  <si>
-    <t>2023-03-09</t>
-  </si>
-  <si>
-    <t>2023-03-10</t>
+    <t>2023-03-07</t>
   </si>
   <si>
     <t>2023-03-13</t>
   </si>
   <si>
-    <t>2023-03-15</t>
-  </si>
-  <si>
     <t>2023-03-16</t>
   </si>
   <si>
-    <t>2023-03-22</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>2023-04-19</t>
-  </si>
-  <si>
-    <t>2023-08-25</t>
-  </si>
-  <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>2023-05-04</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
   </si>
   <si>
     <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>2023-03-28</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>2023-11-30</t>
-  </si>
-  <si>
-    <t>2023-12-07</t>
-  </si>
-  <si>
-    <t>2023-12-08</t>
-  </si>
-  <si>
-    <t>2023-12-28</t>
-  </si>
-  <si>
-    <t>2023-02-14</t>
-  </si>
-  <si>
-    <t>2023-03-08</t>
-  </si>
-  <si>
-    <t>2023-03-17</t>
   </si>
 </sst>
 </file>
@@ -876,10 +888,10 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D2">
-        <v>74464</v>
+        <v>73440</v>
       </c>
       <c r="E2">
         <v>394</v>
@@ -896,10 +908,10 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>21253</v>
+        <v>15877</v>
       </c>
       <c r="E3">
         <v>116</v>
@@ -916,13 +928,13 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>7185</v>
+        <v>12441</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -936,13 +948,13 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>56011</v>
+        <v>3361</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>120</v>
@@ -956,13 +968,13 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>8384</v>
+        <v>8339</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>120</v>
@@ -976,16 +988,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>16920</v>
+        <v>18744</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -996,16 +1008,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>9381</v>
+        <v>14350</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1016,16 +1028,16 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>5041</v>
+        <v>14254</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1039,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>11532</v>
+        <v>35449</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1059,13 +1071,13 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>8007</v>
+        <v>20942</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1079,13 +1091,13 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>14317</v>
+        <v>9313</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1099,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>13353</v>
+        <v>17073</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1116,16 +1128,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>22661</v>
+        <v>20492</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1136,16 +1148,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>18228</v>
+        <v>27014</v>
       </c>
       <c r="E15">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1159,13 +1171,13 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>30569</v>
+        <v>68815</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1179,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>32558</v>
+        <v>28126</v>
       </c>
       <c r="E17">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1196,16 +1208,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>19873</v>
+        <v>13118</v>
       </c>
       <c r="E18">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1219,13 +1231,13 @@
         <v>20</v>
       </c>
       <c r="D19">
-        <v>10653</v>
-      </c>
-      <c r="E19" t="s">
-        <v>117</v>
+        <v>7871</v>
+      </c>
+      <c r="E19">
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1236,16 +1248,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>29818</v>
+        <v>29338</v>
       </c>
       <c r="E20">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1256,16 +1268,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>22859</v>
+        <v>19020</v>
       </c>
       <c r="E21">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1276,16 +1288,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>18135</v>
+        <v>15033</v>
       </c>
       <c r="E22">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1296,16 +1308,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>15588</v>
+        <v>8991</v>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1316,16 +1328,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>21030</v>
+        <v>90690</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1336,16 +1348,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>26862</v>
+        <v>21295</v>
       </c>
       <c r="E25">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1356,16 +1368,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>9831</v>
+        <v>20507</v>
       </c>
       <c r="E26">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1376,16 +1388,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>15768</v>
+        <v>18373</v>
       </c>
       <c r="E27">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1396,16 +1408,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>23898</v>
+        <v>17068</v>
       </c>
       <c r="E28">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1416,16 +1428,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>37808</v>
+        <v>18355</v>
       </c>
       <c r="E29">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1436,16 +1448,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>30084</v>
+        <v>11618</v>
       </c>
       <c r="E30">
         <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1456,16 +1468,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>19611</v>
+        <v>11129</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1476,16 +1488,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>18032</v>
+        <v>33827</v>
       </c>
       <c r="E32">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1496,16 +1508,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>28385</v>
+        <v>19188</v>
       </c>
       <c r="E33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1516,16 +1528,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>122652</v>
+        <v>21738</v>
       </c>
       <c r="E34">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1536,16 +1548,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>12449</v>
+        <v>24626</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1556,16 +1568,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>63029</v>
+        <v>9279</v>
       </c>
       <c r="E36">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1576,16 +1588,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>27296</v>
+        <v>17292</v>
       </c>
       <c r="E37">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1596,16 +1608,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>78640</v>
+        <v>27850</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1616,16 +1628,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>10861</v>
+        <v>2800</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1639,13 +1651,13 @@
         <v>33</v>
       </c>
       <c r="D40">
-        <v>24340</v>
+        <v>81300</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1659,13 +1671,13 @@
         <v>34</v>
       </c>
       <c r="D41">
-        <v>26265</v>
-      </c>
-      <c r="E41">
-        <v>33</v>
+        <v>15298</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1676,16 +1688,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>3150</v>
+        <v>26010</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1696,16 +1708,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>46819</v>
+        <v>7237</v>
       </c>
       <c r="E43">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1716,16 +1728,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>22038</v>
+        <v>16683</v>
       </c>
       <c r="E44">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1736,16 +1748,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D45">
-        <v>8203</v>
+        <v>17075</v>
       </c>
       <c r="E45">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1756,16 +1768,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>21779</v>
+        <v>26020</v>
       </c>
       <c r="E46">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1776,16 +1788,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D47">
-        <v>31733</v>
+        <v>26147</v>
       </c>
       <c r="E47">
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1796,16 +1808,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D48">
-        <v>8670</v>
+        <v>7312</v>
       </c>
       <c r="E48">
         <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1816,16 +1828,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>3890</v>
+        <v>1850</v>
       </c>
       <c r="E49">
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1836,16 +1848,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>3490</v>
+        <v>3220</v>
       </c>
       <c r="E50">
         <v>285</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1856,16 +1868,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D51">
-        <v>8788</v>
+        <v>4480</v>
       </c>
       <c r="E51">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1876,16 +1888,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>1980</v>
+        <v>14338</v>
       </c>
       <c r="E52">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1896,16 +1908,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D53">
-        <v>5520</v>
+        <v>3770</v>
       </c>
       <c r="E53">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1916,16 +1928,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D54">
-        <v>3660</v>
+        <v>2810</v>
       </c>
       <c r="E54">
         <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1936,10 +1948,10 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D55">
-        <v>6670</v>
+        <v>6320</v>
       </c>
       <c r="E55">
         <v>339</v>
@@ -1956,16 +1968,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D56">
-        <v>16259</v>
+        <v>2334</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1976,16 +1988,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>23130</v>
+        <v>10818</v>
       </c>
       <c r="E57">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1996,16 +2008,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>30260</v>
+        <v>6788</v>
       </c>
       <c r="E58">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2016,16 +2028,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>34326</v>
+        <v>66852</v>
       </c>
       <c r="E59">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2036,16 +2048,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D60">
-        <v>16730</v>
+        <v>11736</v>
       </c>
       <c r="E60">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2056,16 +2068,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>19456</v>
+        <v>19314</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2076,16 +2088,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>89728</v>
+        <v>107395</v>
       </c>
       <c r="E62">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2096,16 +2108,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>18205</v>
+        <v>24174</v>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F63" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2116,16 +2128,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>16614</v>
+        <v>33017</v>
       </c>
       <c r="E64">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2136,16 +2148,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>14780</v>
+        <v>26765</v>
       </c>
       <c r="E65">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2156,16 +2168,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>41778</v>
+        <v>50814</v>
       </c>
       <c r="E66">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2176,16 +2188,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>100602</v>
+        <v>24154</v>
       </c>
       <c r="E67">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2196,16 +2208,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>580081</v>
+        <v>30807</v>
       </c>
       <c r="E68">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2216,16 +2228,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>27251</v>
+        <v>22270</v>
       </c>
       <c r="E69">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2236,16 +2248,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D70">
-        <v>8498</v>
+        <v>47875</v>
       </c>
       <c r="E70">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2256,16 +2268,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D71">
-        <v>3432</v>
+        <v>4102</v>
       </c>
       <c r="E71">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2276,16 +2288,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>14634</v>
+        <v>34128</v>
       </c>
       <c r="E72">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2296,16 +2308,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>37527</v>
+        <v>60399</v>
       </c>
       <c r="E73">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2316,16 +2328,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D74">
-        <v>20619</v>
+        <v>61274</v>
       </c>
       <c r="E74">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2336,16 +2348,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D75">
-        <v>56641</v>
+        <v>29484</v>
       </c>
       <c r="E75">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2356,16 +2368,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D76">
-        <v>30384</v>
+        <v>3741</v>
       </c>
       <c r="E76">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2376,16 +2388,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D77">
-        <v>92142</v>
+        <v>697284</v>
       </c>
       <c r="E77">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2396,16 +2408,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D78">
-        <v>15768</v>
+        <v>151953</v>
       </c>
       <c r="E78">
         <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2416,16 +2428,16 @@
         <v>115</v>
       </c>
       <c r="C79">
+        <v>28</v>
+      </c>
+      <c r="D79">
+        <v>28322</v>
+      </c>
+      <c r="E79">
         <v>25</v>
       </c>
-      <c r="D79">
-        <v>54104</v>
-      </c>
-      <c r="E79">
-        <v>44</v>
-      </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2436,16 +2448,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D80">
-        <v>27126</v>
+        <v>63841</v>
       </c>
       <c r="E80">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2456,16 +2468,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>57042</v>
+        <v>30663</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2476,16 +2488,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D82">
-        <v>44573</v>
+        <v>22819</v>
       </c>
       <c r="E82">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2496,16 +2508,16 @@
         <v>115</v>
       </c>
       <c r="C83">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <v>78515</v>
+      </c>
+      <c r="E83">
         <v>27</v>
       </c>
-      <c r="D83">
-        <v>35919</v>
-      </c>
-      <c r="E83">
-        <v>32</v>
-      </c>
       <c r="F83" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2516,16 +2528,16 @@
         <v>115</v>
       </c>
       <c r="C84">
+        <v>32</v>
+      </c>
+      <c r="D84">
+        <v>53667</v>
+      </c>
+      <c r="E84">
         <v>29</v>
       </c>
-      <c r="D84">
-        <v>4876</v>
-      </c>
-      <c r="E84">
-        <v>37</v>
-      </c>
       <c r="F84" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2536,16 +2548,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85">
-        <v>4389</v>
+        <v>42460</v>
       </c>
       <c r="E85">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2559,13 +2571,13 @@
         <v>33</v>
       </c>
       <c r="D86">
-        <v>36642</v>
+        <v>23631</v>
       </c>
       <c r="E86">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2576,16 +2588,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D87">
-        <v>44243</v>
+        <v>1130381</v>
       </c>
       <c r="E87">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2596,16 +2608,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D88">
-        <v>1436508</v>
+        <v>63018</v>
       </c>
       <c r="E88">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2616,16 +2628,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D89">
-        <v>1724</v>
+        <v>1562</v>
       </c>
       <c r="E89" t="s">
         <v>117</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2636,16 +2648,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D90">
-        <v>8182</v>
+        <v>7516</v>
       </c>
       <c r="E90">
         <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2656,16 +2668,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D91">
-        <v>2718</v>
+        <v>11704</v>
       </c>
       <c r="E91">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2676,16 +2688,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="D92">
-        <v>12460</v>
+        <v>9054</v>
       </c>
       <c r="E92">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2696,16 +2708,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D93">
-        <v>2602</v>
+        <v>3834</v>
       </c>
       <c r="E93">
         <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2716,16 +2728,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D94">
-        <v>10044</v>
+        <v>3816</v>
       </c>
       <c r="E94">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2736,16 +2748,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D95">
-        <v>4266</v>
+        <v>4212</v>
       </c>
       <c r="E95">
         <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2756,16 +2768,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D96">
-        <v>3870</v>
+        <v>2818</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2776,16 +2788,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D97">
-        <v>3646</v>
+        <v>5040</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2796,10 +2808,10 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D98">
-        <v>2016</v>
+        <v>1836</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -2816,10 +2828,10 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D99">
-        <v>3392</v>
+        <v>2888</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -2836,16 +2848,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>17478</v>
+        <v>3148</v>
       </c>
       <c r="E100">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2856,16 +2868,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>5866</v>
+        <v>24386</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2876,16 +2888,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D102">
-        <v>41684</v>
+        <v>7452</v>
       </c>
       <c r="E102">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2896,16 +2908,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D103">
-        <v>11664</v>
+        <v>14622</v>
       </c>
       <c r="E103">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2916,16 +2928,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104">
-        <v>48710</v>
+        <v>19386</v>
       </c>
       <c r="E104">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2936,16 +2948,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D105">
-        <v>22092</v>
+        <v>52040</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2956,16 +2968,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D106">
-        <v>5310</v>
+        <v>4050</v>
       </c>
       <c r="E106">
         <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2976,16 +2988,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D107">
-        <v>3931</v>
+        <v>21626</v>
       </c>
       <c r="E107">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2996,16 +3008,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D108">
-        <v>25316</v>
+        <v>3733</v>
       </c>
       <c r="E108">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F108" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,324 +34,324 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
     <t>Сб. Грудной №4 50г</t>
   </si>
   <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
     <t>Мать-и-мачеха листья 35г</t>
   </si>
   <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
     <t>Боярышник плоды 75г</t>
   </si>
   <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
     <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
   </si>
   <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
   <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
+  </si>
+  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
     <t>Фп Пижма цветки 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
     <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
   <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Элекасол 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
   </si>
   <si>
     <t>Фп Липа цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
+    <t>Фп Аир корневища 20x1,5г</t>
   </si>
   <si>
     <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Аир корневища 20x1,5г</t>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
   </si>
   <si>
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
     <t>Контрактная площадка</t>
   </si>
   <si>
@@ -370,136 +370,217 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>2023-02-14</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
-  </si>
-  <si>
-    <t>2023-02-17</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-02-22</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>2023-02-24</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-03-01</t>
-  </si>
-  <si>
-    <t>2023-03-02</t>
-  </si>
-  <si>
-    <t>2023-03-03</t>
-  </si>
-  <si>
-    <t>2023-03-06</t>
-  </si>
-  <si>
-    <t>2023-03-08</t>
-  </si>
-  <si>
-    <t>2023-03-09</t>
-  </si>
-  <si>
-    <t>2023-03-10</t>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2023-03-21</t>
+  </si>
+  <si>
+    <t>2023-03-22</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
+  </si>
+  <si>
+    <t>2023-03-30</t>
+  </si>
+  <si>
+    <t>2023-04-04</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>2023-04-12</t>
+  </si>
+  <si>
+    <t>2023-04-14</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-03-29</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2024-02-06</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>2023-04-20</t>
+  </si>
+  <si>
+    <t>2023-04-25</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2023-12-29</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
   </si>
   <si>
     <t>2023-03-14</t>
   </si>
   <si>
-    <t>2023-03-15</t>
-  </si>
-  <si>
-    <t>2023-03-17</t>
-  </si>
-  <si>
-    <t>2023-03-20</t>
-  </si>
-  <si>
-    <t>2023-03-21</t>
-  </si>
-  <si>
-    <t>2023-03-24</t>
-  </si>
-  <si>
     <t>2023-03-28</t>
   </si>
   <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>2023-04-10</t>
-  </si>
-  <si>
-    <t>2023-04-11</t>
-  </si>
-  <si>
-    <t>2023-08-25</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>2023-03-22</t>
-  </si>
-  <si>
-    <t>2023-04-28</t>
-  </si>
-  <si>
-    <t>2023-07-27</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-03-07</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>2023-03-16</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-10-02</t>
-  </si>
-  <si>
-    <t>2023-11-22</t>
-  </si>
-  <si>
-    <t>2023-11-29</t>
-  </si>
-  <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
-    <t>2023-12-19</t>
-  </si>
-  <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-04-18</t>
+  </si>
+  <si>
+    <t>2023-04-19</t>
   </si>
 </sst>
 </file>
@@ -888,13 +969,13 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D2">
-        <v>73440</v>
+        <v>66912</v>
       </c>
       <c r="E2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -908,13 +989,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>15877</v>
+        <v>62627</v>
       </c>
       <c r="E3">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -928,16 +1009,16 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>12441</v>
+        <v>27510</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -948,16 +1029,16 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>3361</v>
+        <v>11429</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -968,13 +1049,13 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>8339</v>
+        <v>7181</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>120</v>
@@ -988,16 +1069,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>18744</v>
+        <v>14500</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1008,16 +1089,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>14350</v>
+        <v>1498</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1028,16 +1109,16 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>14254</v>
+        <v>10096</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1048,16 +1129,16 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>35449</v>
+        <v>43541</v>
       </c>
       <c r="E10">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1068,16 +1149,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>20942</v>
+        <v>53566</v>
       </c>
       <c r="E11">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1088,16 +1169,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>9313</v>
+        <v>22412</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1108,16 +1189,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>17073</v>
+        <v>13168</v>
       </c>
       <c r="E13">
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1128,16 +1209,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>20492</v>
+        <v>17598</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1148,16 +1229,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>27014</v>
+        <v>11769</v>
       </c>
       <c r="E15">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1168,16 +1249,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>68815</v>
+        <v>24517</v>
       </c>
       <c r="E16">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1188,16 +1269,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>28126</v>
+        <v>19091</v>
       </c>
       <c r="E17">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1208,16 +1289,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>13118</v>
+        <v>19010</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1228,16 +1309,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>7871</v>
+        <v>16038</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1248,13 +1329,13 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>29338</v>
-      </c>
-      <c r="E20">
-        <v>41</v>
+        <v>11504</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -1268,16 +1349,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>19020</v>
+        <v>6271</v>
       </c>
       <c r="E21">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1288,13 +1369,13 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>15033</v>
+        <v>22891</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
         <v>128</v>
@@ -1308,16 +1389,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>8991</v>
+        <v>22124</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1328,16 +1409,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>90690</v>
+        <v>16872</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1348,16 +1429,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>21295</v>
+        <v>11657</v>
       </c>
       <c r="E25">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1368,16 +1449,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>20507</v>
+        <v>25230</v>
       </c>
       <c r="E26">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1388,16 +1469,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>18373</v>
+        <v>28287</v>
       </c>
       <c r="E27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1408,16 +1489,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>17068</v>
+        <v>17866</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1428,16 +1509,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>18355</v>
+        <v>6383</v>
       </c>
       <c r="E29">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1448,16 +1529,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>11618</v>
+        <v>20821</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1468,16 +1549,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>11129</v>
+        <v>107276</v>
       </c>
       <c r="E31">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1488,16 +1569,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>33827</v>
+        <v>20421</v>
       </c>
       <c r="E32">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1508,16 +1589,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D33">
-        <v>19188</v>
+        <v>28080</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1528,16 +1609,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D34">
-        <v>21738</v>
+        <v>17746</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1548,16 +1629,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D35">
-        <v>24626</v>
+        <v>41925</v>
       </c>
       <c r="E35">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1568,16 +1649,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D36">
-        <v>9279</v>
+        <v>15061</v>
       </c>
       <c r="E36">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1588,16 +1669,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D37">
-        <v>17292</v>
+        <v>39292</v>
       </c>
       <c r="E37">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1608,16 +1689,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D38">
-        <v>27850</v>
+        <v>20499</v>
       </c>
       <c r="E38">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1628,16 +1709,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D39">
-        <v>2800</v>
+        <v>13897</v>
       </c>
       <c r="E39">
         <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1648,16 +1729,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D40">
-        <v>81300</v>
+        <v>21784</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1668,16 +1749,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="D41">
-        <v>15298</v>
-      </c>
-      <c r="E41" t="s">
-        <v>117</v>
+        <v>17315</v>
+      </c>
+      <c r="E41">
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1688,16 +1769,16 @@
         <v>113</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="D42">
-        <v>26010</v>
+        <v>38206</v>
       </c>
       <c r="E42">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1708,16 +1789,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D43">
-        <v>7237</v>
+        <v>32508</v>
       </c>
       <c r="E43">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1728,16 +1809,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="D44">
-        <v>16683</v>
+        <v>6429</v>
       </c>
       <c r="E44">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1748,16 +1829,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="D45">
-        <v>17075</v>
+        <v>31934</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1768,16 +1849,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="D46">
-        <v>26020</v>
+        <v>43123</v>
       </c>
       <c r="E46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1788,16 +1869,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="D47">
-        <v>26147</v>
+        <v>29980</v>
       </c>
       <c r="E47">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1808,16 +1889,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D48">
-        <v>7312</v>
+        <v>6906</v>
       </c>
       <c r="E48">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1828,16 +1909,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>1850</v>
+        <v>9348</v>
       </c>
       <c r="E49">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1848,13 +1929,13 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>3220</v>
+        <v>3890</v>
       </c>
       <c r="E50">
-        <v>285</v>
+        <v>56</v>
       </c>
       <c r="F50" t="s">
         <v>127</v>
@@ -1868,16 +1949,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>4480</v>
+        <v>3670</v>
       </c>
       <c r="E51">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1888,16 +1969,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D52">
-        <v>14338</v>
+        <v>3270</v>
       </c>
       <c r="E52">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1908,16 +1989,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D53">
-        <v>3770</v>
+        <v>1450</v>
       </c>
       <c r="E53">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1928,16 +2009,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="D54">
-        <v>2810</v>
+        <v>5350</v>
       </c>
       <c r="E54">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1948,16 +2029,16 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D55">
-        <v>6320</v>
+        <v>5730</v>
       </c>
       <c r="E55">
-        <v>339</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="F55" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1968,16 +2049,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D56">
-        <v>2334</v>
+        <v>2481</v>
       </c>
       <c r="E56">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1988,16 +2069,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D57">
-        <v>10818</v>
+        <v>34713</v>
       </c>
       <c r="E57">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2008,16 +2089,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>6788</v>
+        <v>154213</v>
       </c>
       <c r="E58">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2028,16 +2109,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D59">
-        <v>66852</v>
+        <v>14688</v>
       </c>
       <c r="E59">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2048,16 +2129,16 @@
         <v>115</v>
       </c>
       <c r="C60">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D60">
-        <v>11736</v>
+        <v>157389</v>
       </c>
       <c r="E60">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2068,16 +2149,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D61">
-        <v>19314</v>
+        <v>72504</v>
       </c>
       <c r="E61">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2088,16 +2169,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D62">
-        <v>107395</v>
+        <v>69907</v>
       </c>
       <c r="E62">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2108,16 +2189,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D63">
-        <v>24174</v>
+        <v>32445</v>
       </c>
       <c r="E63">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2128,16 +2209,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D64">
-        <v>33017</v>
+        <v>46283</v>
       </c>
       <c r="E64">
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2148,16 +2229,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D65">
-        <v>26765</v>
+        <v>73514</v>
       </c>
       <c r="E65">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2168,16 +2249,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D66">
-        <v>50814</v>
+        <v>52775</v>
       </c>
       <c r="E66">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2188,16 +2269,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D67">
-        <v>24154</v>
+        <v>19145</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2208,16 +2289,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D68">
-        <v>30807</v>
+        <v>25492</v>
       </c>
       <c r="E68">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2228,16 +2309,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D69">
-        <v>22270</v>
+        <v>43311</v>
       </c>
       <c r="E69">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2248,16 +2329,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D70">
-        <v>47875</v>
+        <v>7752</v>
       </c>
       <c r="E70">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2268,16 +2349,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D71">
-        <v>4102</v>
+        <v>108450</v>
       </c>
       <c r="E71">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2288,16 +2369,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D72">
-        <v>34128</v>
+        <v>37700</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2308,16 +2389,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D73">
-        <v>60399</v>
+        <v>30506</v>
       </c>
       <c r="E73">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2328,16 +2409,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D74">
-        <v>61274</v>
+        <v>40392</v>
       </c>
       <c r="E74">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2348,16 +2429,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D75">
-        <v>29484</v>
+        <v>6370</v>
       </c>
       <c r="E75">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2368,16 +2449,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D76">
-        <v>3741</v>
+        <v>33858</v>
       </c>
       <c r="E76">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2388,16 +2469,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D77">
-        <v>697284</v>
+        <v>1204073</v>
       </c>
       <c r="E77">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2408,16 +2489,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D78">
-        <v>151953</v>
+        <v>105907</v>
       </c>
       <c r="E78">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2428,16 +2509,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D79">
-        <v>28322</v>
+        <v>52098</v>
       </c>
       <c r="E79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2448,16 +2529,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D80">
-        <v>63841</v>
+        <v>13736</v>
       </c>
       <c r="E80">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2468,16 +2549,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D81">
-        <v>30663</v>
+        <v>86505</v>
       </c>
       <c r="E81">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2488,16 +2569,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D82">
-        <v>22819</v>
+        <v>60706</v>
       </c>
       <c r="E82">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2508,16 +2589,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="D83">
-        <v>78515</v>
-      </c>
-      <c r="E83">
-        <v>27</v>
+        <v>4460</v>
+      </c>
+      <c r="E83" t="s">
+        <v>117</v>
       </c>
       <c r="F83" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2528,16 +2609,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="D84">
-        <v>53667</v>
+        <v>912111</v>
       </c>
       <c r="E84">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2548,16 +2629,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D85">
-        <v>42460</v>
+        <v>32557</v>
       </c>
       <c r="E85">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2568,16 +2649,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D86">
-        <v>23631</v>
+        <v>44982</v>
       </c>
       <c r="E86">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F86" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2588,16 +2669,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="D87">
-        <v>1130381</v>
+        <v>23955</v>
       </c>
       <c r="E87">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2608,16 +2689,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="D88">
-        <v>63018</v>
+        <v>40926</v>
       </c>
       <c r="E88">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2628,16 +2709,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="D89">
-        <v>1562</v>
-      </c>
-      <c r="E89" t="s">
-        <v>117</v>
+        <v>69888</v>
+      </c>
+      <c r="E89">
+        <v>64</v>
       </c>
       <c r="F89" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2648,16 +2729,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="D90">
-        <v>7516</v>
+        <v>10678</v>
       </c>
       <c r="E90">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2668,16 +2749,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D91">
-        <v>11704</v>
+        <v>6724</v>
       </c>
       <c r="E91">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2688,16 +2769,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D92">
-        <v>9054</v>
+        <v>3222</v>
       </c>
       <c r="E92">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2708,16 +2789,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D93">
-        <v>3834</v>
+        <v>3852</v>
       </c>
       <c r="E93">
         <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2728,16 +2809,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D94">
-        <v>3816</v>
+        <v>8010</v>
       </c>
       <c r="E94">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2748,16 +2829,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D95">
-        <v>4212</v>
+        <v>936</v>
       </c>
       <c r="E95">
         <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2768,16 +2849,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D96">
-        <v>2818</v>
+        <v>4752</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2788,16 +2869,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D97">
-        <v>5040</v>
+        <v>4248</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2808,10 +2889,10 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D98">
-        <v>1836</v>
+        <v>5796</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -2828,10 +2909,10 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D99">
-        <v>2888</v>
+        <v>4896</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -2848,16 +2929,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100">
-        <v>3148</v>
+        <v>7812</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2868,16 +2949,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>24386</v>
+        <v>51440</v>
       </c>
       <c r="E101">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2888,16 +2969,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D102">
-        <v>7452</v>
+        <v>30021</v>
       </c>
       <c r="E102">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2908,16 +2989,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D103">
-        <v>14622</v>
+        <v>2772</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2928,16 +3009,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D104">
-        <v>19386</v>
+        <v>8116</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2948,16 +3029,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D105">
-        <v>52040</v>
+        <v>24781</v>
       </c>
       <c r="E105">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2968,16 +3049,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D106">
-        <v>4050</v>
+        <v>18944</v>
       </c>
       <c r="E106">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F106" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2988,16 +3069,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D107">
-        <v>21626</v>
+        <v>3247</v>
       </c>
       <c r="E107">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F107" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3008,16 +3089,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D108">
-        <v>3733</v>
+        <v>21232</v>
       </c>
       <c r="E108">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="198">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,142 +34,145 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
     <t>Лен семена 100г</t>
   </si>
   <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
     <t>Пижма цветки 75г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
   </si>
   <si>
     <t>Ламинарии слоевища (морская капуста) 100г</t>
   </si>
   <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
     <t>Шалфей листья 50г</t>
   </si>
   <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
   </si>
   <si>
     <t>Липа цветки 35г</t>
   </si>
   <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+    <t>Мать-и-мачеха листья 35г</t>
   </si>
   <si>
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
     <t>Боярышник плоды 75г</t>
   </si>
   <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
   <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
@@ -181,9 +184,6 @@
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
@@ -193,165 +193,165 @@
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Береза листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Пустырник трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+    <t>Фп Подорожник листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
+    <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
   <si>
     <t>Фп Аир корневища 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Крушина кора 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
   </si>
   <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Девясил корневища и корни 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
     <t>Контрактная площадка</t>
   </si>
   <si>
@@ -370,217 +370,244 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-03-15</t>
-  </si>
-  <si>
-    <t>2023-03-16</t>
-  </si>
-  <si>
-    <t>2023-03-17</t>
-  </si>
-  <si>
-    <t>2023-03-20</t>
-  </si>
-  <si>
-    <t>2023-03-21</t>
-  </si>
-  <si>
-    <t>2023-03-22</t>
-  </si>
-  <si>
-    <t>2023-03-23</t>
-  </si>
-  <si>
-    <t>2023-03-30</t>
-  </si>
-  <si>
-    <t>2023-04-04</t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t>2023-04-10</t>
-  </si>
-  <si>
-    <t>2023-04-12</t>
-  </si>
-  <si>
-    <t>2023-04-14</t>
-  </si>
-  <si>
-    <t>2023-04-24</t>
-  </si>
-  <si>
-    <t>2023-04-28</t>
+    <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>2023-04-26</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>2023-06-21</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>2023-06-29</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
   </si>
   <si>
     <t>2023-05-01</t>
   </si>
   <si>
-    <t>2023-05-03</t>
-  </si>
-  <si>
-    <t>2023-05-04</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>2024-02-22</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
   </si>
   <si>
     <t>2023-05-22</t>
   </si>
   <si>
-    <t>2023-05-23</t>
-  </si>
-  <si>
-    <t>2023-06-09</t>
-  </si>
-  <si>
-    <t>2023-06-26</t>
-  </si>
-  <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>2023-07-11</t>
-  </si>
-  <si>
-    <t>2023-07-28</t>
+    <t>2023-06-23</t>
   </si>
   <si>
     <t>2023-08-11</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-08-31</t>
-  </si>
-  <si>
-    <t>2023-09-08</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-03-29</t>
-  </si>
-  <si>
-    <t>2023-05-08</t>
-  </si>
-  <si>
-    <t>2023-05-09</t>
-  </si>
-  <si>
-    <t>2023-06-12</t>
-  </si>
-  <si>
-    <t>2023-10-30</t>
-  </si>
-  <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
-    <t>2023-03-24</t>
-  </si>
-  <si>
-    <t>2023-04-13</t>
-  </si>
-  <si>
-    <t>2023-04-17</t>
-  </si>
-  <si>
-    <t>2023-04-20</t>
-  </si>
-  <si>
-    <t>2023-04-25</t>
-  </si>
-  <si>
-    <t>2023-05-05</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>2023-05-16</t>
-  </si>
-  <si>
-    <t>2023-05-26</t>
-  </si>
-  <si>
-    <t>2023-05-30</t>
-  </si>
-  <si>
-    <t>2023-06-19</t>
-  </si>
-  <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>2023-08-04</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2023-11-27</t>
-  </si>
-  <si>
-    <t>2023-11-30</t>
-  </si>
-  <si>
-    <t>2023-12-29</t>
-  </si>
-  <si>
-    <t>2024-01-02</t>
-  </si>
-  <si>
-    <t>2024-01-05</t>
-  </si>
-  <si>
-    <t>2023-03-14</t>
-  </si>
-  <si>
-    <t>2023-03-28</t>
-  </si>
-  <si>
-    <t>2023-04-03</t>
-  </si>
-  <si>
-    <t>2023-04-18</t>
-  </si>
-  <si>
-    <t>2023-04-19</t>
   </si>
 </sst>
 </file>
@@ -969,13 +996,13 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D2">
-        <v>66912</v>
+        <v>65888</v>
       </c>
       <c r="E2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -989,13 +1016,13 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>62627</v>
+        <v>252</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -1009,16 +1036,16 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>27510</v>
+        <v>49638</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1029,16 +1056,16 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>11429</v>
+        <v>72766</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1049,16 +1076,16 @@
         <v>113</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>7181</v>
+        <v>45468</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1069,16 +1096,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>14500</v>
+        <v>10139</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1089,16 +1116,16 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>1498</v>
+        <v>12896</v>
       </c>
       <c r="E8">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1109,16 +1136,16 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>10096</v>
+        <v>16436</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1129,16 +1156,16 @@
         <v>113</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>43541</v>
+        <v>20635</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1149,16 +1176,16 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>53566</v>
+        <v>34467</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1169,16 +1196,16 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>22412</v>
+        <v>23449</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1189,16 +1216,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>13168</v>
+        <v>7681</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1209,16 +1236,16 @@
         <v>113</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>17598</v>
-      </c>
-      <c r="E14">
-        <v>41</v>
+        <v>13198</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1229,16 +1256,16 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>11769</v>
+        <v>15668</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1249,16 +1276,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>24517</v>
+        <v>6587</v>
       </c>
       <c r="E16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1269,16 +1296,16 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>19091</v>
+        <v>13219</v>
       </c>
       <c r="E17">
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1289,16 +1316,16 @@
         <v>113</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>19010</v>
+        <v>29616</v>
       </c>
       <c r="E18">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1309,16 +1336,16 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>16038</v>
+        <v>11434</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1329,16 +1356,16 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>11504</v>
-      </c>
-      <c r="E20" t="s">
-        <v>117</v>
+        <v>19225</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1349,16 +1376,16 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>6271</v>
+        <v>97580</v>
       </c>
       <c r="E21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1369,16 +1396,16 @@
         <v>113</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>22891</v>
+        <v>27653</v>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1389,16 +1416,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>22124</v>
+        <v>19391</v>
       </c>
       <c r="E23">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1409,16 +1436,16 @@
         <v>113</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D24">
-        <v>16872</v>
+        <v>22948</v>
       </c>
       <c r="E24">
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1429,16 +1456,16 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D25">
-        <v>11657</v>
+        <v>27615</v>
       </c>
       <c r="E25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1449,16 +1476,16 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>25230</v>
+        <v>25211</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1469,16 +1496,16 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>28287</v>
+        <v>25726</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1489,16 +1516,16 @@
         <v>113</v>
       </c>
       <c r="C28">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>17866</v>
+        <v>30782</v>
       </c>
       <c r="E28">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1509,16 +1536,16 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>6383</v>
+        <v>31497</v>
       </c>
       <c r="E29">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1529,16 +1556,16 @@
         <v>113</v>
       </c>
       <c r="C30">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>20821</v>
+        <v>47331</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1549,16 +1576,16 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D31">
-        <v>107276</v>
+        <v>15128</v>
       </c>
       <c r="E31">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1569,16 +1596,16 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D32">
-        <v>20421</v>
+        <v>102002</v>
       </c>
       <c r="E32">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1589,16 +1616,16 @@
         <v>113</v>
       </c>
       <c r="C33">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D33">
-        <v>28080</v>
+        <v>19516</v>
       </c>
       <c r="E33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1609,16 +1636,16 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D34">
-        <v>17746</v>
+        <v>29927</v>
       </c>
       <c r="E34">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1629,16 +1656,16 @@
         <v>113</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>41925</v>
+        <v>8075</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1649,16 +1676,16 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="D36">
-        <v>15061</v>
+        <v>16810</v>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1669,16 +1696,16 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D37">
-        <v>39292</v>
+        <v>15554</v>
       </c>
       <c r="E37">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1689,16 +1716,16 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D38">
-        <v>20499</v>
+        <v>23604</v>
       </c>
       <c r="E38">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1709,16 +1736,16 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D39">
-        <v>13897</v>
+        <v>24668</v>
       </c>
       <c r="E39">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1729,16 +1756,16 @@
         <v>113</v>
       </c>
       <c r="C40">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D40">
-        <v>21784</v>
+        <v>17245</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1749,16 +1776,16 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D41">
-        <v>17315</v>
+        <v>45834</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1772,13 +1799,13 @@
         <v>130</v>
       </c>
       <c r="D42">
-        <v>38206</v>
+        <v>41949</v>
       </c>
       <c r="E42">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1789,16 +1816,16 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43">
-        <v>32508</v>
+        <v>5576</v>
       </c>
       <c r="E43">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1809,16 +1836,16 @@
         <v>113</v>
       </c>
       <c r="C44">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D44">
-        <v>6429</v>
+        <v>9085</v>
       </c>
       <c r="E44">
         <v>73</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1829,16 +1856,16 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D45">
-        <v>31934</v>
+        <v>25631</v>
       </c>
       <c r="E45">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1849,16 +1876,16 @@
         <v>113</v>
       </c>
       <c r="C46">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D46">
-        <v>43123</v>
+        <v>31979</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1869,16 +1896,16 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D47">
-        <v>29980</v>
+        <v>34826</v>
       </c>
       <c r="E47">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1889,16 +1916,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D48">
-        <v>6906</v>
+        <v>32199</v>
       </c>
       <c r="E48">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1909,16 +1936,16 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D49">
-        <v>9348</v>
+        <v>2050</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1929,16 +1956,16 @@
         <v>114</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D50">
-        <v>3890</v>
+        <v>12506</v>
       </c>
       <c r="E50">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1949,16 +1976,16 @@
         <v>114</v>
       </c>
       <c r="C51">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D51">
-        <v>3670</v>
+        <v>4100</v>
       </c>
       <c r="E51">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1969,16 +1996,16 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D52">
-        <v>3270</v>
+        <v>2460</v>
       </c>
       <c r="E52">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1989,16 +2016,16 @@
         <v>114</v>
       </c>
       <c r="C53">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D53">
-        <v>1450</v>
+        <v>2340</v>
       </c>
       <c r="E53">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2009,16 +2036,16 @@
         <v>114</v>
       </c>
       <c r="C54">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D54">
-        <v>5350</v>
+        <v>3820</v>
       </c>
       <c r="E54">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2029,16 +2056,16 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="D55">
-        <v>5730</v>
+        <v>5000</v>
       </c>
       <c r="E55">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2049,16 +2076,16 @@
         <v>115</v>
       </c>
       <c r="C56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>2481</v>
+        <v>2442</v>
       </c>
       <c r="E56">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2069,16 +2096,16 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D57">
-        <v>34713</v>
+        <v>107520</v>
       </c>
       <c r="E57">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2089,16 +2116,16 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>154213</v>
+        <v>145513</v>
       </c>
       <c r="E58">
         <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2109,16 +2136,16 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D59">
-        <v>14688</v>
+        <v>27647</v>
       </c>
       <c r="E59">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2129,16 +2156,16 @@
         <v>115</v>
       </c>
       <c r="C60">
+        <v>40</v>
+      </c>
+      <c r="D60">
+        <v>56589</v>
+      </c>
+      <c r="E60">
         <v>31</v>
       </c>
-      <c r="D60">
-        <v>157389</v>
-      </c>
-      <c r="E60">
-        <v>32</v>
-      </c>
       <c r="F60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2149,16 +2176,16 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D61">
-        <v>72504</v>
+        <v>14958</v>
       </c>
       <c r="E61">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2169,16 +2196,16 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D62">
-        <v>69907</v>
+        <v>18126</v>
       </c>
       <c r="E62">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2189,16 +2216,16 @@
         <v>115</v>
       </c>
       <c r="C63">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D63">
-        <v>32445</v>
+        <v>80238</v>
       </c>
       <c r="E63">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2209,16 +2236,16 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D64">
-        <v>46283</v>
+        <v>53246</v>
       </c>
       <c r="E64">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2229,16 +2256,16 @@
         <v>115</v>
       </c>
       <c r="C65">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D65">
-        <v>73514</v>
+        <v>26158</v>
       </c>
       <c r="E65">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2249,16 +2276,16 @@
         <v>115</v>
       </c>
       <c r="C66">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D66">
-        <v>52775</v>
+        <v>60313</v>
       </c>
       <c r="E66">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2269,16 +2296,16 @@
         <v>115</v>
       </c>
       <c r="C67">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D67">
-        <v>19145</v>
+        <v>28092</v>
       </c>
       <c r="E67">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2289,16 +2316,16 @@
         <v>115</v>
       </c>
       <c r="C68">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D68">
-        <v>25492</v>
+        <v>5398</v>
       </c>
       <c r="E68">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2309,16 +2336,16 @@
         <v>115</v>
       </c>
       <c r="C69">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D69">
-        <v>43311</v>
+        <v>63369</v>
       </c>
       <c r="E69">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2329,16 +2356,16 @@
         <v>115</v>
       </c>
       <c r="C70">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D70">
-        <v>7752</v>
+        <v>84177</v>
       </c>
       <c r="E70">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2349,16 +2376,16 @@
         <v>115</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D71">
-        <v>108450</v>
+        <v>49366</v>
       </c>
       <c r="E71">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2369,16 +2396,16 @@
         <v>115</v>
       </c>
       <c r="C72">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D72">
-        <v>37700</v>
+        <v>41991</v>
       </c>
       <c r="E72">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2389,16 +2416,16 @@
         <v>115</v>
       </c>
       <c r="C73">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D73">
-        <v>30506</v>
+        <v>975634</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2409,16 +2436,16 @@
         <v>115</v>
       </c>
       <c r="C74">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D74">
-        <v>40392</v>
+        <v>28136</v>
       </c>
       <c r="E74">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2429,16 +2456,16 @@
         <v>115</v>
       </c>
       <c r="C75">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D75">
-        <v>6370</v>
-      </c>
-      <c r="E75">
-        <v>37</v>
+        <v>3308</v>
+      </c>
+      <c r="E75" t="s">
+        <v>117</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2449,16 +2476,16 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D76">
-        <v>33858</v>
+        <v>60298</v>
       </c>
       <c r="E76">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2469,16 +2496,16 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D77">
-        <v>1204073</v>
+        <v>42047</v>
       </c>
       <c r="E77">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2489,16 +2516,16 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D78">
-        <v>105907</v>
+        <v>38709</v>
       </c>
       <c r="E78">
         <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2509,16 +2536,16 @@
         <v>115</v>
       </c>
       <c r="C79">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D79">
-        <v>52098</v>
+        <v>39987</v>
       </c>
       <c r="E79">
         <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2529,16 +2556,16 @@
         <v>115</v>
       </c>
       <c r="C80">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D80">
-        <v>13736</v>
+        <v>5163</v>
       </c>
       <c r="E80">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2549,16 +2576,16 @@
         <v>115</v>
       </c>
       <c r="C81">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D81">
-        <v>86505</v>
+        <v>834318</v>
       </c>
       <c r="E81">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2569,16 +2596,16 @@
         <v>115</v>
       </c>
       <c r="C82">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D82">
-        <v>60706</v>
+        <v>58672</v>
       </c>
       <c r="E82">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2589,16 +2616,16 @@
         <v>115</v>
       </c>
       <c r="C83">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D83">
-        <v>4460</v>
-      </c>
-      <c r="E83" t="s">
-        <v>117</v>
+        <v>31590</v>
+      </c>
+      <c r="E83">
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2609,16 +2636,16 @@
         <v>115</v>
       </c>
       <c r="C84">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D84">
-        <v>912111</v>
+        <v>54660</v>
       </c>
       <c r="E84">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F84" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2629,16 +2656,16 @@
         <v>115</v>
       </c>
       <c r="C85">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D85">
-        <v>32557</v>
+        <v>38568</v>
       </c>
       <c r="E85">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2649,16 +2676,16 @@
         <v>115</v>
       </c>
       <c r="C86">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D86">
-        <v>44982</v>
+        <v>32764</v>
       </c>
       <c r="E86">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2669,16 +2696,16 @@
         <v>115</v>
       </c>
       <c r="C87">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D87">
-        <v>23955</v>
+        <v>41885</v>
       </c>
       <c r="E87">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2689,16 +2716,16 @@
         <v>115</v>
       </c>
       <c r="C88">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D88">
-        <v>40926</v>
+        <v>30159</v>
       </c>
       <c r="E88">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2709,16 +2736,16 @@
         <v>115</v>
       </c>
       <c r="C89">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D89">
-        <v>69888</v>
+        <v>17496</v>
       </c>
       <c r="E89">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2729,16 +2756,16 @@
         <v>115</v>
       </c>
       <c r="C90">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D90">
-        <v>10678</v>
+        <v>4726</v>
       </c>
       <c r="E90">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2749,16 +2776,16 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D91">
-        <v>6724</v>
+        <v>8662</v>
       </c>
       <c r="E91">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2769,16 +2796,16 @@
         <v>115</v>
       </c>
       <c r="C92">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D92">
-        <v>3222</v>
+        <v>3564</v>
       </c>
       <c r="E92">
         <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2789,16 +2816,16 @@
         <v>115</v>
       </c>
       <c r="C93">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D93">
-        <v>3852</v>
+        <v>4194</v>
       </c>
       <c r="E93">
         <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2809,16 +2836,16 @@
         <v>115</v>
       </c>
       <c r="C94">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D94">
-        <v>8010</v>
+        <v>4446</v>
       </c>
       <c r="E94">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2829,16 +2856,16 @@
         <v>115</v>
       </c>
       <c r="C95">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="D95">
-        <v>936</v>
+        <v>7182</v>
       </c>
       <c r="E95">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2849,16 +2876,16 @@
         <v>115</v>
       </c>
       <c r="C96">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D96">
-        <v>4752</v>
+        <v>4464</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2869,16 +2896,16 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D97">
-        <v>4248</v>
+        <v>2070</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2889,16 +2916,16 @@
         <v>115</v>
       </c>
       <c r="C98">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D98">
-        <v>5796</v>
+        <v>4554</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
-      <c r="F98">
-        <v>0</v>
+      <c r="F98" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2909,10 +2936,10 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D99">
-        <v>4896</v>
+        <v>5436</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -2929,16 +2956,16 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D100">
-        <v>7812</v>
+        <v>7858</v>
       </c>
       <c r="E100">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2949,16 +2976,16 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D101">
-        <v>51440</v>
+        <v>3290</v>
       </c>
       <c r="E101">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2969,16 +2996,16 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D102">
-        <v>30021</v>
+        <v>63165</v>
       </c>
       <c r="E102">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2989,16 +3016,16 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D103">
-        <v>2772</v>
+        <v>21864</v>
       </c>
       <c r="E103">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3009,16 +3036,16 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D104">
-        <v>8116</v>
+        <v>25495</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3029,16 +3056,16 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D105">
-        <v>24781</v>
+        <v>22123</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3049,16 +3076,16 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D106">
-        <v>18944</v>
+        <v>5291</v>
       </c>
       <c r="E106">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F106" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3069,16 +3096,16 @@
         <v>116</v>
       </c>
       <c r="C107">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D107">
-        <v>3247</v>
+        <v>61574</v>
       </c>
       <c r="E107">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3089,16 +3116,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D108">
-        <v>21232</v>
+        <v>21669</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="185">
   <si>
     <t>Линия производства</t>
   </si>
@@ -34,321 +34,318 @@
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
   <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
     <t>Рябина плоды 50г</t>
   </si>
   <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
+  </si>
+  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
   <si>
     <t>Фп Пижма цветки 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
     <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Бадан корневища 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Девясил корневища и корни 20х1,5г</t>
   </si>
   <si>
@@ -370,43 +367,127 @@
     <t>inf</t>
   </si>
   <si>
-    <t>2023-04-19</t>
-  </si>
-  <si>
-    <t>2023-04-21</t>
-  </si>
-  <si>
-    <t>2023-04-26</t>
-  </si>
-  <si>
-    <t>2023-04-27</t>
-  </si>
-  <si>
-    <t>2023-05-03</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>2023-05-17</t>
-  </si>
-  <si>
-    <t>2023-05-19</t>
-  </si>
-  <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>2023-06-02</t>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>2023-06-23</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2023-07-19</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-12-29</t>
   </si>
   <si>
     <t>2023-06-07</t>
   </si>
   <si>
-    <t>2023-06-13</t>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
   </si>
   <si>
     <t>2023-06-19</t>
@@ -418,196 +499,76 @@
     <t>2023-06-21</t>
   </si>
   <si>
-    <t>2023-06-22</t>
-  </si>
-  <si>
     <t>2023-06-26</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-10-03</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
   </si>
   <si>
     <t>2023-06-29</t>
   </si>
   <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
-    <t>2023-07-03</t>
-  </si>
-  <si>
     <t>2023-07-07</t>
   </si>
   <si>
-    <t>2023-07-12</t>
-  </si>
-  <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
-    <t>2023-09-13</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-05-04</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>2023-07-20</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>2023-12-05</t>
-  </si>
-  <si>
-    <t>2024-01-30</t>
-  </si>
-  <si>
-    <t>2023-04-17</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>2023-05-08</t>
-  </si>
-  <si>
-    <t>2023-05-18</t>
-  </si>
-  <si>
-    <t>2023-05-23</t>
-  </si>
-  <si>
-    <t>2023-05-24</t>
-  </si>
-  <si>
-    <t>2023-05-25</t>
-  </si>
-  <si>
-    <t>2023-05-30</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>2023-06-09</t>
-  </si>
-  <si>
-    <t>2023-06-12</t>
-  </si>
-  <si>
-    <t>2023-06-14</t>
-  </si>
-  <si>
-    <t>2023-06-16</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>2023-08-03</t>
-  </si>
-  <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
-    <t>2023-08-30</t>
-  </si>
-  <si>
-    <t>2023-08-31</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-12-11</t>
-  </si>
-  <si>
-    <t>2023-12-13</t>
-  </si>
-  <si>
-    <t>2024-01-09</t>
-  </si>
-  <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>2023-05-09</t>
-  </si>
-  <si>
-    <t>2023-05-22</t>
-  </si>
-  <si>
-    <t>2023-06-23</t>
-  </si>
-  <si>
-    <t>2023-08-11</t>
+    <t>2023-08-24</t>
   </si>
 </sst>
 </file>
@@ -965,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,16 +954,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D2">
-        <v>65888</v>
+        <v>63520</v>
       </c>
       <c r="E2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1013,19 +974,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>252</v>
+        <v>12826</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1033,19 +994,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>49638</v>
+        <v>17710</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1053,19 +1014,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>72766</v>
+        <v>63360</v>
       </c>
       <c r="E5">
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1073,19 +1034,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>45468</v>
+        <v>28629</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1093,19 +1054,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>10139</v>
+        <v>53501</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1113,19 +1074,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>12896</v>
+        <v>84925</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1133,19 +1094,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>16436</v>
+        <v>6282</v>
       </c>
       <c r="E9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1153,19 +1114,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>20635</v>
+        <v>30895</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1173,19 +1134,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>34467</v>
+        <v>16939</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1193,19 +1154,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>23449</v>
-      </c>
-      <c r="E12">
-        <v>32</v>
+        <v>11634</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1213,19 +1174,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>7681</v>
+        <v>17948</v>
       </c>
       <c r="E13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1233,19 +1194,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>13198</v>
-      </c>
-      <c r="E14" t="s">
-        <v>117</v>
+        <v>59010</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1253,19 +1214,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>15668</v>
+        <v>20750</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1273,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>6587</v>
+        <v>11167</v>
       </c>
       <c r="E16">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1293,19 +1254,19 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>13219</v>
+        <v>19305</v>
       </c>
       <c r="E17">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1313,19 +1274,19 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>29616</v>
+        <v>12927</v>
       </c>
       <c r="E18">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1333,19 +1294,19 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>11434</v>
+        <v>14228</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1353,19 +1314,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>19225</v>
+        <v>7300</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1373,19 +1334,19 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>97580</v>
+        <v>36596</v>
       </c>
       <c r="E21">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1393,19 +1354,19 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>27653</v>
+        <v>14028</v>
       </c>
       <c r="E22">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1413,19 +1374,19 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>19391</v>
+        <v>25515</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1433,19 +1394,19 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>22948</v>
+        <v>8657</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1453,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>27615</v>
+        <v>31055</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1473,19 +1434,19 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26">
-        <v>25211</v>
+        <v>12572</v>
       </c>
       <c r="E26">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1493,19 +1454,19 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D27">
-        <v>25726</v>
+        <v>27266</v>
       </c>
       <c r="E27">
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1513,19 +1474,19 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D28">
-        <v>30782</v>
+        <v>30968</v>
       </c>
       <c r="E28">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1533,19 +1494,19 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29">
-        <v>31497</v>
+        <v>15895</v>
       </c>
       <c r="E29">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1553,19 +1514,19 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <v>47331</v>
+        <v>19388</v>
       </c>
       <c r="E30">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1573,19 +1534,19 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D31">
-        <v>15128</v>
+        <v>15100</v>
       </c>
       <c r="E31">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1593,19 +1554,19 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D32">
-        <v>102002</v>
+        <v>15190</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1613,19 +1574,19 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>19516</v>
+        <v>22739</v>
       </c>
       <c r="E33">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1633,19 +1594,19 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D34">
-        <v>29927</v>
+        <v>19353</v>
       </c>
       <c r="E34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1653,19 +1614,19 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D35">
-        <v>8075</v>
+        <v>14154</v>
       </c>
       <c r="E35">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1673,19 +1634,19 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D36">
-        <v>16810</v>
+        <v>32121</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1693,19 +1654,19 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D37">
-        <v>15554</v>
+        <v>4610</v>
       </c>
       <c r="E37">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1713,19 +1674,19 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D38">
-        <v>23604</v>
+        <v>18004</v>
       </c>
       <c r="E38">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1733,19 +1694,19 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D39">
-        <v>24668</v>
+        <v>18799</v>
       </c>
       <c r="E39">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1753,19 +1714,19 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D40">
-        <v>17245</v>
+        <v>8869</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1773,19 +1734,19 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D41">
-        <v>45834</v>
+        <v>12265</v>
       </c>
       <c r="E41">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1793,19 +1754,19 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D42">
-        <v>41949</v>
+        <v>21171</v>
       </c>
       <c r="E42">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1813,19 +1774,19 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="D43">
-        <v>5576</v>
+        <v>7570</v>
       </c>
       <c r="E43">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1833,19 +1794,19 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D44">
-        <v>9085</v>
+        <v>26289</v>
       </c>
       <c r="E44">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1853,19 +1814,19 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D45">
-        <v>25631</v>
+        <v>17622</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1873,19 +1834,19 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D46">
-        <v>31979</v>
+        <v>85497</v>
       </c>
       <c r="E46">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1893,19 +1854,19 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="D47">
-        <v>34826</v>
+        <v>6202</v>
       </c>
       <c r="E47">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1916,16 +1877,16 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="D48">
-        <v>32199</v>
+        <v>19994</v>
       </c>
       <c r="E48">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1933,19 +1894,19 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>2050</v>
+        <v>2350</v>
       </c>
       <c r="E49">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1953,19 +1914,19 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>12506</v>
+        <v>2780</v>
       </c>
       <c r="E50">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1973,19 +1934,19 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>4100</v>
+        <v>4440</v>
       </c>
       <c r="E51">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1993,19 +1954,19 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D52">
-        <v>2460</v>
+        <v>3440</v>
       </c>
       <c r="E52">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="F52" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2013,19 +1974,19 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="D53">
-        <v>2340</v>
+        <v>3970</v>
       </c>
       <c r="E53">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2033,19 +1994,19 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="D54">
-        <v>3820</v>
+        <v>2130</v>
       </c>
       <c r="E54">
-        <v>289</v>
-      </c>
-      <c r="F54" t="s">
-        <v>159</v>
+        <v>330</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2056,16 +2017,16 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>5000</v>
+        <v>26609</v>
       </c>
       <c r="E55">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2073,19 +2034,19 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>2442</v>
+        <v>97916</v>
       </c>
       <c r="E56">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2093,19 +2054,19 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D57">
-        <v>107520</v>
+        <v>51588</v>
       </c>
       <c r="E57">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2113,19 +2074,19 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>145513</v>
+        <v>27153</v>
       </c>
       <c r="E58">
         <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2133,19 +2094,19 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>27647</v>
+        <v>12591</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2153,19 +2114,19 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>56589</v>
+        <v>9864</v>
       </c>
       <c r="E60">
         <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2173,19 +2134,19 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D61">
-        <v>14958</v>
+        <v>17657</v>
       </c>
       <c r="E61">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2193,19 +2154,19 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D62">
-        <v>18126</v>
+        <v>156658</v>
       </c>
       <c r="E62">
         <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2213,19 +2174,19 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>80238</v>
+        <v>56814</v>
       </c>
       <c r="E63">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2233,19 +2194,19 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>53246</v>
+        <v>16937</v>
       </c>
       <c r="E64">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2253,19 +2214,19 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D65">
-        <v>26158</v>
+        <v>17601</v>
       </c>
       <c r="E65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2273,19 +2234,19 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D66">
-        <v>60313</v>
+        <v>565813</v>
       </c>
       <c r="E66">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2293,19 +2254,19 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D67">
-        <v>28092</v>
+        <v>50350</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2313,19 +2274,19 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D68">
-        <v>5398</v>
+        <v>21090</v>
       </c>
       <c r="E68">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2333,19 +2294,19 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C69">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D69">
-        <v>63369</v>
+        <v>35416</v>
       </c>
       <c r="E69">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2353,19 +2314,19 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D70">
-        <v>84177</v>
+        <v>41385</v>
       </c>
       <c r="E70">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2373,19 +2334,19 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C71">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D71">
-        <v>49366</v>
+        <v>58507</v>
       </c>
       <c r="E71">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2393,19 +2354,19 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D72">
-        <v>41991</v>
+        <v>19486</v>
       </c>
       <c r="E72">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2413,19 +2374,19 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C73">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D73">
-        <v>975634</v>
+        <v>20538</v>
       </c>
       <c r="E73">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2433,19 +2394,19 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C74">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D74">
-        <v>28136</v>
+        <v>42768</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2453,19 +2414,19 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C75">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D75">
-        <v>3308</v>
-      </c>
-      <c r="E75" t="s">
-        <v>117</v>
+        <v>7535</v>
+      </c>
+      <c r="E75">
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2473,19 +2434,19 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C76">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D76">
-        <v>60298</v>
+        <v>14850</v>
       </c>
       <c r="E76">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2493,19 +2454,19 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C77">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D77">
-        <v>42047</v>
+        <v>41923</v>
       </c>
       <c r="E77">
         <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2513,19 +2474,19 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C78">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D78">
-        <v>38709</v>
+        <v>19818</v>
       </c>
       <c r="E78">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F78" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2533,19 +2494,19 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D79">
-        <v>39987</v>
+        <v>39150</v>
       </c>
       <c r="E79">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2553,19 +2514,19 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D80">
-        <v>5163</v>
+        <v>7194</v>
       </c>
       <c r="E80">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2573,19 +2534,19 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D81">
-        <v>834318</v>
+        <v>8532</v>
       </c>
       <c r="E81">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2593,19 +2554,19 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D82">
-        <v>58672</v>
+        <v>3903</v>
       </c>
       <c r="E82">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2613,19 +2574,19 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D83">
-        <v>31590</v>
+        <v>24983</v>
       </c>
       <c r="E83">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2633,19 +2594,19 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D84">
-        <v>54660</v>
+        <v>754992</v>
       </c>
       <c r="E84">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F84" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2653,19 +2614,19 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D85">
-        <v>38568</v>
+        <v>22825</v>
       </c>
       <c r="E85">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2673,19 +2634,19 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D86">
-        <v>32764</v>
+        <v>45030</v>
       </c>
       <c r="E86">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2693,19 +2654,19 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D87">
-        <v>41885</v>
+        <v>5818</v>
       </c>
       <c r="E87">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2713,19 +2674,19 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C88">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="D88">
-        <v>30159</v>
+        <v>21897</v>
       </c>
       <c r="E88">
         <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2733,19 +2694,19 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C89">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="D89">
-        <v>17496</v>
-      </c>
-      <c r="E89">
-        <v>36</v>
+        <v>4370</v>
+      </c>
+      <c r="E89" t="s">
+        <v>116</v>
       </c>
       <c r="F89" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2753,19 +2714,19 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C90">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="D90">
-        <v>4726</v>
+        <v>2952</v>
       </c>
       <c r="E90">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2773,19 +2734,19 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D91">
-        <v>8662</v>
+        <v>3150</v>
       </c>
       <c r="E91">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F91" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2793,19 +2754,19 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C92">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="D92">
-        <v>3564</v>
+        <v>3034</v>
       </c>
       <c r="E92">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2813,19 +2774,19 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D93">
-        <v>4194</v>
+        <v>3240</v>
       </c>
       <c r="E93">
         <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2833,19 +2794,19 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C94">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="D94">
-        <v>4446</v>
+        <v>3492</v>
       </c>
       <c r="E94">
         <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2853,19 +2814,19 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C95">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D95">
-        <v>7182</v>
+        <v>5724</v>
       </c>
       <c r="E95">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2873,19 +2834,19 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D96">
-        <v>4464</v>
+        <v>4824</v>
       </c>
       <c r="E96">
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2893,19 +2854,19 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D97">
-        <v>2070</v>
+        <v>3562</v>
       </c>
       <c r="E97">
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2913,19 +2874,19 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C98">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D98">
-        <v>4554</v>
+        <v>5526</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2936,16 +2897,16 @@
         <v>115</v>
       </c>
       <c r="C99">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="D99">
-        <v>5436</v>
+        <v>82094</v>
       </c>
       <c r="E99">
-        <v>100</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F99" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2953,19 +2914,19 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C100">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D100">
-        <v>7858</v>
+        <v>10040</v>
       </c>
       <c r="E100">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2973,19 +2934,19 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D101">
-        <v>3290</v>
+        <v>18948</v>
       </c>
       <c r="E101">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2993,19 +2954,19 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C102">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D102">
-        <v>63165</v>
+        <v>27075</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3013,19 +2974,19 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D103">
-        <v>21864</v>
+        <v>30269</v>
       </c>
       <c r="E103">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3033,19 +2994,19 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D104">
-        <v>25495</v>
+        <v>22424</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3053,19 +3014,19 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D105">
-        <v>22123</v>
+        <v>7516</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3073,19 +3034,19 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C106">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D106">
-        <v>5291</v>
+        <v>5345</v>
       </c>
       <c r="E106">
         <v>52</v>
       </c>
       <c r="F106" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3093,39 +3054,19 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D107">
-        <v>61574</v>
+        <v>17223</v>
       </c>
       <c r="E107">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108">
-        <v>127</v>
-      </c>
-      <c r="D108">
-        <v>21669</v>
-      </c>
-      <c r="E108">
-        <v>42</v>
-      </c>
-      <c r="F108" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
